--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -164,6 +164,31 @@
   </si>
   <si>
     <t>‐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
+  </si>
+  <si>
+    <t>ラベリングの配置は事前に刻印文字等の呼び出し（＝VB画面でのSQL連携）が必須であるという認識で良いでしょうか。
+または、前述の操作をしていない場合でもデフォルト値で配置可能でしょうか。</t>
+  </si>
+  <si>
+    <t>DBのデータを頂くことは可能でしょうか。</t>
+    <rPh sb="7" eb="8">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB画面が使用しているヘルプファイル「Brand.hlp」を頂くことは可能でしょうか。
+ヘルプファイルの保存場所は設定ファイル「(ACAD.SETの保存フォルダ)\BR_Set.ini」内の「Help_File」で設定されている場所にあります。</t>
+    <rPh sb="74" eb="76">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -195,7 +220,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -365,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,13 +470,76 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1107,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1279,50 +1373,86 @@
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44740</v>
+      </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44740</v>
+      </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44740</v>
+      </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
@@ -1813,156 +1943,188 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="591" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="55" priority="599" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="46" priority="589">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D11:H16 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10">
+    <cfRule type="expression" dxfId="54" priority="597">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="590">
+    <cfRule type="expression" dxfId="53" priority="598">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="44" priority="104" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="52" priority="112" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I38">
-    <cfRule type="expression" dxfId="43" priority="102">
+  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I38">
+    <cfRule type="expression" dxfId="51" priority="110">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="103">
+    <cfRule type="expression" dxfId="50" priority="111">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="41" priority="100">
+    <cfRule type="expression" dxfId="49" priority="108">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="101">
+    <cfRule type="expression" dxfId="48" priority="109">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7 H7 E7">
-    <cfRule type="expression" dxfId="38" priority="42">
+  <conditionalFormatting sqref="B8:H8 C10:C16 J10 J7:L9 C7 H7 E7 B9:E9">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="45" priority="51">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="40" priority="42">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I36="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I37="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I19="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I33="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I31="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -1970,44 +2132,44 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$I7="済み"</formula>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:H9">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:H10">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -141,6 +141,49 @@
   </si>
   <si>
     <t>次期CADシステム構築</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
+また、DBの仕様書（テーブル構成等）は無い状態でしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
+今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>‐</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
+  </si>
+  <si>
+    <t>ラベリングの配置は事前に刻印文字等の呼び出し（＝VB画面でのSQL連携）が必須であるという認識で良いでしょうか。
+または、前述の操作をしていない場合でもデフォルト値で配置可能でしょうか。</t>
+  </si>
+  <si>
+    <t>DBのデータを頂くことは可能でしょうか。</t>
+    <rPh sb="7" eb="8">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB画面が使用しているヘルプファイル「Brand.hlp」を頂くことは可能でしょうか。
+ヘルプファイルの保存場所は設定ファイル「(ACAD.SETの保存フォルダ)\BR_Set.ini」内の「Help_File」で設定されている場所にあります。</t>
+    <rPh sb="74" eb="76">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -153,41 +196,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
-また、DBの仕様書（テーブル構成等）は無い状態でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
-今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>‐</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①_円弧配列_カスタム仕様書_REV05.docx</t>
-  </si>
-  <si>
-    <t>ラベリングの配置は事前に刻印文字等の呼び出し（＝VB画面でのSQL連携）が必須であるという認識で良いでしょうか。
-または、前述の操作をしていない場合でもデフォルト値で配置可能でしょうか。</t>
-  </si>
-  <si>
-    <t>DBのデータを頂くことは可能でしょうか。</t>
-    <rPh sb="7" eb="8">
+    <t>「TMProfile.exe」等のEXEファイルのソースコードを頂くことは可能でしょうか。
+円弧配列で使用しているVB画面だと、設定ファイルのパスをAdvanceCAD専用の環境変数から取得している箇所があり、他のEXEファイルにも同様の処理が含まれているかの確認が必要だと考えております。</t>
+    <rPh sb="15" eb="16">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
       <t>イタダ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="37" eb="39">
       <t>カノウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VB画面が使用しているヘルプファイル「Brand.hlp」を頂くことは可能でしょうか。
-ヘルプファイルの保存場所は設定ファイル「(ACAD.SETの保存フォルダ)\BR_Set.ini」内の「Help_File」で設定されている場所にあります。</t>
-    <rPh sb="74" eb="76">
-      <t>ホゾン</t>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>カンキョウヘンスウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③TM登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書10ページ目の「① 事前準備 （形状準備）」は手作業で作成したデータでしょうか。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -466,13 +549,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1222,11 +1305,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -1282,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -1291,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>44732</v>
@@ -1314,16 +1397,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>44732</v>
@@ -1346,16 +1429,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5">
         <v>44732</v>
@@ -1374,7 +1457,7 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="57" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="9"/>
@@ -1382,10 +1465,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="5">
         <v>44740</v>
@@ -1402,7 +1485,7 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
       <c r="B9" s="9">
@@ -1413,7 +1496,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5">
         <v>44740</v>
@@ -1430,7 +1513,7 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="20" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
       <c r="B10" s="9"/>
@@ -1438,10 +1521,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5">
         <v>44740</v>
@@ -1457,15 +1540,21 @@
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+    <row r="11" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44753</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
@@ -1473,15 +1562,21 @@
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+    <row r="12" spans="1:12" s="20" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23">
         <v>8</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44753</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
@@ -1947,7 +2042,7 @@
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D11:H16 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 D11:H16">
     <cfRule type="expression" dxfId="54" priority="597">
       <formula>$I3="確認中"</formula>
     </cfRule>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -196,62 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「TMProfile.exe」等のEXEファイルのソースコードを頂くことは可能でしょうか。
-円弧配列で使用しているVB画面だと、設定ファイルのパスをAdvanceCAD専用の環境変数から取得している箇所があり、他のEXEファイルにも同様の処理が含まれているかの確認が必要だと考えております。</t>
-    <rPh sb="15" eb="16">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="88" eb="92">
-      <t>カンキョウヘンスウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>③TM登録</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
@@ -271,6 +215,124 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書12ページ目の「③ フレックス・ライン定義」でフレックスラインを図示している画像の左側の方が事前準備の形状と違うのはフレックスラインの説明の為であって、実際の操作で選択するのは事前準備の形状という認識で問題ないでしょうか。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「TMProfile.exe」等のBrandCADで使用しているEXEファイルのソースコードを頂くことは可能でしょうか。
+理由：
+円弧配列で使用しているVB画面だと設定ファイルのパスをAdvanceCAD専用の環境変数から取得している箇所があり、他のEXEファイルにも同様の処理が含まれているかの確認が必要だと考えております。</t>
+    <rPh sb="15" eb="16">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="106" eb="110">
+      <t>カンキョウヘンスウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1284,8 +1346,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1547,10 +1609,10 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="5">
         <v>44753</v>
@@ -1569,10 +1631,10 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5">
         <v>44753</v>
@@ -1584,14 +1646,18 @@
       <c r="K12" s="5"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23">
         <v>9</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -333,6 +333,38 @@
     </rPh>
     <rPh sb="156" eb="157">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良要望の18～19ページ分の内容は、
+19ページの末尾の「TM登録をしないと。セクターやサイドプレート作図のマクロが流れない、登録できているか確認する際に、問題がある。」とその直前までのものでそれぞれ別の改良内容という認識でよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="103" eb="107">
+      <t>カイリョウナイヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ニンシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1346,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1666,14 +1698,18 @@
       <c r="K13" s="5"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
+    <sheet name="「SafetyWarning」のダイアログ" sheetId="25" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -365,6 +366,159 @@
     </rPh>
     <rPh sb="110" eb="112">
       <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;出力&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+「SafetyWarning」のダイアログのテキストボックスの使用方法は下記①、②の認識で問題ないでしょうか。
+①文章の出力順を入力する。
+②入力が有効な項目は全て設定する必要がある。
+※「「SafetyWarning」のダイアログ」シートを参照</t>
+    <rPh sb="1" eb="5">
+      <t>ソウサカクニン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>シヨウホウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>シュツリョクジュン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC山本</t>
+    <rPh sb="2" eb="4">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+C表作成に使用しているテーブル構成をご提供頂くことは可能ですか。
+サーバー名：IHDB66
+DB名：number
+テーブル名：
+①seiri_no_kanri ・・・ 整理番号管理ﾃｰﾌﾞﾙ名称
+②zumen_no_kanri ・・・ 図面番号管理ﾃｰﾌﾞﾙ名称
+③seiri_no ・・・ 整理番号ﾃｰﾌﾞﾙ名称
+④zumen_no ・・・ 図面番号ﾃｰﾌﾞﾙ名称
+⑤zumen_no2 ・・ ・図面番号ﾃｰﾌﾞﾙ名称(ｵﾌﾟｼｮﾝ付）</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テイキョウイタダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+C表作成機能の元図となるAT-B図面は、以前ご提供頂いた「AT-B-14313-00.MDL」でしょうか。
+また、異なる場合は、AT-B図面のサンプルを頂くことは可能でしょうか。</t>
+    <rPh sb="12" eb="15">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モトズ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>テイキョウイタダ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1110,6 +1264,1038 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="4780939" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>214314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="L 字 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1733550" y="161925"/>
+          <a:ext cx="2662236" cy="4672013"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57156"/>
+            <a:gd name="adj2" fmla="val 83989"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5753101" cy="2066926"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239124" y="723900"/>
+          <a:ext cx="5753101" cy="2066926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SAFETY WARNING</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>SERIOUS IN JULY MAY RESULT FORM:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*TYRE FAILURE DUE TO UNDERINFLATION/OVERLOADING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>FOLLOW OWNER'S MANUAL OR TIRE PLACARD IN VEHICLE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*EXPLOSION OF TIRE/RIM ASSEMBLY DUE TO IMPROTER MOUNTING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ONLY SPECIALLY TRAINED PERSONS SHOULD MOOUNT TIRES.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NEVER EXCEED 40 PSI(275KPA) TO SEAT BEADS.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5753101" cy="2066926"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229599" y="3590925"/>
+          <a:ext cx="5753101" cy="2066926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SAFETY WARNING</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>FOLLOW OWNER'S MANUAL OR TIRE PLACARD IN VEHICLE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*EXPLOSION OF TIRE/RIM ASSEMBLY DUE TO IMPROTER MOUNTING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>SERIOUS IN JULY MAY RESULT FORM:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>*TYRE FAILURE DUE TO UNDERINFLATION/OVERLOADING--</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>ONLY SPECIALLY TRAINED PERSONS SHOULD MOOUNT TIRES.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>NEVER EXCEED 40 PSI(275KPA) TO SEAT BEADS.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1171575"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(A)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73479</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1502229"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(B)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="1832883"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(C)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>302204</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="357021" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="302204" y="2163537"/>
+          <a:ext cx="357021" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(D)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112941</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="351828" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2494191"/>
+          <a:ext cx="351828" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(E)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>205470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="335028" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313200" y="2824845"/>
+          <a:ext cx="335028" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(F)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301114</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="359201" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301114" y="3155499"/>
+          <a:ext cx="359201" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(G)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301659</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="358111" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="301659" y="3486150"/>
+          <a:ext cx="358111" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(H)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666139</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5466739" y="1757363"/>
+          <a:ext cx="2772385" cy="785812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5466739" y="2543175"/>
+          <a:ext cx="2762860" cy="2081213"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="線吹き出し 1 (枠付き) 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="57150"/>
+          <a:ext cx="1533525" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100998"/>
+            <a:gd name="adj2" fmla="val 28672"/>
+            <a:gd name="adj3" fmla="val 121691"/>
+            <a:gd name="adj4" fmla="val 36089"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(A)=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(B)=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(C)=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(D)=4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(E)=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(F)=6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(G)=7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>を入力した場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="線吹き出し 1 (枠付き) 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="4638675"/>
+          <a:ext cx="1533525" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2116"/>
+            <a:gd name="adj2" fmla="val 49791"/>
+            <a:gd name="adj3" fmla="val -62108"/>
+            <a:gd name="adj4" fmla="val 64660"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(A)=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(B)=4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(C)=5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(D)=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(E)=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(F)=6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(G)=7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>を入力した場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1378,8 +2564,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1635,7 +2821,7 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -1657,7 +2843,7 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="9"/>
@@ -1679,7 +2865,7 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
       <c r="B13" s="9"/>
@@ -1718,50 +2904,92 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19">
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23">
         <v>11</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19">
+    <row r="16" spans="1:12" s="20" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
         <v>12</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19">
+    <row r="17" spans="1:12" s="20" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
         <v>13</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
@@ -2139,12 +3367,12 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
+  <conditionalFormatting sqref="C4 C6 C18:C24 C41:C1048576">
     <cfRule type="containsText" dxfId="55" priority="599" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 D11:H16">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 B20:H24 A20:A32 A18:H19 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17">
     <cfRule type="expression" dxfId="54" priority="597">
       <formula>$I3="確認中"</formula>
     </cfRule>
@@ -2173,12 +3401,12 @@
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C16">
+  <conditionalFormatting sqref="C7:C17">
     <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H8 C10:C16 J10 J7:L9 C7 H7 E7 B9:E9">
+  <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
     <cfRule type="expression" dxfId="46" priority="50">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -2383,4 +3611,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M3:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -520,6 +520,224 @@
     <rPh sb="92" eb="94">
       <t>カノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【データ確認／依頼】
+「C:\ACAD19\env_test\submodel\P-SUB-C.MDL」を頂くことは可能でしょうか。
+「② C表データの落とし込み」（コマンド：Pre Process）及び、「⑤ 定義オブジェクトの詳細化 - (ア）自動認識」（コマンド：Labeling Detail）の機能実行時に当該ファイルのヘッダー情報の読み込みに失敗しているようで、コマンドライン部に 「モデルファイルヘッダー情報が参照できませんでした」と表示されるためです。
+以下補足説明です。
+＜C表データの落とし込み＞
+不要PIC、アイテム削除後のタイミングでヘッダー情報の取得を行っている。
+＜定義オブジェクトの詳細化（自動）＞
+「SafetyWarning」ダイアログで「Execute」→「Back」の操作後にヘッダー情報の取得を行っている。
+→「SafetyWarning」の詳細化が失敗する形で終わるため、他のラベルの詳細化行われない。</t>
+    <rPh sb="53" eb="54">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="155" eb="158">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="237" eb="239">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="239" eb="243">
+      <t>ホソクセツメイ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="271" eb="274">
+      <t>サクジョゴ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="313" eb="315">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="356" eb="359">
+      <t>ソウサゴ</t>
+    </rPh>
+    <rPh sb="394" eb="397">
+      <t>ショウサイカ</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="404" eb="405">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="410" eb="411">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="416" eb="418">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="419" eb="420">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+AT-B図面「AT-B-14313-00.MDL」で、「④ 各種ラベリング及びマーク類形状（オブジェクト）の定義 - (エ) Platformマーク類」（コマンド：Platform-Create(DOM)、Platform-Create(IO)」機能を実行すると、共にPlatformマーク情報が作成されなったのですが、当該の図面にはマークが存在しないという認識でよろしいでしょうか。</t>
+    <rPh sb="11" eb="13">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認】
+自動詳細化の機能（コマンド：Labeling Detail）が途中で終了しているためか、NonSerial側のPIC.8が作成されませんでした。
+NonSerial側のもの（PIC.3）に対して、手動詳細化機能（コマンド：Detail）の実行も行いましたが、PIC.7の方に追加されるだけで、PIC8の方には作成されませんでした。
+自動詳細化の処理が最後まで動けばPIC.8が作成されるという認識で良いでしょうか。
+または、PIC7の内容を手動でコピー等を行っているのでしょうか。</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="107" eb="110">
+      <t>ショウサイカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -810,7 +1028,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2564,8 +2812,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2905,7 +3153,7 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" s="20" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
       <c r="B15" s="9"/>
@@ -2935,7 +3183,7 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="20" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23">
+      <c r="A16" s="19">
         <v>12</v>
       </c>
       <c r="B16" s="9"/>
@@ -2965,7 +3213,7 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" s="20" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23">
+      <c r="A17" s="19">
         <v>13</v>
       </c>
       <c r="B17" s="9"/>
@@ -2994,50 +3242,94 @@
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19">
+    <row r="18" spans="1:12" s="20" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
         <v>14</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+    <row r="19" spans="1:12" s="20" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+    <row r="20" spans="1:12" s="20" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="9">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
@@ -3368,79 +3660,95 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C18:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="55" priority="599" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="59" priority="603" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 B20:H24 A20:A32 A18:H19 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17">
-    <cfRule type="expression" dxfId="54" priority="597">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 B21:H24 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20">
+    <cfRule type="expression" dxfId="58" priority="601">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="598">
+    <cfRule type="expression" dxfId="57" priority="602">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="52" priority="112" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="56" priority="116" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I38">
-    <cfRule type="expression" dxfId="51" priority="110">
+  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I21:I38">
+    <cfRule type="expression" dxfId="55" priority="114">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="111">
+    <cfRule type="expression" dxfId="54" priority="115">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="49" priority="108">
+    <cfRule type="expression" dxfId="53" priority="112">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="109">
+    <cfRule type="expression" dxfId="52" priority="113">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="46" priority="50">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="45">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="38" priority="40">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -3448,68 +3756,68 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="21" priority="23">
       <formula>$I6="確認中"</formula>
     </cfRule>
@@ -3517,7 +3825,7 @@
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="19" priority="21">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -3525,15 +3833,15 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$I6="済み"</formula>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="15" priority="17">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -3541,60 +3849,60 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I10="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I10="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:H20">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I10="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I10="済み"</formula>
+      <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -738,6 +738,39 @@
   </si>
   <si>
     <t>⑥C表作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Platformマークが存在しない図面もあります。</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細化機能が正常終了すれば、作成されます。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウサイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2812,8 +2845,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3268,7 +3301,9 @@
       <c r="I18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
     </row>
@@ -3298,7 +3333,9 @@
       <c r="I19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
     </row>
@@ -3330,7 +3367,9 @@
       <c r="I20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
     </row>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
     <sheet name="「SafetyWarning」のダイアログ" sheetId="25" r:id="rId2"/>
+    <sheet name="テンプレート機能に必要なデータ" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="428">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -773,12 +774,1671 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Fomt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template1「Mold number」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字番号</t>
+    <rPh sb="0" eb="4">
+      <t>モジバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=4.2)</t>
+  </si>
+  <si>
+    <t>番号1のみ</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分2(1桁)+番号</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区分3(2桁)+番号</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE005901</t>
+  </si>
+  <si>
+    <t>HE005902</t>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=2.4)</t>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=2.4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE106701</t>
+  </si>
+  <si>
+    <t>HE106702</t>
+  </si>
+  <si>
+    <t>Template1「Serial」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=4.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=7.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仙台(TT)</t>
+  </si>
+  <si>
+    <t>桑名(KW)</t>
+  </si>
+  <si>
+    <t>正新(CS)</t>
+  </si>
+  <si>
+    <t>上海(CH)</t>
+  </si>
+  <si>
+    <t>仙台(TT)ネジ</t>
+  </si>
+  <si>
+    <t>TNA</t>
+  </si>
+  <si>
+    <t>SM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TTZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TTM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE003001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE003002</t>
+  </si>
+  <si>
+    <t>HE003003</t>
+  </si>
+  <si>
+    <t>HE003010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE003011</t>
+  </si>
+  <si>
+    <t>HE003015</t>
+  </si>
+  <si>
+    <t>HE003012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE003014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE003016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE003018</t>
+  </si>
+  <si>
+    <t>HE003020</t>
+  </si>
+  <si>
+    <t>HE003006</t>
+  </si>
+  <si>
+    <t>HE003007</t>
+  </si>
+  <si>
+    <t>HE003008</t>
+  </si>
+  <si>
+    <t>HE003017</t>
+  </si>
+  <si>
+    <t>HE003019</t>
+  </si>
+  <si>
+    <t>HE003021</t>
+  </si>
+  <si>
+    <t>HE003013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2D文字(H=7.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE102100</t>
+  </si>
+  <si>
+    <t>HE102102</t>
+  </si>
+  <si>
+    <t>HE102107</t>
+  </si>
+  <si>
+    <t>HE102106</t>
+  </si>
+  <si>
+    <t>HE102101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE102105</t>
+  </si>
+  <si>
+    <t>HE102104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE102111</t>
+  </si>
+  <si>
+    <t>HE102103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result  Family</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE091801</t>
+  </si>
+  <si>
+    <t>HE091802</t>
+  </si>
+  <si>
+    <t>HE091803</t>
+  </si>
+  <si>
+    <t>HE091804</t>
+  </si>
+  <si>
+    <t>HE091805</t>
+  </si>
+  <si>
+    <t>HE091806</t>
+  </si>
+  <si>
+    <t>HE091807</t>
+  </si>
+  <si>
+    <t>HE091808</t>
+  </si>
+  <si>
+    <t>HE091809</t>
+  </si>
+  <si>
+    <t>HE091810</t>
+  </si>
+  <si>
+    <t>HE091811</t>
+  </si>
+  <si>
+    <t>HE091812</t>
+  </si>
+  <si>
+    <t>HE091813</t>
+  </si>
+  <si>
+    <t>HE091814</t>
+  </si>
+  <si>
+    <t>HE091815</t>
+  </si>
+  <si>
+    <t>HE091816</t>
+  </si>
+  <si>
+    <t>HE091817</t>
+  </si>
+  <si>
+    <t>HE091818</t>
+  </si>
+  <si>
+    <t>HE091819</t>
+  </si>
+  <si>
+    <t>HE091820</t>
+  </si>
+  <si>
+    <t>HE091821</t>
+  </si>
+  <si>
+    <t>HE091822</t>
+  </si>
+  <si>
+    <t>HE091823</t>
+  </si>
+  <si>
+    <t>HE091824</t>
+  </si>
+  <si>
+    <t>HE091825</t>
+  </si>
+  <si>
+    <t>HE091826</t>
+  </si>
+  <si>
+    <t>HE091827</t>
+  </si>
+  <si>
+    <t>HE091828</t>
+  </si>
+  <si>
+    <t>HE091829</t>
+  </si>
+  <si>
+    <t>HE091830</t>
+  </si>
+  <si>
+    <t>HE091831</t>
+  </si>
+  <si>
+    <t>HE091832</t>
+  </si>
+  <si>
+    <t>HE091833</t>
+  </si>
+  <si>
+    <t>HE091834</t>
+  </si>
+  <si>
+    <t>Template1「New I Mark」 DB検索できない→DBがない</t>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE091900</t>
+  </si>
+  <si>
+    <t>文字番号1</t>
+    <rPh sb="0" eb="4">
+      <t>モジバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字番号2</t>
+    <rPh sb="0" eb="4">
+      <t>モジバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE091901</t>
+  </si>
+  <si>
+    <t>HE091902</t>
+  </si>
+  <si>
+    <t>Template1「E no」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E4(6桁)</t>
+  </si>
+  <si>
+    <t>E4(7桁)</t>
+  </si>
+  <si>
+    <t>E4(7桁2段)</t>
+  </si>
+  <si>
+    <t>E5(5桁)</t>
+  </si>
+  <si>
+    <t>e4(7桁-S)</t>
+  </si>
+  <si>
+    <t>ECE(6桁 SR)</t>
+  </si>
+  <si>
+    <t>ECE(7桁 SR)</t>
+  </si>
+  <si>
+    <t>ECE(6桁 SWR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECE(7桁 SWR)</t>
+  </si>
+  <si>
+    <t>ECE(6桁 S)</t>
+  </si>
+  <si>
+    <t>ECE(7桁 S)</t>
+  </si>
+  <si>
+    <t>ECE(6桁 SW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECE(7桁 SW)</t>
+  </si>
+  <si>
+    <t>ECE(6桁 S露)</t>
+  </si>
+  <si>
+    <t>ECE(7桁 S露)</t>
+  </si>
+  <si>
+    <t>ECE(6桁 SRLT)</t>
+  </si>
+  <si>
+    <t>ECE(7桁 SRLT)</t>
+  </si>
+  <si>
+    <t>E4(8桁2段)</t>
+  </si>
+  <si>
+    <t>HE006000</t>
+  </si>
+  <si>
+    <t>HE006005</t>
+  </si>
+  <si>
+    <t>HE006001</t>
+  </si>
+  <si>
+    <t>HE006006</t>
+  </si>
+  <si>
+    <t>HE006007</t>
+  </si>
+  <si>
+    <t>HE006008</t>
+  </si>
+  <si>
+    <t>HE006009</t>
+  </si>
+  <si>
+    <t>HE006010</t>
+  </si>
+  <si>
+    <t>HE006011</t>
+  </si>
+  <si>
+    <t>HE006012</t>
+  </si>
+  <si>
+    <t>HE006013</t>
+  </si>
+  <si>
+    <t>HE006014</t>
+  </si>
+  <si>
+    <t>HE006015</t>
+  </si>
+  <si>
+    <t>HE006016</t>
+  </si>
+  <si>
+    <t>HE006018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006020</t>
+  </si>
+  <si>
+    <t>２Ｄ文字(H=7.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=4.8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2「Size」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=7.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２Ｄ文字(H=12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２Ｄ文字(H=9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２Ｄ文字(H=7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Font</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２Ｄ文字(H=15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02文字縁(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02文字縁(H=19)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02文字縁ハッチ(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02ベタ(H=10,A=28)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＯＢ文字(H=12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタ(H=19,A=28)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタ(H=16,A=28)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタ(H=13)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタ(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタ(H=10,A=28)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁(H=13)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁ハッチ(H=13)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁ハッチ(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＩＤ文字(H=7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB縁(H=20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB縁(H=16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INVO縁(H=8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prohibited characters; C1S縁(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prohibited characters; C1Sハッチ(H=10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(H=4.2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2「Load index(S)」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBnasi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2「Load index(D)」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zumennera-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2「LT」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2「PR」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2「Air pressure "indi"」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template3「UTQG」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＮＣ文字(UTQG用)</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段</t>
+    <rPh sb="0" eb="2">
+      <t>イチダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006500</t>
+  </si>
+  <si>
+    <t>HE006501</t>
+  </si>
+  <si>
+    <t>HE006226</t>
+  </si>
+  <si>
+    <t>HE006228</t>
+  </si>
+  <si>
+    <t>HE006229</t>
+  </si>
+  <si>
+    <t>HE006225</t>
+  </si>
+  <si>
+    <t>HE006224</t>
+  </si>
+  <si>
+    <t>HE006208</t>
+  </si>
+  <si>
+    <t>HE006209</t>
+  </si>
+  <si>
+    <t>HE006214</t>
+  </si>
+  <si>
+    <t>HE006215</t>
+  </si>
+  <si>
+    <t>HE006210</t>
+  </si>
+  <si>
+    <t>HE006211</t>
+  </si>
+  <si>
+    <t>旧LOAD無(2行)</t>
+  </si>
+  <si>
+    <t>旧LOAD無(1行)</t>
+  </si>
+  <si>
+    <t>EXTRA</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>STANDARD下</t>
+  </si>
+  <si>
+    <t>EXTRA下</t>
+  </si>
+  <si>
+    <t>LOAD無(2行)</t>
+  </si>
+  <si>
+    <t>LOAD無(1行)</t>
+  </si>
+  <si>
+    <t>旧STANDARD</t>
+  </si>
+  <si>
+    <t>旧EXTRA</t>
+  </si>
+  <si>
+    <t>旧STANDARD下</t>
+  </si>
+  <si>
+    <t>旧EXTRA下</t>
+  </si>
+  <si>
+    <t>HE006300</t>
+  </si>
+  <si>
+    <t>HE006302</t>
+  </si>
+  <si>
+    <t>HE006304</t>
+  </si>
+  <si>
+    <t>HE006306</t>
+  </si>
+  <si>
+    <t>Template3「PLY1」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">POLYESTER+STEEL      </t>
+  </si>
+  <si>
+    <t>POLYESTER+STEEL+NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYON+STEEL          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYON+STEEL+NYLON    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+POLYESTER            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+POLYESTER+NYLON      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+RAYON                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+RAYON+NYLON          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+POLYESTER(1列)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+POLYESTER+NYLON(1列) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+RAYON(1列)           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEEL+RAYON+NYLON(1列)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYLON(1列)                 </t>
+  </si>
+  <si>
+    <t>HE006309</t>
+  </si>
+  <si>
+    <t>HE006311</t>
+  </si>
+  <si>
+    <t>HE006310</t>
+  </si>
+  <si>
+    <t>HE006312</t>
+  </si>
+  <si>
+    <t>HE006313</t>
+  </si>
+  <si>
+    <t>HE006315</t>
+  </si>
+  <si>
+    <t>HE006314</t>
+  </si>
+  <si>
+    <t>HE006316</t>
+  </si>
+  <si>
+    <t>HE006308</t>
+  </si>
+  <si>
+    <t>Template3「ETC」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギ1-LOADRANGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATギ1-LOADRANGE</t>
+  </si>
+  <si>
+    <t>ATギ1-LOADRANGE-S</t>
+  </si>
+  <si>
+    <t>ATギ1-LOADRANGE-D</t>
+  </si>
+  <si>
+    <t>HE006205</t>
+  </si>
+  <si>
+    <t>HE006216</t>
+  </si>
+  <si>
+    <t>HE006213</t>
+  </si>
+  <si>
+    <t>ギ1-LOADRANGE(H=7.2)</t>
+  </si>
+  <si>
+    <t>ギ1-LOADRANGE(H=9)</t>
+  </si>
+  <si>
+    <t>ギ1-MAXLOAD</t>
+  </si>
+  <si>
+    <t>ATギ1-MAXLOAD-D-2.0(標準)</t>
+  </si>
+  <si>
+    <t>ATギ1-MAXLOAD-D-1.2</t>
+  </si>
+  <si>
+    <t>ATギ1-LOADING</t>
+  </si>
+  <si>
+    <t>HE032901</t>
+  </si>
+  <si>
+    <t>ギ1-LOADING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギ2-LOAD(H=3.0)</t>
+  </si>
+  <si>
+    <t>ATギ2-1</t>
+  </si>
+  <si>
+    <t>ATギ2-2</t>
+  </si>
+  <si>
+    <t>ATギ2-3</t>
+  </si>
+  <si>
+    <t>ATギ2-4</t>
+  </si>
+  <si>
+    <t>HE017100</t>
+  </si>
+  <si>
+    <t>HE017102</t>
+  </si>
+  <si>
+    <t>HE017110</t>
+  </si>
+  <si>
+    <t>HE017111</t>
+  </si>
+  <si>
+    <t>Template「Plate」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネジ無し</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前ネジ</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ネジ</t>
+    <rPh sb="0" eb="1">
+      <t>ウシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後ネジ</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006403</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006400</t>
+  </si>
+  <si>
+    <t>HE006401</t>
+  </si>
+  <si>
+    <t>HE006402</t>
+  </si>
+  <si>
+    <t>Result  RegisterNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左：003354、右：2013</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template3「MAX LOAD」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006218</t>
+  </si>
+  <si>
+    <t>HE006220</t>
+  </si>
+  <si>
+    <t>HE006223</t>
+  </si>
+  <si>
+    <t>HE006219</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006224</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006221</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006502</t>
+  </si>
+  <si>
+    <t>HE006503</t>
+  </si>
+  <si>
+    <t>HE006504</t>
+  </si>
+  <si>
+    <t>HE006324</t>
+  </si>
+  <si>
+    <t>HE006327</t>
+  </si>
+  <si>
+    <t>HE006328</t>
+  </si>
+  <si>
+    <t>HE006331</t>
+  </si>
+  <si>
+    <t>HE006325</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006326</t>
+  </si>
+  <si>
+    <t>HE006329</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006330</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template3「PLY2」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006317</t>
+  </si>
+  <si>
+    <t>HE006318</t>
+  </si>
+  <si>
+    <t>HE006319</t>
+  </si>
+  <si>
+    <t>HE006322</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006320</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006321</t>
+  </si>
+  <si>
+    <t>HE006323</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006212</t>
+  </si>
+  <si>
+    <t>HE032902</t>
+  </si>
+  <si>
+    <t>HE032903</t>
+  </si>
+  <si>
+    <t>HE-0059-01.MDL？</t>
+  </si>
+  <si>
+    <t>Template2「Pattern code」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template2の機能実行には図面のみが必要　→　仕様に関わらず固定のテンプレートデザインがあり、そこに文字をはめ込むもの</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template1と3の機能実行には画像と図面が必要　→　仕様ごとにテンプレートデザインがあり、そこに文字をはめ込むもの</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書の画像のもの</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字番号（子？）</t>
+    <rPh sb="0" eb="4">
+      <t>モジバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じType仕様で2パターンある</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図面内に全てのTypeの図がある</t>
+    <rPh sb="0" eb="3">
+      <t>ズメンナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE106700</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE-0030-01.MDL?</t>
+  </si>
+  <si>
+    <t>HE-0030-02.MDL?</t>
+  </si>
+  <si>
+    <t>HE-0030-03.MDL?</t>
+  </si>
+  <si>
+    <t>HE-0030-07.MDL?</t>
+  </si>
+  <si>
+    <t>HE-0030-06.MDL?</t>
+  </si>
+  <si>
+    <t>Template1「Plant Code 3digit」画面でない　serial2.ini</t>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE-0060-00.MDL？</t>
+  </si>
+  <si>
+    <t>HE-0060-01.MDL？</t>
+  </si>
+  <si>
+    <t>HE-0060-05.MDL？</t>
+  </si>
+  <si>
+    <t>HE-0060-06.MDL？</t>
+  </si>
+  <si>
+    <t>HE-0060-07.MDL？</t>
+  </si>
+  <si>
+    <t>HE-0065-00.MDL？</t>
+  </si>
+  <si>
+    <t>HE006227</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE-0062-05.MDL？</t>
+  </si>
+  <si>
+    <t>HM-HE0030.MDL?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE091800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0918.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE1067.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE1021.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0919.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE005900</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0059.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE-0059-00.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM図面</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE図面</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM図面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM図面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM図面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM図面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM図面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>頂いた受領データに関して、HMフォルダの図面はテンプレート機能で使うような図面、HEフォルダの図面は編集文字検索機能で使用する図面という認識でよろしいでしょうか。</t>
+    <rPh sb="0" eb="1">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート機能に「Size」のようにTemplate1～3に2つ以上同名あるものが存在しますが、今回の移植の対処となるのはあくまで、仕様書にあるものだけという認識で間違いないでしょうか。
+（例）「Size」機能で言うとTemplate2の方は移植して、Template1の方は移植しない</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>イジョウドウメイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イショク</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>イショク</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>イショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①円弧配列</t>
+    <rPh sb="1" eb="5">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート機能の確認中に新たにDBを使用していることが判明したので、再びご提供頂くことは可能でしょうか。
+必要なDBに関しては別途DB名、テーブル名等を纏めて展開させていただきます。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥C表作成の「Frame Data」コマンド（③ 図面枠データの生成）内で使用している「B_DRAW」のようにAdvanceCADの標準コマンドの頭に「B_」と付いているものがありますが、メニューの英語化などにあたり、名前だけ変更して登録しているものでしょうか。
+また、標準コマンドの機能に改修を加えたものでしょうか。</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>エイゴカ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂いた受領データに関して追加でデータを頂きたいです。
+必要なデータに関しては現在取りまとめ中ですので、まとめ次第展開させていただきます。
+必要なデータの概要としては「Template1」、「Template3」はBMP画像（文字番号.bmp）と一部の図面。
+「Template2」は図面のみ。
+参照：「テンプレート機能に必要なデータ」シート（取りまとめ中）</t>
+    <rPh sb="0" eb="1">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="113" eb="117">
+      <t>モジバンゴウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33、17</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,8 +2461,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,8 +2510,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -972,13 +2679,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,17 +2795,173 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2845,8 +4745,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2866,11 +4766,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -3276,7 +5176,7 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="315.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23">
+      <c r="A18" s="19">
         <v>14</v>
       </c>
       <c r="B18" s="9"/>
@@ -3308,7 +5208,7 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" s="20" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
       <c r="B19" s="9"/>
@@ -3340,7 +5240,7 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="20" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23">
+      <c r="A20" s="19">
         <v>16</v>
       </c>
       <c r="B20" s="9">
@@ -3373,82 +5273,156 @@
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+    <row r="21" spans="1:12" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="B21" s="9">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+    <row r="22" spans="1:12" s="20" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="B22" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23">
         <v>19</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="5"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23">
         <v>20</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="C24" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23">
         <v>21</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44811</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
@@ -3698,157 +5672,197 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C18:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="59" priority="603" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C41:C1048576 C18:C24">
+    <cfRule type="containsText" dxfId="69" priority="613" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 B21:H24 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20">
-    <cfRule type="expression" dxfId="58" priority="601">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21">
+    <cfRule type="expression" dxfId="68" priority="611">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="602">
+    <cfRule type="expression" dxfId="67" priority="612">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="56" priority="116" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="66" priority="126" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I21:I38">
-    <cfRule type="expression" dxfId="55" priority="114">
+  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I26:I38">
+    <cfRule type="expression" dxfId="65" priority="124">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="115">
+    <cfRule type="expression" dxfId="64" priority="125">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="53" priority="112">
+    <cfRule type="expression" dxfId="63" priority="122">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="113">
+    <cfRule type="expression" dxfId="62" priority="123">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="61" priority="66" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="60" priority="64">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="59" priority="65">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="44" priority="46">
+  <conditionalFormatting sqref="C26:H30 C31 E31:H31 C25:E25">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="45">
+    <cfRule type="expression" dxfId="51" priority="55">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="43">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="47" priority="51">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="36">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="27" priority="23">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="23" priority="25">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -3856,92 +5870,92 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H20">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$I18="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F25">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H25">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I18="済み"</formula>
+      <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -3985,4 +5999,3401 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:I347"/>
+  <sheetViews>
+    <sheetView topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F338" sqref="F338"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="F16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="44"/>
+      <c r="B17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="47"/>
+      <c r="F17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="44"/>
+      <c r="B18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="47"/>
+      <c r="F18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="44"/>
+      <c r="B19" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="44"/>
+      <c r="B20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="44"/>
+      <c r="B21" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="44"/>
+      <c r="B22" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="47"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="44"/>
+      <c r="B23" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41"/>
+      <c r="B24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="47"/>
+      <c r="F25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="44"/>
+      <c r="B26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="47"/>
+      <c r="F26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="44"/>
+      <c r="B27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="47"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="44"/>
+      <c r="B28" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="44"/>
+      <c r="B29" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="47"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="44"/>
+      <c r="B30" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="47"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="44"/>
+      <c r="B31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="44"/>
+      <c r="B32" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="47"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="41"/>
+      <c r="B33" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="48"/>
+    </row>
+    <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="40"/>
+      <c r="B39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="40"/>
+      <c r="B40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="50"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="40"/>
+      <c r="B41" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="40"/>
+      <c r="B42" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="40"/>
+      <c r="B43" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="50"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="40"/>
+      <c r="B44" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="40"/>
+      <c r="B45" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="50"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="40"/>
+      <c r="B46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="51"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="40"/>
+      <c r="B48" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="40"/>
+      <c r="B49" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="40"/>
+      <c r="B50" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="40"/>
+      <c r="B51" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="40"/>
+      <c r="B52" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="40"/>
+      <c r="B53" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="40"/>
+      <c r="B54" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="40"/>
+      <c r="B55" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="28"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A61" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="29"/>
+      <c r="H64" s="50"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="29"/>
+      <c r="H65" s="50"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="50"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="29"/>
+      <c r="H67" s="50"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="50"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="29"/>
+      <c r="H70" s="50"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="33"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G71" s="29"/>
+      <c r="H71" s="50"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="50"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="29"/>
+      <c r="H73" s="50"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" s="29"/>
+      <c r="H74" s="50"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="33"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" s="29"/>
+      <c r="H75" s="50"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="33"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="29"/>
+      <c r="H76" s="50"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="33"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" s="29"/>
+      <c r="H77" s="50"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="33"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" s="29"/>
+      <c r="H78" s="50"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="33"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="29"/>
+      <c r="H79" s="50"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" s="29"/>
+      <c r="H80" s="50"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="33"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G81" s="29"/>
+      <c r="H81" s="50"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="33"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G82" s="29"/>
+      <c r="H82" s="50"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G83" s="29"/>
+      <c r="H83" s="50"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="33"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G84" s="29"/>
+      <c r="H84" s="50"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G85" s="29"/>
+      <c r="H85" s="50"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="33"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G86" s="29"/>
+      <c r="H86" s="50"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="33"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G87" s="29"/>
+      <c r="H87" s="50"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="33"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G88" s="29"/>
+      <c r="H88" s="50"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="33"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89" s="29"/>
+      <c r="H89" s="50"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="33"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G90" s="29"/>
+      <c r="H90" s="50"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="33"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G91" s="29"/>
+      <c r="H91" s="50"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="33"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G92" s="29"/>
+      <c r="H92" s="50"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="33"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="50"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="33"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="50"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="33"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="50"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="33"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G96" s="29"/>
+      <c r="H96" s="50"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D97" s="33"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G97" s="33"/>
+      <c r="H97" s="51"/>
+    </row>
+    <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A101" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D103" s="37"/>
+      <c r="E103" s="35"/>
+      <c r="F103" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" s="40"/>
+      <c r="B104" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" s="40"/>
+      <c r="B105" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" s="33"/>
+      <c r="E105" s="26"/>
+      <c r="F105" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" s="40"/>
+      <c r="B106" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="35"/>
+      <c r="F106" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" s="40"/>
+      <c r="B107" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="26"/>
+      <c r="F107" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" s="40"/>
+      <c r="B108" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="33"/>
+      <c r="E108" s="26"/>
+      <c r="F108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" s="40"/>
+      <c r="B109" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="33"/>
+      <c r="E109" s="45"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" s="40"/>
+      <c r="B110" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="33"/>
+      <c r="E110" s="45"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" s="40"/>
+      <c r="B111" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" s="33"/>
+      <c r="E111" s="45"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" s="40"/>
+      <c r="B112" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" s="33"/>
+      <c r="E112" s="45"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113" s="40"/>
+      <c r="B113" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="33"/>
+      <c r="E113" s="45"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114" s="40"/>
+      <c r="B114" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="33"/>
+      <c r="E114" s="45"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115" s="40"/>
+      <c r="B115" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" s="33"/>
+      <c r="E115" s="45"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" s="40"/>
+      <c r="B116" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="33"/>
+      <c r="E116" s="45"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" s="40"/>
+      <c r="B117" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="33"/>
+      <c r="E117" s="45"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" s="40"/>
+      <c r="B118" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="45"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" s="40"/>
+      <c r="B119" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="45"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" s="40"/>
+      <c r="B120" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" s="33"/>
+      <c r="E120" s="45"/>
+    </row>
+    <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A124" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A133" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="A168" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B168" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="A169" s="24"/>
+    </row>
+    <row r="171" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="A171" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B171" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="A174" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A177" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A180" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A183" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A184" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E184" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F184" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A185" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B185" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="26"/>
+      <c r="G185" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A186" s="40"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A187" s="40"/>
+      <c r="B187" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E187" s="33"/>
+      <c r="F187" s="26"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A188" s="40"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D188" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E188" s="33"/>
+      <c r="F188" s="26"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A189" s="40"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D189" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E189" s="33"/>
+      <c r="F189" s="26"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A190" s="40"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D190" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E190" s="33"/>
+      <c r="F190" s="26"/>
+    </row>
+    <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A193" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A194" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E194" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F194" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A195" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D195" s="26"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="45"/>
+      <c r="G195" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A196" s="40"/>
+      <c r="B196" s="42"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A197" s="40"/>
+      <c r="B197" s="42"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A198" s="40"/>
+      <c r="B198" s="42"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A199" s="40"/>
+      <c r="B199" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D199" s="26"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="45"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A200" s="40"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E200" s="26"/>
+      <c r="F200" s="45"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A201" s="40"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E201" s="26"/>
+      <c r="F201" s="45"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A202" s="40"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E202" s="26"/>
+      <c r="F202" s="45"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A203" s="40"/>
+      <c r="B203" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D203" s="26"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="45"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A204" s="40"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E204" s="26"/>
+      <c r="F204" s="45"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A205" s="40"/>
+      <c r="B205" s="40"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E205" s="26"/>
+      <c r="F205" s="45"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A206" s="40"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E206" s="26"/>
+      <c r="F206" s="45"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A207" s="40"/>
+      <c r="B207" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D207" s="26"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="45"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A208" s="40"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E208" s="26"/>
+      <c r="F208" s="45"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A209" s="40"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E209" s="26"/>
+      <c r="F209" s="45"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A210" s="40"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E210" s="26"/>
+      <c r="F210" s="45"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A211" s="40"/>
+      <c r="B211" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D211" s="26"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="45"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A212" s="40"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E212" s="26"/>
+      <c r="F212" s="45"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A213" s="40"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E213" s="26"/>
+      <c r="F213" s="45"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A214" s="40"/>
+      <c r="B214" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="45"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A215" s="40"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E215" s="26"/>
+      <c r="F215" s="45"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A216" s="40"/>
+      <c r="B216" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D216" s="26"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="45"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A217" s="40"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E217" s="26"/>
+      <c r="F217" s="45"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A218" s="40"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E218" s="26"/>
+      <c r="F218" s="45"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A219" s="40"/>
+      <c r="B219" s="40"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E219" s="26"/>
+      <c r="F219" s="45"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A220" s="40"/>
+      <c r="B220" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D220" s="26"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="45"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A221" s="40"/>
+      <c r="B221" s="40"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E221" s="26"/>
+      <c r="F221" s="45"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A222" s="40"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E222" s="26"/>
+      <c r="F222" s="45"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A223" s="40"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E223" s="26"/>
+      <c r="F223" s="45"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A224" s="40"/>
+      <c r="B224" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D224" s="26"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="45"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A225" s="40"/>
+      <c r="B225" s="40"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E225" s="26"/>
+      <c r="F225" s="45"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E226" s="26"/>
+      <c r="F226" s="45"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A227" s="40"/>
+      <c r="B227" s="40"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E227" s="26"/>
+      <c r="F227" s="45"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A228" s="40"/>
+      <c r="B228" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D228" s="26"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="45"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A229" s="40"/>
+      <c r="B229" s="40"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E229" s="26"/>
+      <c r="F229" s="45"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A230" s="40"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E230" s="26"/>
+      <c r="F230" s="45"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A231" s="40"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E231" s="26"/>
+      <c r="F231" s="45"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A232" s="40"/>
+      <c r="B232" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D232" s="26"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="45"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A233" s="40"/>
+      <c r="B233" s="40"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E233" s="26"/>
+      <c r="F233" s="45"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E234" s="26"/>
+      <c r="F234" s="45"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A235" s="40"/>
+      <c r="B235" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C235" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D235" s="26"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="45"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A236" s="40"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="E236" s="26"/>
+      <c r="F236" s="45"/>
+    </row>
+    <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="A240" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A241" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B241" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E241" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F241" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A242" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B242" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C242" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D242" s="26"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="45"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E243" s="26"/>
+      <c r="F243" s="45"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E244" s="26"/>
+      <c r="F244" s="45"/>
+      <c r="G244" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="E245" s="26"/>
+      <c r="F245" s="45"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A246" s="26"/>
+      <c r="B246" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C246" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D246" s="26"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="45"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E247" s="33"/>
+      <c r="F247" s="45"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="E248" s="26"/>
+      <c r="F248" s="45"/>
+      <c r="G248" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="E249" s="26"/>
+      <c r="F249" s="45"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A250" s="26"/>
+      <c r="B250" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C250" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D250" s="26"/>
+      <c r="E250" s="33"/>
+      <c r="F250" s="45"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="E251" s="26"/>
+      <c r="F251" s="45"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E252" s="26"/>
+      <c r="F252" s="45"/>
+      <c r="G252" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E253" s="26"/>
+      <c r="F253" s="45"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A254" s="26"/>
+      <c r="B254" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D254" s="26"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="45"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="E255" s="26"/>
+      <c r="F255" s="45"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="E256" s="26"/>
+      <c r="F256" s="45"/>
+      <c r="G256" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E257" s="26"/>
+      <c r="F257" s="45"/>
+    </row>
+    <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="A260" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A261" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B261" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E261" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F261" s="30" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A262" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B262" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D262" s="26"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="45"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A263" s="40"/>
+      <c r="B263" s="40"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E263" s="26"/>
+      <c r="F263" s="45"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A264" s="40"/>
+      <c r="B264" s="40"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E264" s="26"/>
+      <c r="F264" s="45"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A265" s="40"/>
+      <c r="B265" s="40"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="E265" s="26"/>
+      <c r="F265" s="45"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A266" s="40"/>
+      <c r="B266" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D266" s="26"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="45"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A267" s="40"/>
+      <c r="B267" s="40"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E267" s="26"/>
+      <c r="F267" s="45"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A268" s="40"/>
+      <c r="B268" s="40"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="E268" s="26"/>
+      <c r="F268" s="45"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A269" s="40"/>
+      <c r="B269" s="40"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="E269" s="26"/>
+      <c r="F269" s="45"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A270" s="40"/>
+      <c r="B270" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C270" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D270" s="26"/>
+      <c r="E270" s="33"/>
+      <c r="F270" s="45"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A271" s="40"/>
+      <c r="B271" s="40"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E271" s="26"/>
+      <c r="F271" s="45"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A272" s="40"/>
+      <c r="B272" s="40"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="E272" s="26"/>
+      <c r="F272" s="45"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A273" s="40"/>
+      <c r="B273" s="40"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E273" s="26"/>
+      <c r="F273" s="45"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A274" s="40"/>
+      <c r="B274" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C274" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D274" s="26"/>
+      <c r="E274" s="33"/>
+      <c r="F274" s="45"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A275" s="40"/>
+      <c r="B275" s="40"/>
+      <c r="C275" s="26"/>
+      <c r="D275" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E275" s="26"/>
+      <c r="F275" s="45"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A276" s="40"/>
+      <c r="B276" s="40"/>
+      <c r="C276" s="26"/>
+      <c r="D276" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E276" s="26"/>
+      <c r="F276" s="45"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A277" s="40"/>
+      <c r="B277" s="40"/>
+      <c r="C277" s="26"/>
+      <c r="D277" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="E277" s="26"/>
+      <c r="F277" s="45"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A278" s="40"/>
+      <c r="B278" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C278" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D278" s="26"/>
+      <c r="E278" s="33"/>
+      <c r="F278" s="45"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A279" s="40"/>
+      <c r="B279" s="40"/>
+      <c r="C279" s="26"/>
+      <c r="D279" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E279" s="26"/>
+      <c r="F279" s="45"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A280" s="40"/>
+      <c r="B280" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D280" s="26"/>
+      <c r="E280" s="33"/>
+      <c r="F280" s="45"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A281" s="40"/>
+      <c r="B281" s="40"/>
+      <c r="C281" s="26"/>
+      <c r="D281" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E281" s="26"/>
+      <c r="F281" s="45"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A282" s="40"/>
+      <c r="B282" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D282" s="26"/>
+      <c r="E282" s="33"/>
+      <c r="F282" s="45"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A283" s="40"/>
+      <c r="B283" s="40"/>
+      <c r="C283" s="26"/>
+      <c r="D283" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E283" s="26"/>
+      <c r="F283" s="45"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A284" s="40"/>
+      <c r="B284" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D284" s="26"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="45"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A285" s="40"/>
+      <c r="B285" s="40"/>
+      <c r="C285" s="26"/>
+      <c r="D285" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E285" s="26"/>
+      <c r="F285" s="45"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A286" s="40"/>
+      <c r="B286" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D286" s="26"/>
+      <c r="E286" s="33"/>
+      <c r="F286" s="45"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A287" s="40"/>
+      <c r="B287" s="40"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E287" s="26"/>
+      <c r="F287" s="45"/>
+    </row>
+    <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A291" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A292" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B292" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C292" s="26"/>
+      <c r="D292" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E292" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F292" s="30" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A293" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B293" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D293" s="26"/>
+      <c r="E293" s="33"/>
+      <c r="F293" s="45"/>
+      <c r="G293" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="26"/>
+      <c r="D294" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E294" s="26"/>
+      <c r="F294" s="45"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A295" s="26"/>
+      <c r="B295" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D295" s="26"/>
+      <c r="E295" s="33"/>
+      <c r="F295" s="45"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
+      <c r="D296" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E296" s="26"/>
+      <c r="F296" s="45"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A297" s="26"/>
+      <c r="B297" s="26"/>
+      <c r="C297" s="26"/>
+      <c r="D297" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E297" s="26"/>
+      <c r="F297" s="45"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A298" s="26"/>
+      <c r="B298" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D298" s="26"/>
+      <c r="E298" s="33"/>
+      <c r="F298" s="45"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E299" s="26"/>
+      <c r="F299" s="45"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="26"/>
+      <c r="D300" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E300" s="26"/>
+      <c r="F300" s="45"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="26"/>
+      <c r="D301" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E301" s="26"/>
+      <c r="F301" s="45"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A302" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B302" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C302" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D302" s="26"/>
+      <c r="E302" s="26"/>
+      <c r="F302" s="45"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A303" s="26"/>
+      <c r="B303" s="26"/>
+      <c r="C303" s="26"/>
+      <c r="D303" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E303" s="26"/>
+      <c r="F303" s="45"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A304" s="26"/>
+      <c r="B304" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C304" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D304" s="26"/>
+      <c r="E304" s="26"/>
+      <c r="F304" s="45"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A305" s="26"/>
+      <c r="B305" s="26"/>
+      <c r="C305" s="26"/>
+      <c r="D305" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E305" s="26"/>
+      <c r="F305" s="45"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A306" s="26"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="26"/>
+      <c r="D306" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E306" s="26"/>
+      <c r="F306" s="45"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A307" s="26"/>
+      <c r="B307" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C307" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D307" s="26"/>
+      <c r="E307" s="26"/>
+      <c r="F307" s="45"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A308" s="26"/>
+      <c r="B308" s="26"/>
+      <c r="C308" s="26"/>
+      <c r="D308" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E308" s="26"/>
+      <c r="F308" s="45"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A309" s="26"/>
+      <c r="B309" s="26"/>
+      <c r="C309" s="26"/>
+      <c r="D309" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E309" s="26"/>
+      <c r="F309" s="45"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
+      <c r="C310" s="26"/>
+      <c r="D310" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E310" s="26"/>
+      <c r="F310" s="45"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A311" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B311" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="C311" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D311" s="26"/>
+      <c r="E311" s="26"/>
+      <c r="F311" s="45"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
+      <c r="D312" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E312" s="26"/>
+      <c r="F312" s="45"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A313" s="26"/>
+      <c r="B313" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C313" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D313" s="26"/>
+      <c r="E313" s="26"/>
+      <c r="F313" s="45"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A314" s="26"/>
+      <c r="B314" s="26"/>
+      <c r="C314" s="26"/>
+      <c r="D314" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E314" s="26"/>
+      <c r="F314" s="45"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A315" s="26"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="26"/>
+      <c r="D315" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E315" s="26"/>
+      <c r="F315" s="45"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A316" s="26"/>
+      <c r="B316" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C316" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D316" s="26"/>
+      <c r="E316" s="26"/>
+      <c r="F316" s="45"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A317" s="26"/>
+      <c r="B317" s="26"/>
+      <c r="C317" s="26"/>
+      <c r="D317" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E317" s="26"/>
+      <c r="F317" s="45"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A318" s="26"/>
+      <c r="B318" s="26"/>
+      <c r="C318" s="26"/>
+      <c r="D318" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E318" s="26"/>
+      <c r="F318" s="45"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A319" s="26"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="26"/>
+      <c r="D319" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E319" s="26"/>
+      <c r="F319" s="45"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A320" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D320" s="26"/>
+      <c r="E320" s="26"/>
+      <c r="F320" s="45"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
+      <c r="C321" s="26"/>
+      <c r="D321" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E321" s="26"/>
+      <c r="F321" s="45"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A322" s="26"/>
+      <c r="B322" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D322" s="26"/>
+      <c r="E322" s="26"/>
+      <c r="F322" s="45"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="26"/>
+      <c r="D323" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E323" s="26"/>
+      <c r="F323" s="45"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="26"/>
+      <c r="D324" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E324" s="26"/>
+      <c r="F324" s="45"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A325" s="26"/>
+      <c r="B325" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D325" s="26"/>
+      <c r="E325" s="26"/>
+      <c r="F325" s="45"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="26"/>
+      <c r="D326" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E326" s="26"/>
+      <c r="F326" s="45"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="26"/>
+      <c r="D327" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E327" s="26"/>
+      <c r="F327" s="45"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A328" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C328" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D328" s="26"/>
+      <c r="E328" s="33"/>
+      <c r="F328" s="45"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A329" s="26"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="26"/>
+      <c r="D329" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E329" s="26"/>
+      <c r="F329" s="45"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A330" s="26"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="26"/>
+      <c r="D330" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="E330" s="26"/>
+      <c r="F330" s="45"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A331" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="B331" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D331" s="26"/>
+      <c r="E331" s="33"/>
+      <c r="F331" s="45"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="26"/>
+      <c r="D332" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E332" s="26"/>
+      <c r="F332" s="45"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A333" s="26"/>
+      <c r="B333" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C333" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D333" s="26"/>
+      <c r="E333" s="33"/>
+      <c r="F333" s="45"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="26"/>
+      <c r="D334" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="E334" s="26"/>
+      <c r="F334" s="45"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A335" s="26"/>
+      <c r="B335" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C335" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D335" s="26"/>
+      <c r="E335" s="33"/>
+      <c r="F335" s="45"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
+      <c r="C336" s="26"/>
+      <c r="D336" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E336" s="26"/>
+      <c r="F336" s="45"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A337" s="26"/>
+      <c r="B337" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C337" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D337" s="26"/>
+      <c r="E337" s="33"/>
+      <c r="F337" s="45"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="26"/>
+      <c r="D338" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E338" s="26"/>
+      <c r="F338" s="45"/>
+    </row>
+    <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="A342" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A343" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B343" s="26"/>
+      <c r="C343" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D343" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A344" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B344" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C344" s="33"/>
+      <c r="D344" s="45"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A345" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B345" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C345" s="33"/>
+      <c r="D345" s="45"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A346" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B346" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C346" s="33"/>
+      <c r="D346" s="45"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A347" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B347" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C347" s="33"/>
+      <c r="D347" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E63:E97"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="E16:E33"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A103:A120"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A236"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="B270:B273"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="B266:B269"/>
+    <mergeCell ref="A262:A287"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B211:B213"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="436">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1547,9 +1547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HE006500</t>
-  </si>
-  <si>
     <t>HE006501</t>
   </si>
   <si>
@@ -2431,6 +2428,42 @@
   </si>
   <si>
     <t>33、17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0060.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HE006500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0065.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0062.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0063.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0063.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0062.MDL？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HM-HE0064.MDL？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2722,7 +2755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2880,6 +2913,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4745,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5284,10 +5326,10 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F21" s="5">
         <v>44811</v>
@@ -5310,16 +5352,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F22" s="5">
         <v>44811</v>
@@ -5346,10 +5388,10 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="F23" s="5">
         <v>44811</v>
@@ -5373,13 +5415,13 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F24" s="5">
         <v>44811</v>
@@ -5403,13 +5445,13 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="F25" s="5">
         <v>44811</v>
@@ -6008,8 +6050,8 @@
   </sheetPr>
   <dimension ref="A1:I347"/>
   <sheetViews>
-    <sheetView topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F338" sqref="F338"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F242" sqref="F195:F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6017,7 +6059,7 @@
     <col min="1" max="1" width="37.5" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
@@ -6025,12 +6067,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -6055,10 +6097,10 @@
         <v>46</v>
       </c>
       <c r="E5" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>411</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -6069,17 +6111,17 @@
         <v>51</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>410</v>
-      </c>
       <c r="G6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -6093,10 +6135,10 @@
       <c r="D7" s="33"/>
       <c r="E7" s="47"/>
       <c r="F7" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -6118,11 +6160,11 @@
         <v>51</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -6167,10 +6209,10 @@
         <v>46</v>
       </c>
       <c r="E15" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="52" t="s">
         <v>411</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -6185,10 +6227,10 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -6202,7 +6244,7 @@
       <c r="D17" s="33"/>
       <c r="E17" s="47"/>
       <c r="F17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -6216,7 +6258,7 @@
       <c r="D18" s="33"/>
       <c r="E18" s="47"/>
       <c r="F18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -6298,7 +6340,7 @@
       <c r="D25" s="33"/>
       <c r="E25" s="47"/>
       <c r="F25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -6312,7 +6354,7 @@
       <c r="D26" s="33"/>
       <c r="E26" s="47"/>
       <c r="F26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -6394,7 +6436,7 @@
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -6411,10 +6453,10 @@
         <v>46</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -6429,7 +6471,7 @@
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -6637,7 +6679,7 @@
         <v>103</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>174</v>
@@ -6646,7 +6688,7 @@
         <v>46</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>175</v>
@@ -6655,7 +6697,7 @@
         <v>46</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -6664,18 +6706,18 @@
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D63" s="33"/>
       <c r="E63" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
       <c r="H63" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -6763,7 +6805,7 @@
         <v>108</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>143</v>
@@ -6776,7 +6818,7 @@
       <c r="G69" s="29"/>
       <c r="H69" s="50"/>
       <c r="I69" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -7248,7 +7290,7 @@
         <v>46</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
@@ -7259,12 +7301,14 @@
         <v>179</v>
       </c>
       <c r="C103" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" s="37"/>
+      <c r="E103" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F103" t="s">
         <v>393</v>
-      </c>
-      <c r="D103" s="37"/>
-      <c r="E103" s="35"/>
-      <c r="F103" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
@@ -7276,7 +7320,7 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
+      <c r="E104" s="54"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="40"/>
@@ -7287,9 +7331,9 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="26"/>
+      <c r="E105" s="54"/>
       <c r="F105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
@@ -7301,9 +7345,9 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="35"/>
+      <c r="E106" s="54"/>
       <c r="F106" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
@@ -7315,9 +7359,9 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="26"/>
+      <c r="E107" s="54"/>
       <c r="F107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
@@ -7329,9 +7373,9 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="26"/>
+      <c r="E108" s="54"/>
       <c r="F108" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
@@ -7343,7 +7387,7 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="45"/>
+      <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="40"/>
@@ -7354,7 +7398,7 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="45"/>
+      <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="40"/>
@@ -7365,7 +7409,7 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="45"/>
+      <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="40"/>
@@ -7376,7 +7420,7 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="45"/>
+      <c r="E112" s="54"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="40"/>
@@ -7387,7 +7431,7 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="45"/>
+      <c r="E113" s="54"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="40"/>
@@ -7398,7 +7442,7 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="45"/>
+      <c r="E114" s="54"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="40"/>
@@ -7409,7 +7453,7 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="45"/>
+      <c r="E115" s="54"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="40"/>
@@ -7420,7 +7464,7 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="45"/>
+      <c r="E116" s="54"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="40"/>
@@ -7431,7 +7475,7 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="45"/>
+      <c r="E117" s="54"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="40"/>
@@ -7442,7 +7486,7 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="45"/>
+      <c r="E118" s="54"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="40"/>
@@ -7453,7 +7497,7 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="45"/>
+      <c r="E119" s="54"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="40"/>
@@ -7464,11 +7508,11 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="45"/>
+      <c r="E120" s="55"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
@@ -7691,13 +7735,13 @@
         <v>48</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E184" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F184" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
@@ -7708,28 +7752,30 @@
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>259</v>
+        <v>429</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E185" s="33"/>
-      <c r="F185" s="26"/>
+      <c r="F185" s="43" t="s">
+        <v>430</v>
+      </c>
       <c r="G185" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="40"/>
       <c r="B186" s="40"/>
       <c r="C186" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>259</v>
+        <v>428</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
+      <c r="F186" s="44"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="40"/>
@@ -7737,53 +7783,53 @@
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="26"/>
+      <c r="F187" s="44"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="40"/>
       <c r="B188" s="40"/>
       <c r="C188" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E188" s="33"/>
-      <c r="F188" s="26"/>
+      <c r="F188" s="44"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="40"/>
       <c r="B189" s="40"/>
       <c r="C189" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E189" s="33"/>
-      <c r="F189" s="26"/>
+      <c r="F189" s="44"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="40"/>
       <c r="B190" s="40"/>
       <c r="C190" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="26"/>
+      <c r="F190" s="41"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.4">
@@ -7797,13 +7843,13 @@
         <v>48</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E194" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F194" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
@@ -7811,16 +7857,18 @@
         <v>50</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="45"/>
+      <c r="F195" s="46" t="s">
+        <v>431</v>
+      </c>
       <c r="G195" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
@@ -7828,436 +7876,436 @@
       <c r="B196" s="42"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E196" s="45"/>
-      <c r="F196" s="45"/>
+      <c r="F196" s="47"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" s="40"/>
       <c r="B197" s="42"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E197" s="45"/>
-      <c r="F197" s="45"/>
+      <c r="F197" s="47"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" s="40"/>
       <c r="B198" s="42"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
+      <c r="F198" s="47"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" s="40"/>
       <c r="B199" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="45"/>
+      <c r="F199" s="47"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" s="40"/>
       <c r="B200" s="40"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="45"/>
+      <c r="F200" s="47"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" s="40"/>
       <c r="B201" s="40"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="45"/>
+      <c r="F201" s="47"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="40"/>
       <c r="B202" s="40"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="45"/>
+      <c r="F202" s="47"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" s="40"/>
       <c r="B203" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="45"/>
+      <c r="F203" s="47"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" s="40"/>
       <c r="B204" s="40"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="45"/>
+      <c r="F204" s="47"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" s="40"/>
       <c r="B205" s="40"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="45"/>
+      <c r="F205" s="47"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" s="40"/>
       <c r="B206" s="40"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="45"/>
+      <c r="F206" s="47"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" s="40"/>
       <c r="B207" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="45"/>
+      <c r="F207" s="47"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" s="40"/>
       <c r="B208" s="40"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="45"/>
+      <c r="F208" s="47"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" s="40"/>
       <c r="B209" s="40"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="45"/>
+      <c r="F209" s="47"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" s="40"/>
       <c r="B210" s="40"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="45"/>
+      <c r="F210" s="47"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" s="40"/>
       <c r="B211" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="45"/>
+      <c r="F211" s="47"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" s="40"/>
       <c r="B212" s="40"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="45"/>
+      <c r="F212" s="47"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" s="40"/>
       <c r="B213" s="40"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="45"/>
+      <c r="F213" s="47"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" s="40"/>
       <c r="B214" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="45"/>
+      <c r="F214" s="47"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" s="40"/>
       <c r="B215" s="40"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="45"/>
+      <c r="F215" s="47"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" s="40"/>
       <c r="B216" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="45"/>
+      <c r="F216" s="47"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" s="40"/>
       <c r="B217" s="40"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="45"/>
+      <c r="F217" s="47"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" s="40"/>
       <c r="B218" s="40"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="45"/>
+      <c r="F218" s="47"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" s="40"/>
       <c r="B219" s="40"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="45"/>
+      <c r="F219" s="47"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" s="40"/>
       <c r="B220" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="45"/>
+      <c r="F220" s="47"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" s="40"/>
       <c r="B221" s="40"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="45"/>
+      <c r="F221" s="47"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" s="40"/>
       <c r="B222" s="40"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="45"/>
+      <c r="F222" s="47"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" s="40"/>
       <c r="B223" s="40"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="45"/>
+      <c r="F223" s="47"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" s="40"/>
       <c r="B224" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="45"/>
+      <c r="F224" s="47"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="40"/>
       <c r="B225" s="40"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="45"/>
+      <c r="F225" s="47"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" s="40"/>
       <c r="B226" s="40"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="45"/>
+      <c r="F226" s="47"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" s="40"/>
       <c r="B227" s="40"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="45"/>
+      <c r="F227" s="47"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="40"/>
       <c r="B228" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="45"/>
+      <c r="F228" s="47"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="40"/>
       <c r="B229" s="40"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="45"/>
+      <c r="F229" s="47"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="40"/>
       <c r="B230" s="40"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="45"/>
+      <c r="F230" s="47"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="40"/>
       <c r="B231" s="40"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="45"/>
+      <c r="F231" s="47"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="40"/>
       <c r="B232" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="45"/>
+      <c r="F232" s="47"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="40"/>
       <c r="B233" s="40"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="45"/>
+      <c r="F233" s="47"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="40"/>
       <c r="B234" s="40"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="45"/>
+      <c r="F234" s="47"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="40"/>
       <c r="B235" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="45"/>
+      <c r="F235" s="47"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="40"/>
       <c r="B236" s="40"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="45"/>
+      <c r="F236" s="48"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.4">
@@ -8269,13 +8317,13 @@
       </c>
       <c r="C241" s="26"/>
       <c r="D241" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E241" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F241" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.4">
@@ -8283,36 +8331,38 @@
         <v>56</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C242" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="45"/>
+      <c r="F242" s="46" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
       <c r="D243" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="45"/>
+      <c r="F243" s="47"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
       <c r="C244" s="26"/>
       <c r="D244" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="45"/>
+      <c r="F244" s="47"/>
       <c r="G244" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.4">
@@ -8320,44 +8370,44 @@
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
       <c r="D245" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="45"/>
+      <c r="F245" s="47"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
       <c r="B246" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="45"/>
+      <c r="F246" s="47"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
       <c r="D247" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="45"/>
+      <c r="F247" s="47"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
       <c r="C248" s="26"/>
       <c r="D248" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="45"/>
+      <c r="F248" s="47"/>
       <c r="G248" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.4">
@@ -8365,44 +8415,44 @@
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
       <c r="D249" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="45"/>
+      <c r="F249" s="47"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
       <c r="B250" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="45"/>
+      <c r="F250" s="47"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
       <c r="C251" s="26"/>
       <c r="D251" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="45"/>
+      <c r="F251" s="47"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
       <c r="C252" s="26"/>
       <c r="D252" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="45"/>
+      <c r="F252" s="47"/>
       <c r="G252" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.4">
@@ -8410,44 +8460,44 @@
       <c r="B253" s="26"/>
       <c r="C253" s="26"/>
       <c r="D253" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="45"/>
+      <c r="F253" s="47"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
       <c r="B254" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C254" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="45"/>
+      <c r="F254" s="47"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
       <c r="C255" s="26"/>
       <c r="D255" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="45"/>
+      <c r="F255" s="47"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
       <c r="C256" s="26"/>
       <c r="D256" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="45"/>
+      <c r="F256" s="47"/>
       <c r="G256" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.4">
@@ -8455,14 +8505,14 @@
       <c r="B257" s="26"/>
       <c r="C257" s="26"/>
       <c r="D257" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="45"/>
+      <c r="F257" s="48"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.4">
@@ -8474,13 +8524,13 @@
       </c>
       <c r="C261" s="26"/>
       <c r="D261" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E261" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F261" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
@@ -8488,284 +8538,286 @@
         <v>56</v>
       </c>
       <c r="B262" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="45"/>
+      <c r="F262" s="46" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="40"/>
       <c r="B263" s="40"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="45"/>
+      <c r="F263" s="47"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="40"/>
       <c r="B264" s="40"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="45"/>
+      <c r="F264" s="47"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="40"/>
       <c r="B265" s="40"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="45"/>
+      <c r="F265" s="47"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="40"/>
       <c r="B266" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="45"/>
+      <c r="F266" s="47"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="40"/>
       <c r="B267" s="40"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="45"/>
+      <c r="F267" s="47"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="40"/>
       <c r="B268" s="40"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="45"/>
+      <c r="F268" s="47"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="40"/>
       <c r="B269" s="40"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="45"/>
+      <c r="F269" s="47"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="40"/>
       <c r="B270" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="45"/>
+      <c r="F270" s="47"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="40"/>
       <c r="B271" s="40"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="45"/>
+      <c r="F271" s="47"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="40"/>
       <c r="B272" s="40"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="45"/>
+      <c r="F272" s="47"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="40"/>
       <c r="B273" s="40"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="45"/>
+      <c r="F273" s="47"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="40"/>
       <c r="B274" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="45"/>
+      <c r="F274" s="47"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="40"/>
       <c r="B275" s="40"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="45"/>
+      <c r="F275" s="47"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="40"/>
       <c r="B276" s="40"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="45"/>
+      <c r="F276" s="47"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="40"/>
       <c r="B277" s="40"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="45"/>
+      <c r="F277" s="47"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="40"/>
       <c r="B278" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="45"/>
+      <c r="F278" s="47"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="40"/>
       <c r="B279" s="40"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="45"/>
+      <c r="F279" s="47"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="40"/>
       <c r="B280" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="45"/>
+      <c r="F280" s="47"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="40"/>
       <c r="B281" s="40"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="45"/>
+      <c r="F281" s="47"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="40"/>
       <c r="B282" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="45"/>
+      <c r="F282" s="47"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="40"/>
       <c r="B283" s="40"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="45"/>
+      <c r="F283" s="47"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="40"/>
       <c r="B284" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="45"/>
+      <c r="F284" s="47"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="40"/>
       <c r="B285" s="40"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="45"/>
+      <c r="F285" s="47"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="40"/>
       <c r="B286" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="45"/>
+      <c r="F286" s="47"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="40"/>
       <c r="B287" s="40"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="45"/>
+      <c r="F287" s="48"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.4">
@@ -8777,30 +8829,32 @@
       </c>
       <c r="C292" s="26"/>
       <c r="D292" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E292" s="30" t="s">
         <v>46</v>
       </c>
       <c r="F292" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B293" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B293" s="26" t="s">
-        <v>313</v>
-      </c>
       <c r="C293" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="45"/>
+      <c r="F293" s="46" t="s">
+        <v>434</v>
+      </c>
       <c r="G293" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.4">
@@ -8808,496 +8862,496 @@
       <c r="B294" s="26"/>
       <c r="C294" s="26"/>
       <c r="D294" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="45"/>
+      <c r="F294" s="47"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
       <c r="B295" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C295" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="45"/>
+      <c r="F295" s="47"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
       <c r="B296" s="26"/>
       <c r="C296" s="26"/>
       <c r="D296" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="45"/>
+      <c r="F296" s="47"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
       <c r="B297" s="26"/>
       <c r="C297" s="26"/>
       <c r="D297" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="45"/>
+      <c r="F297" s="47"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
       <c r="B298" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="45"/>
+      <c r="F298" s="47"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
       <c r="B299" s="26"/>
       <c r="C299" s="26"/>
       <c r="D299" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="45"/>
+      <c r="F299" s="47"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
       <c r="B300" s="26"/>
       <c r="C300" s="26"/>
       <c r="D300" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="45"/>
+      <c r="F300" s="47"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
       <c r="B301" s="26"/>
       <c r="C301" s="26"/>
       <c r="D301" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="45"/>
+      <c r="F301" s="47"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C302" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="45"/>
+      <c r="F302" s="47"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
       <c r="B303" s="26"/>
       <c r="C303" s="26"/>
       <c r="D303" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="45"/>
+      <c r="F303" s="47"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
       <c r="B304" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C304" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="45"/>
+      <c r="F304" s="47"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
       <c r="B305" s="26"/>
       <c r="C305" s="26"/>
       <c r="D305" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="45"/>
+      <c r="F305" s="47"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
       <c r="B306" s="26"/>
       <c r="C306" s="26"/>
       <c r="D306" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="45"/>
+      <c r="F306" s="47"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
       <c r="B307" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C307" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="45"/>
+      <c r="F307" s="47"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
       <c r="B308" s="26"/>
       <c r="C308" s="26"/>
       <c r="D308" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="45"/>
+      <c r="F308" s="47"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
       <c r="B309" s="26"/>
       <c r="C309" s="26"/>
       <c r="D309" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="45"/>
+      <c r="F309" s="47"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
       <c r="B310" s="26"/>
       <c r="C310" s="26"/>
       <c r="D310" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="45"/>
+      <c r="F310" s="47"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B311" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C311" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="45"/>
+      <c r="F311" s="47"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
       <c r="B312" s="26"/>
       <c r="C312" s="26"/>
       <c r="D312" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="45"/>
+      <c r="F312" s="47"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
       <c r="B313" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C313" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="45"/>
+      <c r="F313" s="47"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
       <c r="B314" s="26"/>
       <c r="C314" s="26"/>
       <c r="D314" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="45"/>
+      <c r="F314" s="47"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
       <c r="B315" s="26"/>
       <c r="C315" s="26"/>
       <c r="D315" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="45"/>
+      <c r="F315" s="47"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
       <c r="B316" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="45"/>
+      <c r="F316" s="47"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
       <c r="B317" s="26"/>
       <c r="C317" s="26"/>
       <c r="D317" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="45"/>
+      <c r="F317" s="47"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
       <c r="B318" s="26"/>
       <c r="C318" s="26"/>
       <c r="D318" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="45"/>
+      <c r="F318" s="47"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
       <c r="B319" s="26"/>
       <c r="C319" s="26"/>
       <c r="D319" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="45"/>
+      <c r="F319" s="47"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C320" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="45"/>
+      <c r="F320" s="47"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
       <c r="B321" s="26"/>
       <c r="C321" s="26"/>
       <c r="D321" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="45"/>
+      <c r="F321" s="47"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
       <c r="B322" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C322" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="45"/>
+      <c r="F322" s="47"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
       <c r="B323" s="26"/>
       <c r="C323" s="26"/>
       <c r="D323" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="45"/>
+      <c r="F323" s="47"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
       <c r="B324" s="26"/>
       <c r="C324" s="26"/>
       <c r="D324" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="45"/>
+      <c r="F324" s="47"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
       <c r="B325" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C325" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="45"/>
+      <c r="F325" s="47"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
       <c r="B326" s="26"/>
       <c r="C326" s="26"/>
       <c r="D326" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="45"/>
+      <c r="F326" s="47"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
       <c r="B327" s="26"/>
       <c r="C327" s="26"/>
       <c r="D327" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="45"/>
+      <c r="F327" s="47"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B328" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328" s="26" t="s">
         <v>324</v>
-      </c>
-      <c r="C328" s="26" t="s">
-        <v>325</v>
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="45"/>
+      <c r="F328" s="47"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
       <c r="B329" s="26"/>
       <c r="C329" s="26"/>
       <c r="D329" s="26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="45"/>
+      <c r="F329" s="47"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
       <c r="B330" s="26"/>
       <c r="C330" s="26"/>
       <c r="D330" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="45"/>
+      <c r="F330" s="47"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B331" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="B331" s="26" t="s">
-        <v>328</v>
-      </c>
       <c r="C331" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="45"/>
+      <c r="F331" s="47"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
       <c r="B332" s="26"/>
       <c r="C332" s="26"/>
       <c r="D332" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="45"/>
+      <c r="F332" s="47"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
       <c r="B333" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C333" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="45"/>
+      <c r="F333" s="47"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
       <c r="B334" s="26"/>
       <c r="C334" s="26"/>
       <c r="D334" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="45"/>
+      <c r="F334" s="47"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
       <c r="B335" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C335" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="45"/>
+      <c r="F335" s="47"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
       <c r="B336" s="26"/>
       <c r="C336" s="26"/>
       <c r="D336" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="45"/>
+      <c r="F336" s="47"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
       <c r="B337" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C337" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="45"/>
+      <c r="F337" s="47"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
       <c r="B338" s="26"/>
       <c r="C338" s="26"/>
       <c r="D338" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="45"/>
+      <c r="F338" s="48"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.4">
@@ -9309,52 +9363,61 @@
         <v>46</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="45"/>
+      <c r="D344" s="46" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B345" s="26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="45"/>
+      <c r="D345" s="47"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B346" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="45"/>
+      <c r="D346" s="47"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B347" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="B347" s="26" t="s">
-        <v>341</v>
-      </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="45"/>
+      <c r="D347" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="44">
+    <mergeCell ref="F262:F287"/>
+    <mergeCell ref="F293:F338"/>
+    <mergeCell ref="D344:D347"/>
     <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="F195:F236"/>
+    <mergeCell ref="F242:F257"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E38:E46"/>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
     <sheet name="「SafetyWarning」のダイアログ" sheetId="25" r:id="rId2"/>
     <sheet name="テンプレート機能に必要なデータ" sheetId="26" r:id="rId3"/>
+    <sheet name="No.40 Template機能で使用しているDB" sheetId="27" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="455">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2466,12 +2467,138 @@
     <t>HM-HE0064.MDL？</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>サーバー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IHDB66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template1「Serial」画面の検索機能で使用</t>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>Template1「New I Mark」画面の検索機能で使用（Tire typeが「PC」の場合）</t>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMARKTBLT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template1「New I Mark」画面の検索機能で使用（Tire typeが「LT」or「TB」場合）</t>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jatma</t>
+  </si>
+  <si>
+    <t>Template2「Load index(S)」画面とTemplate3「MAX LOAD」画面の検索機能で使用
+＜Load index(S)＞
+Stndardが「JATMA」の場合
+＜MAX LOAD＞
+Typeが「JATMA」の場合</t>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>Template2「Load index(S)」画面とTemplate3「MAX LOAD」画面の検索機能で使用
+＜Load index(S)＞
+Stndardが「TRA (standard)」or「TRA (special)」or「TRA (lightweigh)」の場合
+＜MAX LOAD＞
+Typeが「TRA (standard)」or「TRA (special)」or「TRA (light)」の場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>etrto</t>
+  </si>
+  <si>
+    <t>Template2「Load index(S)」画面とTemplate3「MAX LOAD」画面の検索機能で使用
+＜Load index(S)＞
+Stndardが「ETRTO(Standard)」or「ETRTO(Special)」の場合
+＜MAX LOAD＞
+Typeが「ETRTO(Standard)」or「ETRTO(Special)」の場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,6 +2643,14 @@
       <name val="游明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2755,7 +2890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2870,6 +3005,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2883,15 +3045,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -2912,7 +3065,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2928,7 +3084,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4782,13 +4958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4808,11 +4981,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -5715,288 +5888,288 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576 C18:C24">
-    <cfRule type="containsText" dxfId="69" priority="613" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="71" priority="613" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21">
-    <cfRule type="expression" dxfId="68" priority="611">
+    <cfRule type="expression" dxfId="70" priority="611">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="612">
+    <cfRule type="expression" dxfId="69" priority="612">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="66" priority="126" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="68" priority="126" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I26:I38">
-    <cfRule type="expression" dxfId="65" priority="124">
+    <cfRule type="expression" dxfId="67" priority="124">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="125">
+    <cfRule type="expression" dxfId="66" priority="125">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="63" priority="122">
+    <cfRule type="expression" dxfId="65" priority="122">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="123">
+    <cfRule type="expression" dxfId="64" priority="123">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="61" priority="66" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="60" priority="64">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="65">
+    <cfRule type="expression" dxfId="61" priority="65">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:H30 C31 E31:H31 C25:E25">
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="43" priority="43">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="42" priority="44">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="41" priority="41">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="40" priority="42">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H20">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6045,12 +6218,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:I347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F242" sqref="F195:F257"/>
     </sheetView>
   </sheetViews>
@@ -6099,7 +6269,7 @@
       <c r="E5" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="40" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6114,7 +6284,7 @@
         <v>407</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="52" t="s">
         <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -6133,7 +6303,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="47"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="27" t="s">
         <v>376</v>
       </c>
@@ -6150,7 +6320,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="48"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
@@ -6163,7 +6333,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="55" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6176,7 +6346,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="50"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
@@ -6187,7 +6357,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -6211,12 +6381,12 @@
       <c r="E15" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="40" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="58" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -6226,7 +6396,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="52" t="s">
         <v>401</v>
       </c>
       <c r="F16" t="s">
@@ -6234,7 +6404,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="44"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="26" t="s">
         <v>65</v>
       </c>
@@ -6242,13 +6412,13 @@
         <v>74</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="47"/>
+      <c r="E17" s="53"/>
       <c r="F17" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="44"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
@@ -6256,13 +6426,13 @@
         <v>75</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="47"/>
+      <c r="E18" s="53"/>
       <c r="F18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="44"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="26" t="s">
         <v>67</v>
       </c>
@@ -6270,10 +6440,10 @@
         <v>76</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="47"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26" t="s">
         <v>68</v>
       </c>
@@ -6281,10 +6451,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="47"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="44"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="26" t="s">
         <v>69</v>
       </c>
@@ -6292,10 +6462,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="47"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="44"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="26" t="s">
         <v>70</v>
       </c>
@@ -6303,10 +6473,10 @@
         <v>81</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="47"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="44"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
@@ -6314,10 +6484,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="41"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="26" t="s">
         <v>72</v>
       </c>
@@ -6325,10 +6495,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="47"/>
+      <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="58" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -6338,13 +6508,13 @@
         <v>84</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="47"/>
+      <c r="E25" s="53"/>
       <c r="F25" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -6352,13 +6522,13 @@
         <v>85</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="47"/>
+      <c r="E26" s="53"/>
       <c r="F26" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
@@ -6366,10 +6536,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="47"/>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="44"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
@@ -6377,10 +6547,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="47"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="44"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
@@ -6388,10 +6558,10 @@
         <v>90</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="47"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="44"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
@@ -6399,10 +6569,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="47"/>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="44"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
@@ -6410,10 +6580,10 @@
         <v>87</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="47"/>
+      <c r="E31" s="53"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="44"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
@@ -6421,10 +6591,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="47"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="41"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="26" t="s">
         <v>72</v>
       </c>
@@ -6432,7 +6602,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="48"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -6455,12 +6625,12 @@
       <c r="E37" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="40" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -6470,12 +6640,12 @@
         <v>92</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="55" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="40"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
@@ -6483,10 +6653,10 @@
         <v>93</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="50"/>
+      <c r="E39" s="56"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="40"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
@@ -6494,10 +6664,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="50"/>
+      <c r="E40" s="56"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="40"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
@@ -6505,10 +6675,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="50"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="40"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
@@ -6516,10 +6686,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="50"/>
+      <c r="E42" s="56"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="40"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="26" t="s">
         <v>70</v>
       </c>
@@ -6527,10 +6697,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="50"/>
+      <c r="E43" s="56"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="40"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="26" t="s">
         <v>71</v>
       </c>
@@ -6538,10 +6708,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="50"/>
+      <c r="E44" s="56"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="40"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="26" t="s">
         <v>72</v>
       </c>
@@ -6549,10 +6719,10 @@
         <v>100</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="56"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="40"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="26" t="s">
         <v>101</v>
       </c>
@@ -6560,10 +6730,10 @@
         <v>99</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="51"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="49" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -6576,7 +6746,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="40"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="26" t="s">
         <v>65</v>
       </c>
@@ -6587,7 +6757,7 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="40"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="26" t="s">
         <v>66</v>
       </c>
@@ -6598,7 +6768,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="40"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="26" t="s">
         <v>67</v>
       </c>
@@ -6609,7 +6779,7 @@
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="40"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
@@ -6620,7 +6790,7 @@
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="40"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="26" t="s">
         <v>69</v>
       </c>
@@ -6631,7 +6801,7 @@
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="40"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="26" t="s">
         <v>70</v>
       </c>
@@ -6642,7 +6812,7 @@
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="40"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="26" t="s">
         <v>71</v>
       </c>
@@ -6653,7 +6823,7 @@
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="40"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
@@ -6709,14 +6879,14 @@
         <v>402</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="55" t="s">
         <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
-      <c r="H63" s="49" t="s">
+      <c r="H63" s="55" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6729,12 +6899,12 @@
         <v>138</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="50"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G64" s="29"/>
-      <c r="H64" s="50"/>
+      <c r="H64" s="56"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
@@ -6745,12 +6915,12 @@
         <v>139</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="29"/>
-      <c r="H65" s="50"/>
+      <c r="H65" s="56"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="26" t="s">
@@ -6761,12 +6931,12 @@
         <v>140</v>
       </c>
       <c r="D66" s="33"/>
-      <c r="E66" s="50"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="26" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="50"/>
+      <c r="H66" s="56"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="26" t="s">
@@ -6777,12 +6947,12 @@
         <v>141</v>
       </c>
       <c r="D67" s="33"/>
-      <c r="E67" s="50"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="50"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="26" t="s">
@@ -6793,12 +6963,12 @@
         <v>142</v>
       </c>
       <c r="D68" s="33"/>
-      <c r="E68" s="50"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G68" s="29"/>
-      <c r="H68" s="50"/>
+      <c r="H68" s="56"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="26" t="s">
@@ -6811,12 +6981,12 @@
         <v>143</v>
       </c>
       <c r="D69" s="33"/>
-      <c r="E69" s="50"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="50"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="27" t="s">
         <v>380</v>
       </c>
@@ -6830,12 +7000,12 @@
         <v>144</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="50"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="50"/>
+      <c r="H70" s="56"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="26" t="s">
@@ -6846,12 +7016,12 @@
         <v>145</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="50"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="50"/>
+      <c r="H71" s="56"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="26" t="s">
@@ -6862,12 +7032,12 @@
         <v>146</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" s="50"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="50"/>
+      <c r="H72" s="56"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="26" t="s">
@@ -6878,12 +7048,12 @@
         <v>147</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="50"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="50"/>
+      <c r="H73" s="56"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="26" t="s">
@@ -6894,12 +7064,12 @@
         <v>148</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="50"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G74" s="29"/>
-      <c r="H74" s="50"/>
+      <c r="H74" s="56"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="26" t="s">
@@ -6910,12 +7080,12 @@
         <v>149</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="50"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="50"/>
+      <c r="H75" s="56"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="26" t="s">
@@ -6926,12 +7096,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="50"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="50"/>
+      <c r="H76" s="56"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="26" t="s">
@@ -6942,12 +7112,12 @@
         <v>151</v>
       </c>
       <c r="D77" s="33"/>
-      <c r="E77" s="50"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="50"/>
+      <c r="H77" s="56"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="26" t="s">
@@ -6958,12 +7128,12 @@
         <v>152</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="50"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="50"/>
+      <c r="H78" s="56"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="26" t="s">
@@ -6974,12 +7144,12 @@
         <v>153</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="50"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="50"/>
+      <c r="H79" s="56"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="26" t="s">
@@ -6990,12 +7160,12 @@
         <v>154</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="50"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="50"/>
+      <c r="H80" s="56"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="26" t="s">
@@ -7006,12 +7176,12 @@
         <v>155</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="50"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="50"/>
+      <c r="H81" s="56"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
@@ -7022,12 +7192,12 @@
         <v>156</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="50"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="50"/>
+      <c r="H82" s="56"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="26" t="s">
@@ -7038,12 +7208,12 @@
         <v>157</v>
       </c>
       <c r="D83" s="33"/>
-      <c r="E83" s="50"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="50"/>
+      <c r="H83" s="56"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="26" t="s">
@@ -7054,12 +7224,12 @@
         <v>158</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" s="50"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="50"/>
+      <c r="H84" s="56"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="26" t="s">
@@ -7070,12 +7240,12 @@
         <v>159</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" s="50"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="50"/>
+      <c r="H85" s="56"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="26" t="s">
@@ -7086,12 +7256,12 @@
         <v>160</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="50"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="50"/>
+      <c r="H86" s="56"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
@@ -7102,12 +7272,12 @@
         <v>161</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="50"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="29"/>
-      <c r="H87" s="50"/>
+      <c r="H87" s="56"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
@@ -7118,12 +7288,12 @@
         <v>162</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="50"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="50"/>
+      <c r="H88" s="56"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
@@ -7134,12 +7304,12 @@
         <v>163</v>
       </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="50"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G89" s="29"/>
-      <c r="H89" s="50"/>
+      <c r="H89" s="56"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
@@ -7150,12 +7320,12 @@
         <v>164</v>
       </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="50"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="H90" s="50"/>
+      <c r="H90" s="56"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
@@ -7166,12 +7336,12 @@
         <v>165</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="50"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="50"/>
+      <c r="H91" s="56"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
@@ -7182,12 +7352,12 @@
         <v>166</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="50"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G92" s="29"/>
-      <c r="H92" s="50"/>
+      <c r="H92" s="56"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
@@ -7198,12 +7368,12 @@
         <v>167</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" s="50"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="50"/>
+      <c r="H93" s="56"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="26" t="s">
@@ -7214,12 +7384,12 @@
         <v>168</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" s="50"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="50"/>
+      <c r="H94" s="56"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="26" t="s">
@@ -7230,12 +7400,12 @@
         <v>169</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" s="50"/>
+      <c r="E95" s="56"/>
       <c r="F95" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="50"/>
+      <c r="H95" s="56"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
@@ -7246,12 +7416,12 @@
         <v>170</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="50"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G96" s="29"/>
-      <c r="H96" s="50"/>
+      <c r="H96" s="56"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="26" t="s">
@@ -7262,12 +7432,12 @@
         <v>171</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="51"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="51"/>
+      <c r="H97" s="57"/>
     </row>
     <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
@@ -7294,7 +7464,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="35" t="s">
@@ -7304,7 +7474,7 @@
         <v>392</v>
       </c>
       <c r="D103" s="37"/>
-      <c r="E103" s="53" t="s">
+      <c r="E103" s="60" t="s">
         <v>427</v>
       </c>
       <c r="F103" t="s">
@@ -7312,7 +7482,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="40"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="26" t="s">
         <v>180</v>
       </c>
@@ -7320,10 +7490,10 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="54"/>
+      <c r="E104" s="61"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="40"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="26" t="s">
         <v>181</v>
       </c>
@@ -7331,13 +7501,13 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="54"/>
+      <c r="E105" s="61"/>
       <c r="F105" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="40"/>
+      <c r="A106" s="49"/>
       <c r="B106" s="26" t="s">
         <v>182</v>
       </c>
@@ -7345,13 +7515,13 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="54"/>
+      <c r="E106" s="61"/>
       <c r="F106" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="40"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="26" t="s">
         <v>183</v>
       </c>
@@ -7359,13 +7529,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="54"/>
+      <c r="E107" s="61"/>
       <c r="F107" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="40"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -7373,13 +7543,13 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="54"/>
+      <c r="E108" s="61"/>
       <c r="F108" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="40"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -7387,10 +7557,10 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="54"/>
+      <c r="E109" s="61"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="40"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
@@ -7398,10 +7568,10 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="54"/>
+      <c r="E110" s="61"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="40"/>
+      <c r="A111" s="49"/>
       <c r="B111" s="26" t="s">
         <v>185</v>
       </c>
@@ -7409,10 +7579,10 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="54"/>
+      <c r="E111" s="61"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="40"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="26" t="s">
         <v>190</v>
       </c>
@@ -7420,10 +7590,10 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="54"/>
+      <c r="E112" s="61"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="40"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="26" t="s">
         <v>191</v>
       </c>
@@ -7431,10 +7601,10 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="54"/>
+      <c r="E113" s="61"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="40"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="26" t="s">
         <v>188</v>
       </c>
@@ -7442,10 +7612,10 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="54"/>
+      <c r="E114" s="61"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="40"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="26" t="s">
         <v>189</v>
       </c>
@@ -7453,10 +7623,10 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="54"/>
+      <c r="E115" s="61"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="40"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="26" t="s">
         <v>192</v>
       </c>
@@ -7464,10 +7634,10 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="54"/>
+      <c r="E116" s="61"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="40"/>
+      <c r="A117" s="49"/>
       <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
@@ -7475,10 +7645,10 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="54"/>
+      <c r="E117" s="61"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="40"/>
+      <c r="A118" s="49"/>
       <c r="B118" s="26" t="s">
         <v>194</v>
       </c>
@@ -7486,10 +7656,10 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="54"/>
+      <c r="E118" s="61"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="40"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="26" t="s">
         <v>195</v>
       </c>
@@ -7497,10 +7667,10 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="54"/>
+      <c r="E119" s="61"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="40"/>
+      <c r="A120" s="49"/>
       <c r="B120" s="26" t="s">
         <v>196</v>
       </c>
@@ -7508,7 +7678,7 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="55"/>
+      <c r="E120" s="62"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
@@ -7745,10 +7915,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A185" s="40" t="s">
+      <c r="A185" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="40" t="s">
+      <c r="B185" s="49" t="s">
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
@@ -7758,7 +7928,7 @@
         <v>381</v>
       </c>
       <c r="E185" s="33"/>
-      <c r="F185" s="43" t="s">
+      <c r="F185" s="58" t="s">
         <v>430</v>
       </c>
       <c r="G185" t="s">
@@ -7766,8 +7936,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="A186" s="49"/>
+      <c r="B186" s="49"/>
       <c r="C186" s="26" t="s">
         <v>381</v>
       </c>
@@ -7775,11 +7945,11 @@
         <v>428</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="44"/>
+      <c r="F186" s="59"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40" t="s">
+      <c r="A187" s="49"/>
+      <c r="B187" s="49" t="s">
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
@@ -7789,11 +7959,11 @@
         <v>381</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="44"/>
+      <c r="F187" s="59"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A188" s="40"/>
-      <c r="B188" s="40"/>
+      <c r="A188" s="49"/>
+      <c r="B188" s="49"/>
       <c r="C188" s="26" t="s">
         <v>381</v>
       </c>
@@ -7801,11 +7971,11 @@
         <v>353</v>
       </c>
       <c r="E188" s="33"/>
-      <c r="F188" s="44"/>
+      <c r="F188" s="59"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A189" s="40"/>
-      <c r="B189" s="40"/>
+      <c r="A189" s="49"/>
+      <c r="B189" s="49"/>
       <c r="C189" s="26" t="s">
         <v>381</v>
       </c>
@@ -7813,11 +7983,11 @@
         <v>354</v>
       </c>
       <c r="E189" s="33"/>
-      <c r="F189" s="44"/>
+      <c r="F189" s="59"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
+      <c r="A190" s="49"/>
+      <c r="B190" s="49"/>
       <c r="C190" s="26" t="s">
         <v>381</v>
       </c>
@@ -7825,7 +7995,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="41"/>
+      <c r="F190" s="50"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
@@ -7853,10 +8023,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A195" s="40" t="s">
+      <c r="A195" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="42" t="s">
+      <c r="B195" s="51" t="s">
         <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
@@ -7864,7 +8034,7 @@
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="46" t="s">
+      <c r="F195" s="52" t="s">
         <v>431</v>
       </c>
       <c r="G195" t="s">
@@ -7872,38 +8042,38 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A196" s="40"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="51"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="E196" s="45"/>
-      <c r="F196" s="47"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="53"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A197" s="40"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="49"/>
+      <c r="B197" s="51"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="E197" s="45"/>
-      <c r="F197" s="47"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="53"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A198" s="40"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="51"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="E198" s="45"/>
-      <c r="F198" s="47"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="53"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A199" s="40"/>
-      <c r="B199" s="40" t="s">
+      <c r="A199" s="49"/>
+      <c r="B199" s="49" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
@@ -7911,41 +8081,41 @@
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="47"/>
+      <c r="F199" s="53"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A200" s="40"/>
-      <c r="B200" s="40"/>
+      <c r="A200" s="49"/>
+      <c r="B200" s="49"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="47"/>
+      <c r="F200" s="53"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="40"/>
-      <c r="B201" s="40"/>
+      <c r="A201" s="49"/>
+      <c r="B201" s="49"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="47"/>
+      <c r="F201" s="53"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A202" s="40"/>
-      <c r="B202" s="40"/>
+      <c r="A202" s="49"/>
+      <c r="B202" s="49"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="47"/>
+      <c r="F202" s="53"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A203" s="40"/>
-      <c r="B203" s="40" t="s">
+      <c r="A203" s="49"/>
+      <c r="B203" s="49" t="s">
         <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
@@ -7953,41 +8123,41 @@
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="47"/>
+      <c r="F203" s="53"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A204" s="40"/>
-      <c r="B204" s="40"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="49"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="47"/>
+      <c r="F204" s="53"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A205" s="40"/>
-      <c r="B205" s="40"/>
+      <c r="A205" s="49"/>
+      <c r="B205" s="49"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="47"/>
+      <c r="F205" s="53"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A206" s="40"/>
-      <c r="B206" s="40"/>
+      <c r="A206" s="49"/>
+      <c r="B206" s="49"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="47"/>
+      <c r="F206" s="53"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A207" s="40"/>
-      <c r="B207" s="40" t="s">
+      <c r="A207" s="49"/>
+      <c r="B207" s="49" t="s">
         <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
@@ -7995,41 +8165,41 @@
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="47"/>
+      <c r="F207" s="53"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A208" s="40"/>
-      <c r="B208" s="40"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="49"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="47"/>
+      <c r="F208" s="53"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" s="40"/>
-      <c r="B209" s="40"/>
+      <c r="A209" s="49"/>
+      <c r="B209" s="49"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="47"/>
+      <c r="F209" s="53"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" s="40"/>
-      <c r="B210" s="40"/>
+      <c r="A210" s="49"/>
+      <c r="B210" s="49"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="47"/>
+      <c r="F210" s="53"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" s="40"/>
-      <c r="B211" s="40" t="s">
+      <c r="A211" s="49"/>
+      <c r="B211" s="49" t="s">
         <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -8037,31 +8207,31 @@
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="47"/>
+      <c r="F211" s="53"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" s="40"/>
-      <c r="B212" s="40"/>
+      <c r="A212" s="49"/>
+      <c r="B212" s="49"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="47"/>
+      <c r="F212" s="53"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" s="40"/>
-      <c r="B213" s="40"/>
+      <c r="A213" s="49"/>
+      <c r="B213" s="49"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="47"/>
+      <c r="F213" s="53"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" s="40"/>
-      <c r="B214" s="40" t="s">
+      <c r="A214" s="49"/>
+      <c r="B214" s="49" t="s">
         <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
@@ -8069,21 +8239,21 @@
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="47"/>
+      <c r="F214" s="53"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="40"/>
-      <c r="B215" s="40"/>
+      <c r="A215" s="49"/>
+      <c r="B215" s="49"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="47"/>
+      <c r="F215" s="53"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="40"/>
-      <c r="B216" s="40" t="s">
+      <c r="A216" s="49"/>
+      <c r="B216" s="49" t="s">
         <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
@@ -8091,41 +8261,41 @@
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="47"/>
+      <c r="F216" s="53"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="40"/>
-      <c r="B217" s="40"/>
+      <c r="A217" s="49"/>
+      <c r="B217" s="49"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="47"/>
+      <c r="F217" s="53"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" s="40"/>
-      <c r="B218" s="40"/>
+      <c r="A218" s="49"/>
+      <c r="B218" s="49"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="47"/>
+      <c r="F218" s="53"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" s="40"/>
-      <c r="B219" s="40"/>
+      <c r="A219" s="49"/>
+      <c r="B219" s="49"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="47"/>
+      <c r="F219" s="53"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" s="40"/>
-      <c r="B220" s="40" t="s">
+      <c r="A220" s="49"/>
+      <c r="B220" s="49" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
@@ -8133,41 +8303,41 @@
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="47"/>
+      <c r="F220" s="53"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" s="40"/>
-      <c r="B221" s="40"/>
+      <c r="A221" s="49"/>
+      <c r="B221" s="49"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="47"/>
+      <c r="F221" s="53"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" s="40"/>
-      <c r="B222" s="40"/>
+      <c r="A222" s="49"/>
+      <c r="B222" s="49"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="47"/>
+      <c r="F222" s="53"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="40"/>
-      <c r="B223" s="40"/>
+      <c r="A223" s="49"/>
+      <c r="B223" s="49"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="47"/>
+      <c r="F223" s="53"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" s="40"/>
-      <c r="B224" s="40" t="s">
+      <c r="A224" s="49"/>
+      <c r="B224" s="49" t="s">
         <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
@@ -8175,41 +8345,41 @@
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="47"/>
+      <c r="F224" s="53"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A225" s="40"/>
-      <c r="B225" s="40"/>
+      <c r="A225" s="49"/>
+      <c r="B225" s="49"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="47"/>
+      <c r="F225" s="53"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A226" s="40"/>
-      <c r="B226" s="40"/>
+      <c r="A226" s="49"/>
+      <c r="B226" s="49"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="47"/>
+      <c r="F226" s="53"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A227" s="40"/>
-      <c r="B227" s="40"/>
+      <c r="A227" s="49"/>
+      <c r="B227" s="49"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="47"/>
+      <c r="F227" s="53"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A228" s="40"/>
-      <c r="B228" s="40" t="s">
+      <c r="A228" s="49"/>
+      <c r="B228" s="49" t="s">
         <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
@@ -8217,41 +8387,41 @@
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="47"/>
+      <c r="F228" s="53"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A229" s="40"/>
-      <c r="B229" s="40"/>
+      <c r="A229" s="49"/>
+      <c r="B229" s="49"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="47"/>
+      <c r="F229" s="53"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A230" s="40"/>
-      <c r="B230" s="40"/>
+      <c r="A230" s="49"/>
+      <c r="B230" s="49"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="47"/>
+      <c r="F230" s="53"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A231" s="40"/>
-      <c r="B231" s="40"/>
+      <c r="A231" s="49"/>
+      <c r="B231" s="49"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="47"/>
+      <c r="F231" s="53"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A232" s="40"/>
-      <c r="B232" s="40" t="s">
+      <c r="A232" s="49"/>
+      <c r="B232" s="49" t="s">
         <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
@@ -8259,31 +8429,31 @@
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="47"/>
+      <c r="F232" s="53"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40"/>
+      <c r="A233" s="49"/>
+      <c r="B233" s="49"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="47"/>
+      <c r="F233" s="53"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
+      <c r="A234" s="49"/>
+      <c r="B234" s="49"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="47"/>
+      <c r="F234" s="53"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40" t="s">
+      <c r="A235" s="49"/>
+      <c r="B235" s="49" t="s">
         <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
@@ -8291,17 +8461,17 @@
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="47"/>
+      <c r="F235" s="53"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
+      <c r="A236" s="49"/>
+      <c r="B236" s="49"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="48"/>
+      <c r="F236" s="54"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
@@ -8338,7 +8508,7 @@
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="46" t="s">
+      <c r="F242" s="52" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8350,7 +8520,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="47"/>
+      <c r="F243" s="53"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
@@ -8360,7 +8530,7 @@
         <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="47"/>
+      <c r="F244" s="53"/>
       <c r="G244" t="s">
         <v>383</v>
       </c>
@@ -8373,7 +8543,7 @@
         <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="47"/>
+      <c r="F245" s="53"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
@@ -8385,7 +8555,7 @@
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="47"/>
+      <c r="F246" s="53"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
@@ -8395,7 +8565,7 @@
         <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="47"/>
+      <c r="F247" s="53"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
@@ -8405,7 +8575,7 @@
         <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="47"/>
+      <c r="F248" s="53"/>
       <c r="G248" t="s">
         <v>383</v>
       </c>
@@ -8418,7 +8588,7 @@
         <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="47"/>
+      <c r="F249" s="53"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
@@ -8430,7 +8600,7 @@
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="47"/>
+      <c r="F250" s="53"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
@@ -8440,7 +8610,7 @@
         <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="47"/>
+      <c r="F251" s="53"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
@@ -8450,7 +8620,7 @@
         <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="47"/>
+      <c r="F252" s="53"/>
       <c r="G252" t="s">
         <v>383</v>
       </c>
@@ -8463,7 +8633,7 @@
         <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="47"/>
+      <c r="F253" s="53"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
@@ -8475,7 +8645,7 @@
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="47"/>
+      <c r="F254" s="53"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
@@ -8485,7 +8655,7 @@
         <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="47"/>
+      <c r="F255" s="53"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
@@ -8495,7 +8665,7 @@
         <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="47"/>
+      <c r="F256" s="53"/>
       <c r="G256" t="s">
         <v>383</v>
       </c>
@@ -8508,7 +8678,7 @@
         <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="48"/>
+      <c r="F257" s="54"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
@@ -8534,10 +8704,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A262" s="40" t="s">
+      <c r="A262" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B262" s="40" t="s">
+      <c r="B262" s="49" t="s">
         <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -8545,43 +8715,43 @@
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="46" t="s">
+      <c r="F262" s="52" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A263" s="40"/>
-      <c r="B263" s="40"/>
+      <c r="A263" s="49"/>
+      <c r="B263" s="49"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
         <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="47"/>
+      <c r="F263" s="53"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A264" s="40"/>
-      <c r="B264" s="40"/>
+      <c r="A264" s="49"/>
+      <c r="B264" s="49"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="47"/>
+      <c r="F264" s="53"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A265" s="40"/>
-      <c r="B265" s="40"/>
+      <c r="A265" s="49"/>
+      <c r="B265" s="49"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
         <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="47"/>
+      <c r="F265" s="53"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A266" s="40"/>
-      <c r="B266" s="40" t="s">
+      <c r="A266" s="49"/>
+      <c r="B266" s="49" t="s">
         <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
@@ -8589,41 +8759,41 @@
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="47"/>
+      <c r="F266" s="53"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A267" s="40"/>
-      <c r="B267" s="40"/>
+      <c r="A267" s="49"/>
+      <c r="B267" s="49"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="47"/>
+      <c r="F267" s="53"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A268" s="40"/>
-      <c r="B268" s="40"/>
+      <c r="A268" s="49"/>
+      <c r="B268" s="49"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
         <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="47"/>
+      <c r="F268" s="53"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A269" s="40"/>
-      <c r="B269" s="40"/>
+      <c r="A269" s="49"/>
+      <c r="B269" s="49"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
         <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="47"/>
+      <c r="F269" s="53"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A270" s="40"/>
-      <c r="B270" s="40" t="s">
+      <c r="A270" s="49"/>
+      <c r="B270" s="49" t="s">
         <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
@@ -8631,41 +8801,41 @@
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="47"/>
+      <c r="F270" s="53"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A271" s="40"/>
-      <c r="B271" s="40"/>
+      <c r="A271" s="49"/>
+      <c r="B271" s="49"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="47"/>
+      <c r="F271" s="53"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A272" s="40"/>
-      <c r="B272" s="40"/>
+      <c r="A272" s="49"/>
+      <c r="B272" s="49"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
         <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="47"/>
+      <c r="F272" s="53"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="40"/>
-      <c r="B273" s="40"/>
+      <c r="A273" s="49"/>
+      <c r="B273" s="49"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="47"/>
+      <c r="F273" s="53"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="40"/>
-      <c r="B274" s="40" t="s">
+      <c r="A274" s="49"/>
+      <c r="B274" s="49" t="s">
         <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
@@ -8673,41 +8843,41 @@
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="47"/>
+      <c r="F274" s="53"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="40"/>
-      <c r="B275" s="40"/>
+      <c r="A275" s="49"/>
+      <c r="B275" s="49"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="47"/>
+      <c r="F275" s="53"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="40"/>
-      <c r="B276" s="40"/>
+      <c r="A276" s="49"/>
+      <c r="B276" s="49"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
         <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="47"/>
+      <c r="F276" s="53"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="40"/>
-      <c r="B277" s="40"/>
+      <c r="A277" s="49"/>
+      <c r="B277" s="49"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="47"/>
+      <c r="F277" s="53"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="40"/>
-      <c r="B278" s="40" t="s">
+      <c r="A278" s="49"/>
+      <c r="B278" s="49" t="s">
         <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
@@ -8715,21 +8885,21 @@
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="47"/>
+      <c r="F278" s="53"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="40"/>
-      <c r="B279" s="40"/>
+      <c r="A279" s="49"/>
+      <c r="B279" s="49"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="47"/>
+      <c r="F279" s="53"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="40"/>
-      <c r="B280" s="40" t="s">
+      <c r="A280" s="49"/>
+      <c r="B280" s="49" t="s">
         <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
@@ -8737,21 +8907,21 @@
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="47"/>
+      <c r="F280" s="53"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="40"/>
-      <c r="B281" s="40"/>
+      <c r="A281" s="49"/>
+      <c r="B281" s="49"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
         <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="47"/>
+      <c r="F281" s="53"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="40"/>
-      <c r="B282" s="40" t="s">
+      <c r="A282" s="49"/>
+      <c r="B282" s="49" t="s">
         <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
@@ -8759,21 +8929,21 @@
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="47"/>
+      <c r="F282" s="53"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="40"/>
-      <c r="B283" s="40"/>
+      <c r="A283" s="49"/>
+      <c r="B283" s="49"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="47"/>
+      <c r="F283" s="53"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="40"/>
-      <c r="B284" s="40" t="s">
+      <c r="A284" s="49"/>
+      <c r="B284" s="49" t="s">
         <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
@@ -8781,21 +8951,21 @@
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="47"/>
+      <c r="F284" s="53"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="40"/>
-      <c r="B285" s="40"/>
+      <c r="A285" s="49"/>
+      <c r="B285" s="49"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
         <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="47"/>
+      <c r="F285" s="53"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="40"/>
-      <c r="B286" s="40" t="s">
+      <c r="A286" s="49"/>
+      <c r="B286" s="49" t="s">
         <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
@@ -8803,17 +8973,17 @@
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="47"/>
+      <c r="F286" s="53"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="40"/>
-      <c r="B287" s="40"/>
+      <c r="A287" s="49"/>
+      <c r="B287" s="49"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
         <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="48"/>
+      <c r="F287" s="54"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
@@ -8850,7 +9020,7 @@
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="46" t="s">
+      <c r="F293" s="52" t="s">
         <v>434</v>
       </c>
       <c r="G293" t="s">
@@ -8865,7 +9035,7 @@
         <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="47"/>
+      <c r="F294" s="53"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
@@ -8877,7 +9047,7 @@
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="47"/>
+      <c r="F295" s="53"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
@@ -8887,7 +9057,7 @@
         <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="47"/>
+      <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
@@ -8897,7 +9067,7 @@
         <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="47"/>
+      <c r="F297" s="53"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
@@ -8909,7 +9079,7 @@
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="47"/>
+      <c r="F298" s="53"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
@@ -8919,7 +9089,7 @@
         <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="47"/>
+      <c r="F299" s="53"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
@@ -8929,7 +9099,7 @@
         <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="47"/>
+      <c r="F300" s="53"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
@@ -8939,7 +9109,7 @@
         <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="47"/>
+      <c r="F301" s="53"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
@@ -8953,7 +9123,7 @@
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="47"/>
+      <c r="F302" s="53"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
@@ -8963,7 +9133,7 @@
         <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="47"/>
+      <c r="F303" s="53"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
@@ -8975,7 +9145,7 @@
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="47"/>
+      <c r="F304" s="53"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
@@ -8985,7 +9155,7 @@
         <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="47"/>
+      <c r="F305" s="53"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
@@ -8995,7 +9165,7 @@
         <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="47"/>
+      <c r="F306" s="53"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
@@ -9007,7 +9177,7 @@
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="47"/>
+      <c r="F307" s="53"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
@@ -9017,7 +9187,7 @@
         <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="47"/>
+      <c r="F308" s="53"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
@@ -9027,7 +9197,7 @@
         <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="47"/>
+      <c r="F309" s="53"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
@@ -9037,7 +9207,7 @@
         <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="47"/>
+      <c r="F310" s="53"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
@@ -9051,7 +9221,7 @@
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="47"/>
+      <c r="F311" s="53"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
@@ -9061,7 +9231,7 @@
         <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="47"/>
+      <c r="F312" s="53"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
@@ -9073,7 +9243,7 @@
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="47"/>
+      <c r="F313" s="53"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
@@ -9083,7 +9253,7 @@
         <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="47"/>
+      <c r="F314" s="53"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
@@ -9093,7 +9263,7 @@
         <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="47"/>
+      <c r="F315" s="53"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
@@ -9105,7 +9275,7 @@
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="47"/>
+      <c r="F316" s="53"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
@@ -9115,7 +9285,7 @@
         <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="47"/>
+      <c r="F317" s="53"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
@@ -9125,7 +9295,7 @@
         <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="47"/>
+      <c r="F318" s="53"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
@@ -9135,7 +9305,7 @@
         <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="47"/>
+      <c r="F319" s="53"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
@@ -9149,7 +9319,7 @@
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="47"/>
+      <c r="F320" s="53"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
@@ -9159,7 +9329,7 @@
         <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="47"/>
+      <c r="F321" s="53"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
@@ -9171,7 +9341,7 @@
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="47"/>
+      <c r="F322" s="53"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
@@ -9181,7 +9351,7 @@
         <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="47"/>
+      <c r="F323" s="53"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
@@ -9191,7 +9361,7 @@
         <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="47"/>
+      <c r="F324" s="53"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
@@ -9203,7 +9373,7 @@
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="47"/>
+      <c r="F325" s="53"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
@@ -9213,7 +9383,7 @@
         <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="47"/>
+      <c r="F326" s="53"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
@@ -9223,7 +9393,7 @@
         <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="47"/>
+      <c r="F327" s="53"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
@@ -9237,7 +9407,7 @@
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="47"/>
+      <c r="F328" s="53"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
@@ -9247,7 +9417,7 @@
         <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="47"/>
+      <c r="F329" s="53"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
@@ -9257,7 +9427,7 @@
         <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="47"/>
+      <c r="F330" s="53"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
@@ -9271,7 +9441,7 @@
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="47"/>
+      <c r="F331" s="53"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
@@ -9281,7 +9451,7 @@
         <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="47"/>
+      <c r="F332" s="53"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
@@ -9293,7 +9463,7 @@
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="47"/>
+      <c r="F333" s="53"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
@@ -9303,7 +9473,7 @@
         <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="47"/>
+      <c r="F334" s="53"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
@@ -9315,7 +9485,7 @@
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="47"/>
+      <c r="F335" s="53"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
@@ -9325,7 +9495,7 @@
         <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="47"/>
+      <c r="F336" s="53"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
@@ -9337,7 +9507,7 @@
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="47"/>
+      <c r="F337" s="53"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
@@ -9347,7 +9517,7 @@
         <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="48"/>
+      <c r="F338" s="54"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
@@ -9374,7 +9544,7 @@
         <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="46" t="s">
+      <c r="D344" s="52" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9386,7 +9556,7 @@
         <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="47"/>
+      <c r="D345" s="53"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
@@ -9396,7 +9566,7 @@
         <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="47"/>
+      <c r="D346" s="53"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
@@ -9406,7 +9576,7 @@
         <v>340</v>
       </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="48"/>
+      <c r="D347" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -9459,4 +9629,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="43"/>
+    </row>
+    <row r="3" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="38">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="38">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="38">
+        <v>3</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="38">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="38">
+        <v>5</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="38">
+        <v>6</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3 B6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="462">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2591,6 +2591,193 @@
 Stndardが「ETRTO(Standard)」or「ETRTO(Special)」の場合
 ＜MAX LOAD＞
 Typeが「ETRTO(Standard)」or「ETRTO(Special)」の場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列　Template機能</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部の画面にあるSize項目の「Speed」は速度カテゴリーが「ZR」となるときに「Z」を入力するっという認識でよろしいでしょうか？</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Load index(S)」、「Load index(D)」、「PR」（プライレーティング）画面は1つの図面に付き何れかの1画面を使用するという認識でよろしいでしょうか。
+ロードインデックスとプライは表記方法が異なるが、示している内容は同じと認識しています。
+また、ロードインデックスのDは単輪と複輪があるときと認識しています。</t>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イズ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>タンワ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「PLY1」、「PLY2」（プライレーティング）画面は使用する場合は1図面につきどちらか一方という認識でよろしいでしょうか。</t>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録画面のサイズ項目の「Suffx」（接尾）と「Ply（プライ）」はそれぞれロードインデックスと速度記号を入力する認識でよろしいでしょうか。</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「LT」画面は使用しない場合があるという認識でよろしいでしょうか。
+小型トラック用のタイヤの場合に、納入国に沿って「LT」表記か「C」表記にするかを設定する画面と認識しています。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ノウニュウコク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ニンシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3038,15 +3225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3065,12 +3243,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3078,6 +3250,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4960,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5489,7 +5676,7 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23">
+      <c r="A21" s="19">
         <v>17</v>
       </c>
       <c r="B21" s="9">
@@ -5521,7 +5708,7 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="23">
+      <c r="A22" s="19">
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -5553,7 +5740,7 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23">
+      <c r="A23" s="19">
         <v>19</v>
       </c>
       <c r="B23" s="9"/>
@@ -5583,7 +5770,7 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="23">
+      <c r="A24" s="19">
         <v>20</v>
       </c>
       <c r="B24" s="9"/>
@@ -5613,7 +5800,7 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23">
+      <c r="A25" s="19">
         <v>21</v>
       </c>
       <c r="B25" s="9"/>
@@ -5642,14 +5829,20 @@
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23">
         <v>22</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -5658,14 +5851,20 @@
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23">
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>458</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -5674,14 +5873,20 @@
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="23">
         <v>24</v>
       </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -5690,14 +5895,20 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23">
         <v>25</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -5706,14 +5917,22 @@
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
+    <row r="30" spans="1:12" s="20" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23">
         <v>26</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="9">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -5952,7 +6171,7 @@
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:H30 C31 E31:H31 C25:E25">
+  <conditionalFormatting sqref="C31 E31:H31 C25:E25 C26:H30">
     <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -6284,7 +6503,7 @@
         <v>407</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -6303,7 +6522,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="53"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="27" t="s">
         <v>376</v>
       </c>
@@ -6320,7 +6539,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="54"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
@@ -6333,7 +6552,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="52" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6346,7 +6565,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
@@ -6357,7 +6576,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="57"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -6396,7 +6615,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="49" t="s">
         <v>401</v>
       </c>
       <c r="F16" t="s">
@@ -6412,7 +6631,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="53"/>
+      <c r="E17" s="50"/>
       <c r="F17" t="s">
         <v>387</v>
       </c>
@@ -6426,7 +6645,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="53"/>
+      <c r="E18" s="50"/>
       <c r="F18" t="s">
         <v>388</v>
       </c>
@@ -6440,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="53"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="59"/>
@@ -6451,7 +6670,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="53"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="59"/>
@@ -6462,7 +6681,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="59"/>
@@ -6473,7 +6692,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="59"/>
@@ -6484,10 +6703,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="50"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="26" t="s">
         <v>72</v>
       </c>
@@ -6495,7 +6714,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="53"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="58" t="s">
@@ -6508,7 +6727,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="53"/>
+      <c r="E25" s="50"/>
       <c r="F25" t="s">
         <v>390</v>
       </c>
@@ -6522,7 +6741,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="53"/>
+      <c r="E26" s="50"/>
       <c r="F26" t="s">
         <v>389</v>
       </c>
@@ -6536,7 +6755,7 @@
         <v>86</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="53"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="59"/>
@@ -6547,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="53"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="59"/>
@@ -6558,7 +6777,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="53"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="59"/>
@@ -6569,7 +6788,7 @@
         <v>78</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="59"/>
@@ -6580,7 +6799,7 @@
         <v>87</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="53"/>
+      <c r="E31" s="50"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="59"/>
@@ -6591,10 +6810,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="50"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="26" t="s">
         <v>72</v>
       </c>
@@ -6602,7 +6821,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="54"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -6630,7 +6849,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="61" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -6640,12 +6859,12 @@
         <v>92</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="52" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="49"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
@@ -6653,10 +6872,10 @@
         <v>93</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="49"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
@@ -6664,10 +6883,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="53"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="49"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
@@ -6675,10 +6894,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="56"/>
+      <c r="E41" s="53"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="49"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
@@ -6686,10 +6905,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="56"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="49"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="26" t="s">
         <v>70</v>
       </c>
@@ -6697,10 +6916,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="56"/>
+      <c r="E43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="49"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="26" t="s">
         <v>71</v>
       </c>
@@ -6708,10 +6927,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="56"/>
+      <c r="E44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="49"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="26" t="s">
         <v>72</v>
       </c>
@@ -6719,10 +6938,10 @@
         <v>100</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="56"/>
+      <c r="E45" s="53"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="49"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="26" t="s">
         <v>101</v>
       </c>
@@ -6730,10 +6949,10 @@
         <v>99</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="57"/>
+      <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -6746,7 +6965,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="49"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="26" t="s">
         <v>65</v>
       </c>
@@ -6757,7 +6976,7 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="49"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="26" t="s">
         <v>66</v>
       </c>
@@ -6768,7 +6987,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="49"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="26" t="s">
         <v>67</v>
       </c>
@@ -6779,7 +6998,7 @@
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="49"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
@@ -6790,7 +7009,7 @@
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="49"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="26" t="s">
         <v>69</v>
       </c>
@@ -6801,7 +7020,7 @@
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="49"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="26" t="s">
         <v>70</v>
       </c>
@@ -6812,7 +7031,7 @@
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="49"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="26" t="s">
         <v>71</v>
       </c>
@@ -6823,7 +7042,7 @@
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="49"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
@@ -6879,14 +7098,14 @@
         <v>402</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="52" t="s">
         <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
-      <c r="H63" s="55" t="s">
+      <c r="H63" s="52" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6899,12 +7118,12 @@
         <v>138</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="53"/>
       <c r="F64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G64" s="29"/>
-      <c r="H64" s="56"/>
+      <c r="H64" s="53"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
@@ -6915,12 +7134,12 @@
         <v>139</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="56"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="29"/>
-      <c r="H65" s="56"/>
+      <c r="H65" s="53"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="26" t="s">
@@ -6931,12 +7150,12 @@
         <v>140</v>
       </c>
       <c r="D66" s="33"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="26" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="56"/>
+      <c r="H66" s="53"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="26" t="s">
@@ -6947,12 +7166,12 @@
         <v>141</v>
       </c>
       <c r="D67" s="33"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="56"/>
+      <c r="H67" s="53"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="26" t="s">
@@ -6963,12 +7182,12 @@
         <v>142</v>
       </c>
       <c r="D68" s="33"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="53"/>
       <c r="F68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G68" s="29"/>
-      <c r="H68" s="56"/>
+      <c r="H68" s="53"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="26" t="s">
@@ -6981,12 +7200,12 @@
         <v>143</v>
       </c>
       <c r="D69" s="33"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="56"/>
+      <c r="H69" s="53"/>
       <c r="I69" s="27" t="s">
         <v>380</v>
       </c>
@@ -7000,12 +7219,12 @@
         <v>144</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="56"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="56"/>
+      <c r="H70" s="53"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="26" t="s">
@@ -7016,12 +7235,12 @@
         <v>145</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="56"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="56"/>
+      <c r="H71" s="53"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="26" t="s">
@@ -7032,12 +7251,12 @@
         <v>146</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" s="56"/>
+      <c r="E72" s="53"/>
       <c r="F72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="56"/>
+      <c r="H72" s="53"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="26" t="s">
@@ -7048,12 +7267,12 @@
         <v>147</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="56"/>
+      <c r="H73" s="53"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="26" t="s">
@@ -7064,12 +7283,12 @@
         <v>148</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="56"/>
+      <c r="E74" s="53"/>
       <c r="F74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G74" s="29"/>
-      <c r="H74" s="56"/>
+      <c r="H74" s="53"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="26" t="s">
@@ -7080,12 +7299,12 @@
         <v>149</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="53"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="26" t="s">
@@ -7096,12 +7315,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="53"/>
       <c r="F76" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="56"/>
+      <c r="H76" s="53"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="26" t="s">
@@ -7112,12 +7331,12 @@
         <v>151</v>
       </c>
       <c r="D77" s="33"/>
-      <c r="E77" s="56"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="56"/>
+      <c r="H77" s="53"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="26" t="s">
@@ -7128,12 +7347,12 @@
         <v>152</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="56"/>
+      <c r="E78" s="53"/>
       <c r="F78" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="56"/>
+      <c r="H78" s="53"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="26" t="s">
@@ -7144,12 +7363,12 @@
         <v>153</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="56"/>
+      <c r="E79" s="53"/>
       <c r="F79" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="56"/>
+      <c r="H79" s="53"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="26" t="s">
@@ -7160,12 +7379,12 @@
         <v>154</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="53"/>
       <c r="F80" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="56"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="26" t="s">
@@ -7176,12 +7395,12 @@
         <v>155</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="56"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="56"/>
+      <c r="H81" s="53"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
@@ -7192,12 +7411,12 @@
         <v>156</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="56"/>
+      <c r="E82" s="53"/>
       <c r="F82" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="56"/>
+      <c r="H82" s="53"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="26" t="s">
@@ -7208,12 +7427,12 @@
         <v>157</v>
       </c>
       <c r="D83" s="33"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="53"/>
       <c r="F83" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="56"/>
+      <c r="H83" s="53"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="26" t="s">
@@ -7224,12 +7443,12 @@
         <v>158</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="53"/>
       <c r="F84" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="56"/>
+      <c r="H84" s="53"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="26" t="s">
@@ -7240,12 +7459,12 @@
         <v>159</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" s="56"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="56"/>
+      <c r="H85" s="53"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="26" t="s">
@@ -7256,12 +7475,12 @@
         <v>160</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="56"/>
+      <c r="E86" s="53"/>
       <c r="F86" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="56"/>
+      <c r="H86" s="53"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
@@ -7272,12 +7491,12 @@
         <v>161</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="56"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="29"/>
-      <c r="H87" s="56"/>
+      <c r="H87" s="53"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
@@ -7288,12 +7507,12 @@
         <v>162</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="56"/>
+      <c r="E88" s="53"/>
       <c r="F88" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="56"/>
+      <c r="H88" s="53"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
@@ -7304,12 +7523,12 @@
         <v>163</v>
       </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="56"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G89" s="29"/>
-      <c r="H89" s="56"/>
+      <c r="H89" s="53"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
@@ -7320,12 +7539,12 @@
         <v>164</v>
       </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="56"/>
+      <c r="E90" s="53"/>
       <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="H90" s="56"/>
+      <c r="H90" s="53"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
@@ -7336,12 +7555,12 @@
         <v>165</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="56"/>
+      <c r="E91" s="53"/>
       <c r="F91" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="56"/>
+      <c r="H91" s="53"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
@@ -7352,12 +7571,12 @@
         <v>166</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="56"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G92" s="29"/>
-      <c r="H92" s="56"/>
+      <c r="H92" s="53"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
@@ -7368,12 +7587,12 @@
         <v>167</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" s="56"/>
+      <c r="E93" s="53"/>
       <c r="F93" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="56"/>
+      <c r="H93" s="53"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="26" t="s">
@@ -7384,12 +7603,12 @@
         <v>168</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" s="56"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="56"/>
+      <c r="H94" s="53"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="26" t="s">
@@ -7400,12 +7619,12 @@
         <v>169</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" s="56"/>
+      <c r="E95" s="53"/>
       <c r="F95" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="56"/>
+      <c r="H95" s="53"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
@@ -7416,12 +7635,12 @@
         <v>170</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="56"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G96" s="29"/>
-      <c r="H96" s="56"/>
+      <c r="H96" s="53"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="26" t="s">
@@ -7432,12 +7651,12 @@
         <v>171</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="57"/>
+      <c r="E97" s="54"/>
       <c r="F97" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="57"/>
+      <c r="H97" s="54"/>
     </row>
     <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
@@ -7464,7 +7683,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="60" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="35" t="s">
@@ -7474,7 +7693,7 @@
         <v>392</v>
       </c>
       <c r="D103" s="37"/>
-      <c r="E103" s="60" t="s">
+      <c r="E103" s="55" t="s">
         <v>427</v>
       </c>
       <c r="F103" t="s">
@@ -7482,7 +7701,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="49"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="26" t="s">
         <v>180</v>
       </c>
@@ -7490,10 +7709,10 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="61"/>
+      <c r="E104" s="56"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="49"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="26" t="s">
         <v>181</v>
       </c>
@@ -7501,13 +7720,13 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="61"/>
+      <c r="E105" s="56"/>
       <c r="F105" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="49"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="26" t="s">
         <v>182</v>
       </c>
@@ -7515,13 +7734,13 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="61"/>
+      <c r="E106" s="56"/>
       <c r="F106" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="49"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="26" t="s">
         <v>183</v>
       </c>
@@ -7529,13 +7748,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="61"/>
+      <c r="E107" s="56"/>
       <c r="F107" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="49"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -7543,13 +7762,13 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="61"/>
+      <c r="E108" s="56"/>
       <c r="F108" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="49"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -7557,10 +7776,10 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="61"/>
+      <c r="E109" s="56"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="49"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
@@ -7568,10 +7787,10 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="61"/>
+      <c r="E110" s="56"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="49"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="26" t="s">
         <v>185</v>
       </c>
@@ -7579,10 +7798,10 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="61"/>
+      <c r="E111" s="56"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="49"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="26" t="s">
         <v>190</v>
       </c>
@@ -7590,10 +7809,10 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="61"/>
+      <c r="E112" s="56"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="49"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="26" t="s">
         <v>191</v>
       </c>
@@ -7601,10 +7820,10 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="61"/>
+      <c r="E113" s="56"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="49"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="26" t="s">
         <v>188</v>
       </c>
@@ -7612,10 +7831,10 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="61"/>
+      <c r="E114" s="56"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="49"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="26" t="s">
         <v>189</v>
       </c>
@@ -7623,10 +7842,10 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="61"/>
+      <c r="E115" s="56"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="49"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="26" t="s">
         <v>192</v>
       </c>
@@ -7634,10 +7853,10 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="61"/>
+      <c r="E116" s="56"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="49"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
@@ -7645,10 +7864,10 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="61"/>
+      <c r="E117" s="56"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="49"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="26" t="s">
         <v>194</v>
       </c>
@@ -7656,10 +7875,10 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="61"/>
+      <c r="E118" s="56"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="49"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="26" t="s">
         <v>195</v>
       </c>
@@ -7667,10 +7886,10 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="61"/>
+      <c r="E119" s="56"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="49"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="26" t="s">
         <v>196</v>
       </c>
@@ -7678,7 +7897,7 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="62"/>
+      <c r="E120" s="57"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
@@ -7915,10 +8134,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A185" s="49" t="s">
+      <c r="A185" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="49" t="s">
+      <c r="B185" s="61" t="s">
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
@@ -7936,8 +8155,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A186" s="49"/>
-      <c r="B186" s="49"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="61"/>
       <c r="C186" s="26" t="s">
         <v>381</v>
       </c>
@@ -7948,8 +8167,8 @@
       <c r="F186" s="59"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A187" s="49"/>
-      <c r="B187" s="49" t="s">
+      <c r="A187" s="61"/>
+      <c r="B187" s="61" t="s">
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
@@ -7962,8 +8181,8 @@
       <c r="F187" s="59"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A188" s="49"/>
-      <c r="B188" s="49"/>
+      <c r="A188" s="61"/>
+      <c r="B188" s="61"/>
       <c r="C188" s="26" t="s">
         <v>381</v>
       </c>
@@ -7974,8 +8193,8 @@
       <c r="F188" s="59"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A189" s="49"/>
-      <c r="B189" s="49"/>
+      <c r="A189" s="61"/>
+      <c r="B189" s="61"/>
       <c r="C189" s="26" t="s">
         <v>381</v>
       </c>
@@ -7986,8 +8205,8 @@
       <c r="F189" s="59"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A190" s="49"/>
-      <c r="B190" s="49"/>
+      <c r="A190" s="61"/>
+      <c r="B190" s="61"/>
       <c r="C190" s="26" t="s">
         <v>381</v>
       </c>
@@ -7995,7 +8214,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="50"/>
+      <c r="F190" s="60"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
@@ -8023,10 +8242,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A195" s="49" t="s">
+      <c r="A195" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="51" t="s">
+      <c r="B195" s="62" t="s">
         <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
@@ -8034,7 +8253,7 @@
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="52" t="s">
+      <c r="F195" s="49" t="s">
         <v>431</v>
       </c>
       <c r="G195" t="s">
@@ -8042,38 +8261,38 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A196" s="49"/>
-      <c r="B196" s="51"/>
+      <c r="A196" s="61"/>
+      <c r="B196" s="62"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
         <v>347</v>
       </c>
       <c r="E196" s="39"/>
-      <c r="F196" s="53"/>
+      <c r="F196" s="50"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A197" s="49"/>
-      <c r="B197" s="51"/>
+      <c r="A197" s="61"/>
+      <c r="B197" s="62"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>348</v>
       </c>
       <c r="E197" s="39"/>
-      <c r="F197" s="53"/>
+      <c r="F197" s="50"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A198" s="49"/>
-      <c r="B198" s="51"/>
+      <c r="A198" s="61"/>
+      <c r="B198" s="62"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
         <v>349</v>
       </c>
       <c r="E198" s="39"/>
-      <c r="F198" s="53"/>
+      <c r="F198" s="50"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A199" s="49"/>
-      <c r="B199" s="49" t="s">
+      <c r="A199" s="61"/>
+      <c r="B199" s="61" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
@@ -8081,41 +8300,41 @@
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="53"/>
+      <c r="F199" s="50"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A200" s="49"/>
-      <c r="B200" s="49"/>
+      <c r="A200" s="61"/>
+      <c r="B200" s="61"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="53"/>
+      <c r="F200" s="50"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="49"/>
-      <c r="B201" s="49"/>
+      <c r="A201" s="61"/>
+      <c r="B201" s="61"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="53"/>
+      <c r="F201" s="50"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A202" s="49"/>
-      <c r="B202" s="49"/>
+      <c r="A202" s="61"/>
+      <c r="B202" s="61"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="53"/>
+      <c r="F202" s="50"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A203" s="49"/>
-      <c r="B203" s="49" t="s">
+      <c r="A203" s="61"/>
+      <c r="B203" s="61" t="s">
         <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
@@ -8123,41 +8342,41 @@
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="53"/>
+      <c r="F203" s="50"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A204" s="49"/>
-      <c r="B204" s="49"/>
+      <c r="A204" s="61"/>
+      <c r="B204" s="61"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="53"/>
+      <c r="F204" s="50"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A205" s="49"/>
-      <c r="B205" s="49"/>
+      <c r="A205" s="61"/>
+      <c r="B205" s="61"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="53"/>
+      <c r="F205" s="50"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A206" s="49"/>
-      <c r="B206" s="49"/>
+      <c r="A206" s="61"/>
+      <c r="B206" s="61"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="53"/>
+      <c r="F206" s="50"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A207" s="49"/>
-      <c r="B207" s="49" t="s">
+      <c r="A207" s="61"/>
+      <c r="B207" s="61" t="s">
         <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
@@ -8165,41 +8384,41 @@
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="53"/>
+      <c r="F207" s="50"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A208" s="49"/>
-      <c r="B208" s="49"/>
+      <c r="A208" s="61"/>
+      <c r="B208" s="61"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="53"/>
+      <c r="F208" s="50"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" s="49"/>
-      <c r="B209" s="49"/>
+      <c r="A209" s="61"/>
+      <c r="B209" s="61"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="53"/>
+      <c r="F209" s="50"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" s="49"/>
-      <c r="B210" s="49"/>
+      <c r="A210" s="61"/>
+      <c r="B210" s="61"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="53"/>
+      <c r="F210" s="50"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" s="49"/>
-      <c r="B211" s="49" t="s">
+      <c r="A211" s="61"/>
+      <c r="B211" s="61" t="s">
         <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -8207,31 +8426,31 @@
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="53"/>
+      <c r="F211" s="50"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" s="49"/>
-      <c r="B212" s="49"/>
+      <c r="A212" s="61"/>
+      <c r="B212" s="61"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="53"/>
+      <c r="F212" s="50"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" s="49"/>
-      <c r="B213" s="49"/>
+      <c r="A213" s="61"/>
+      <c r="B213" s="61"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="53"/>
+      <c r="F213" s="50"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" s="49"/>
-      <c r="B214" s="49" t="s">
+      <c r="A214" s="61"/>
+      <c r="B214" s="61" t="s">
         <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
@@ -8239,21 +8458,21 @@
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="53"/>
+      <c r="F214" s="50"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="49"/>
-      <c r="B215" s="49"/>
+      <c r="A215" s="61"/>
+      <c r="B215" s="61"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="53"/>
+      <c r="F215" s="50"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="49"/>
-      <c r="B216" s="49" t="s">
+      <c r="A216" s="61"/>
+      <c r="B216" s="61" t="s">
         <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
@@ -8261,41 +8480,41 @@
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="53"/>
+      <c r="F216" s="50"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="49"/>
-      <c r="B217" s="49"/>
+      <c r="A217" s="61"/>
+      <c r="B217" s="61"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="53"/>
+      <c r="F217" s="50"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" s="49"/>
-      <c r="B218" s="49"/>
+      <c r="A218" s="61"/>
+      <c r="B218" s="61"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="53"/>
+      <c r="F218" s="50"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" s="49"/>
-      <c r="B219" s="49"/>
+      <c r="A219" s="61"/>
+      <c r="B219" s="61"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="53"/>
+      <c r="F219" s="50"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" s="49"/>
-      <c r="B220" s="49" t="s">
+      <c r="A220" s="61"/>
+      <c r="B220" s="61" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
@@ -8303,41 +8522,41 @@
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="53"/>
+      <c r="F220" s="50"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" s="49"/>
-      <c r="B221" s="49"/>
+      <c r="A221" s="61"/>
+      <c r="B221" s="61"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="53"/>
+      <c r="F221" s="50"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" s="49"/>
-      <c r="B222" s="49"/>
+      <c r="A222" s="61"/>
+      <c r="B222" s="61"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="53"/>
+      <c r="F222" s="50"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="49"/>
-      <c r="B223" s="49"/>
+      <c r="A223" s="61"/>
+      <c r="B223" s="61"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="53"/>
+      <c r="F223" s="50"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" s="49"/>
-      <c r="B224" s="49" t="s">
+      <c r="A224" s="61"/>
+      <c r="B224" s="61" t="s">
         <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
@@ -8345,41 +8564,41 @@
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="53"/>
+      <c r="F224" s="50"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A225" s="49"/>
-      <c r="B225" s="49"/>
+      <c r="A225" s="61"/>
+      <c r="B225" s="61"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="53"/>
+      <c r="F225" s="50"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A226" s="49"/>
-      <c r="B226" s="49"/>
+      <c r="A226" s="61"/>
+      <c r="B226" s="61"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="53"/>
+      <c r="F226" s="50"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A227" s="49"/>
-      <c r="B227" s="49"/>
+      <c r="A227" s="61"/>
+      <c r="B227" s="61"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="53"/>
+      <c r="F227" s="50"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A228" s="49"/>
-      <c r="B228" s="49" t="s">
+      <c r="A228" s="61"/>
+      <c r="B228" s="61" t="s">
         <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
@@ -8387,41 +8606,41 @@
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="53"/>
+      <c r="F228" s="50"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A229" s="49"/>
-      <c r="B229" s="49"/>
+      <c r="A229" s="61"/>
+      <c r="B229" s="61"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="53"/>
+      <c r="F229" s="50"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A230" s="49"/>
-      <c r="B230" s="49"/>
+      <c r="A230" s="61"/>
+      <c r="B230" s="61"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="53"/>
+      <c r="F230" s="50"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A231" s="49"/>
-      <c r="B231" s="49"/>
+      <c r="A231" s="61"/>
+      <c r="B231" s="61"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="53"/>
+      <c r="F231" s="50"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A232" s="49"/>
-      <c r="B232" s="49" t="s">
+      <c r="A232" s="61"/>
+      <c r="B232" s="61" t="s">
         <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
@@ -8429,31 +8648,31 @@
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="53"/>
+      <c r="F232" s="50"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A233" s="49"/>
-      <c r="B233" s="49"/>
+      <c r="A233" s="61"/>
+      <c r="B233" s="61"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="53"/>
+      <c r="F233" s="50"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A234" s="49"/>
-      <c r="B234" s="49"/>
+      <c r="A234" s="61"/>
+      <c r="B234" s="61"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="53"/>
+      <c r="F234" s="50"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A235" s="49"/>
-      <c r="B235" s="49" t="s">
+      <c r="A235" s="61"/>
+      <c r="B235" s="61" t="s">
         <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
@@ -8461,17 +8680,17 @@
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="53"/>
+      <c r="F235" s="50"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A236" s="49"/>
-      <c r="B236" s="49"/>
+      <c r="A236" s="61"/>
+      <c r="B236" s="61"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="54"/>
+      <c r="F236" s="51"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
@@ -8508,7 +8727,7 @@
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="52" t="s">
+      <c r="F242" s="49" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8520,7 +8739,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="53"/>
+      <c r="F243" s="50"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
@@ -8530,7 +8749,7 @@
         <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="53"/>
+      <c r="F244" s="50"/>
       <c r="G244" t="s">
         <v>383</v>
       </c>
@@ -8543,7 +8762,7 @@
         <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="53"/>
+      <c r="F245" s="50"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
@@ -8555,7 +8774,7 @@
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="53"/>
+      <c r="F246" s="50"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
@@ -8565,7 +8784,7 @@
         <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="53"/>
+      <c r="F247" s="50"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
@@ -8575,7 +8794,7 @@
         <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="53"/>
+      <c r="F248" s="50"/>
       <c r="G248" t="s">
         <v>383</v>
       </c>
@@ -8588,7 +8807,7 @@
         <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="53"/>
+      <c r="F249" s="50"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
@@ -8600,7 +8819,7 @@
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="53"/>
+      <c r="F250" s="50"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
@@ -8610,7 +8829,7 @@
         <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="53"/>
+      <c r="F251" s="50"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
@@ -8620,7 +8839,7 @@
         <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="53"/>
+      <c r="F252" s="50"/>
       <c r="G252" t="s">
         <v>383</v>
       </c>
@@ -8633,7 +8852,7 @@
         <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="53"/>
+      <c r="F253" s="50"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
@@ -8645,7 +8864,7 @@
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="53"/>
+      <c r="F254" s="50"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
@@ -8655,7 +8874,7 @@
         <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="53"/>
+      <c r="F255" s="50"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
@@ -8665,7 +8884,7 @@
         <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="53"/>
+      <c r="F256" s="50"/>
       <c r="G256" t="s">
         <v>383</v>
       </c>
@@ -8678,7 +8897,7 @@
         <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="54"/>
+      <c r="F257" s="51"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
@@ -8704,10 +8923,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A262" s="49" t="s">
+      <c r="A262" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B262" s="49" t="s">
+      <c r="B262" s="61" t="s">
         <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -8715,43 +8934,43 @@
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="52" t="s">
+      <c r="F262" s="49" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A263" s="49"/>
-      <c r="B263" s="49"/>
+      <c r="A263" s="61"/>
+      <c r="B263" s="61"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
         <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="53"/>
+      <c r="F263" s="50"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A264" s="49"/>
-      <c r="B264" s="49"/>
+      <c r="A264" s="61"/>
+      <c r="B264" s="61"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="53"/>
+      <c r="F264" s="50"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A265" s="49"/>
-      <c r="B265" s="49"/>
+      <c r="A265" s="61"/>
+      <c r="B265" s="61"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
         <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="53"/>
+      <c r="F265" s="50"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A266" s="49"/>
-      <c r="B266" s="49" t="s">
+      <c r="A266" s="61"/>
+      <c r="B266" s="61" t="s">
         <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
@@ -8759,41 +8978,41 @@
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="53"/>
+      <c r="F266" s="50"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A267" s="49"/>
-      <c r="B267" s="49"/>
+      <c r="A267" s="61"/>
+      <c r="B267" s="61"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="53"/>
+      <c r="F267" s="50"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A268" s="49"/>
-      <c r="B268" s="49"/>
+      <c r="A268" s="61"/>
+      <c r="B268" s="61"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
         <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="53"/>
+      <c r="F268" s="50"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A269" s="49"/>
-      <c r="B269" s="49"/>
+      <c r="A269" s="61"/>
+      <c r="B269" s="61"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
         <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="53"/>
+      <c r="F269" s="50"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A270" s="49"/>
-      <c r="B270" s="49" t="s">
+      <c r="A270" s="61"/>
+      <c r="B270" s="61" t="s">
         <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
@@ -8801,41 +9020,41 @@
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="53"/>
+      <c r="F270" s="50"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A271" s="49"/>
-      <c r="B271" s="49"/>
+      <c r="A271" s="61"/>
+      <c r="B271" s="61"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="53"/>
+      <c r="F271" s="50"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A272" s="49"/>
-      <c r="B272" s="49"/>
+      <c r="A272" s="61"/>
+      <c r="B272" s="61"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
         <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="53"/>
+      <c r="F272" s="50"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="49"/>
-      <c r="B273" s="49"/>
+      <c r="A273" s="61"/>
+      <c r="B273" s="61"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="53"/>
+      <c r="F273" s="50"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="49"/>
-      <c r="B274" s="49" t="s">
+      <c r="A274" s="61"/>
+      <c r="B274" s="61" t="s">
         <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
@@ -8843,41 +9062,41 @@
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="53"/>
+      <c r="F274" s="50"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="49"/>
-      <c r="B275" s="49"/>
+      <c r="A275" s="61"/>
+      <c r="B275" s="61"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="53"/>
+      <c r="F275" s="50"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="49"/>
-      <c r="B276" s="49"/>
+      <c r="A276" s="61"/>
+      <c r="B276" s="61"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
         <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="53"/>
+      <c r="F276" s="50"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="49"/>
-      <c r="B277" s="49"/>
+      <c r="A277" s="61"/>
+      <c r="B277" s="61"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="53"/>
+      <c r="F277" s="50"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="49"/>
-      <c r="B278" s="49" t="s">
+      <c r="A278" s="61"/>
+      <c r="B278" s="61" t="s">
         <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
@@ -8885,21 +9104,21 @@
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="53"/>
+      <c r="F278" s="50"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="49"/>
-      <c r="B279" s="49"/>
+      <c r="A279" s="61"/>
+      <c r="B279" s="61"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="53"/>
+      <c r="F279" s="50"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="49"/>
-      <c r="B280" s="49" t="s">
+      <c r="A280" s="61"/>
+      <c r="B280" s="61" t="s">
         <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
@@ -8907,21 +9126,21 @@
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="53"/>
+      <c r="F280" s="50"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="49"/>
-      <c r="B281" s="49"/>
+      <c r="A281" s="61"/>
+      <c r="B281" s="61"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
         <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="53"/>
+      <c r="F281" s="50"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="49"/>
-      <c r="B282" s="49" t="s">
+      <c r="A282" s="61"/>
+      <c r="B282" s="61" t="s">
         <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
@@ -8929,21 +9148,21 @@
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="53"/>
+      <c r="F282" s="50"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="49"/>
-      <c r="B283" s="49"/>
+      <c r="A283" s="61"/>
+      <c r="B283" s="61"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="53"/>
+      <c r="F283" s="50"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="49"/>
-      <c r="B284" s="49" t="s">
+      <c r="A284" s="61"/>
+      <c r="B284" s="61" t="s">
         <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
@@ -8951,21 +9170,21 @@
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="53"/>
+      <c r="F284" s="50"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="49"/>
-      <c r="B285" s="49"/>
+      <c r="A285" s="61"/>
+      <c r="B285" s="61"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
         <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="53"/>
+      <c r="F285" s="50"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="49"/>
-      <c r="B286" s="49" t="s">
+      <c r="A286" s="61"/>
+      <c r="B286" s="61" t="s">
         <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
@@ -8973,17 +9192,17 @@
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="53"/>
+      <c r="F286" s="50"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="49"/>
-      <c r="B287" s="49"/>
+      <c r="A287" s="61"/>
+      <c r="B287" s="61"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
         <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="54"/>
+      <c r="F287" s="51"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
@@ -9020,7 +9239,7 @@
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="52" t="s">
+      <c r="F293" s="49" t="s">
         <v>434</v>
       </c>
       <c r="G293" t="s">
@@ -9035,7 +9254,7 @@
         <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="53"/>
+      <c r="F294" s="50"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
@@ -9047,7 +9266,7 @@
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="53"/>
+      <c r="F295" s="50"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
@@ -9057,7 +9276,7 @@
         <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="53"/>
+      <c r="F296" s="50"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
@@ -9067,7 +9286,7 @@
         <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="53"/>
+      <c r="F297" s="50"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
@@ -9079,7 +9298,7 @@
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="53"/>
+      <c r="F298" s="50"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
@@ -9089,7 +9308,7 @@
         <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="53"/>
+      <c r="F299" s="50"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
@@ -9099,7 +9318,7 @@
         <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="53"/>
+      <c r="F300" s="50"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
@@ -9109,7 +9328,7 @@
         <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="53"/>
+      <c r="F301" s="50"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
@@ -9123,7 +9342,7 @@
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="53"/>
+      <c r="F302" s="50"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
@@ -9133,7 +9352,7 @@
         <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="53"/>
+      <c r="F303" s="50"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
@@ -9145,7 +9364,7 @@
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="53"/>
+      <c r="F304" s="50"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
@@ -9155,7 +9374,7 @@
         <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="53"/>
+      <c r="F305" s="50"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
@@ -9165,7 +9384,7 @@
         <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="53"/>
+      <c r="F306" s="50"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
@@ -9177,7 +9396,7 @@
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="53"/>
+      <c r="F307" s="50"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
@@ -9187,7 +9406,7 @@
         <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="53"/>
+      <c r="F308" s="50"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
@@ -9197,7 +9416,7 @@
         <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="53"/>
+      <c r="F309" s="50"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
@@ -9207,7 +9426,7 @@
         <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="53"/>
+      <c r="F310" s="50"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
@@ -9221,7 +9440,7 @@
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="53"/>
+      <c r="F311" s="50"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
@@ -9231,7 +9450,7 @@
         <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="53"/>
+      <c r="F312" s="50"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
@@ -9243,7 +9462,7 @@
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="53"/>
+      <c r="F313" s="50"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
@@ -9253,7 +9472,7 @@
         <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="53"/>
+      <c r="F314" s="50"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
@@ -9263,7 +9482,7 @@
         <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="53"/>
+      <c r="F315" s="50"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
@@ -9275,7 +9494,7 @@
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="53"/>
+      <c r="F316" s="50"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
@@ -9285,7 +9504,7 @@
         <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="53"/>
+      <c r="F317" s="50"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
@@ -9295,7 +9514,7 @@
         <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="53"/>
+      <c r="F318" s="50"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
@@ -9305,7 +9524,7 @@
         <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="53"/>
+      <c r="F319" s="50"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
@@ -9319,7 +9538,7 @@
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="53"/>
+      <c r="F320" s="50"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
@@ -9329,7 +9548,7 @@
         <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="53"/>
+      <c r="F321" s="50"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
@@ -9341,7 +9560,7 @@
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="53"/>
+      <c r="F322" s="50"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
@@ -9351,7 +9570,7 @@
         <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="53"/>
+      <c r="F323" s="50"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
@@ -9361,7 +9580,7 @@
         <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="53"/>
+      <c r="F324" s="50"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
@@ -9373,7 +9592,7 @@
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="53"/>
+      <c r="F325" s="50"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
@@ -9383,7 +9602,7 @@
         <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="53"/>
+      <c r="F326" s="50"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
@@ -9393,7 +9612,7 @@
         <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="53"/>
+      <c r="F327" s="50"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
@@ -9407,7 +9626,7 @@
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="53"/>
+      <c r="F328" s="50"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
@@ -9417,7 +9636,7 @@
         <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="53"/>
+      <c r="F329" s="50"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
@@ -9427,7 +9646,7 @@
         <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="53"/>
+      <c r="F330" s="50"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
@@ -9441,7 +9660,7 @@
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="53"/>
+      <c r="F331" s="50"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
@@ -9451,7 +9670,7 @@
         <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="53"/>
+      <c r="F332" s="50"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
@@ -9463,7 +9682,7 @@
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="53"/>
+      <c r="F333" s="50"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
@@ -9473,7 +9692,7 @@
         <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="53"/>
+      <c r="F334" s="50"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
@@ -9485,7 +9704,7 @@
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="53"/>
+      <c r="F335" s="50"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
@@ -9495,7 +9714,7 @@
         <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="53"/>
+      <c r="F336" s="50"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
@@ -9507,7 +9726,7 @@
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="53"/>
+      <c r="F337" s="50"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
@@ -9517,7 +9736,7 @@
         <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="54"/>
+      <c r="F338" s="51"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
@@ -9544,7 +9763,7 @@
         <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="52" t="s">
+      <c r="D344" s="49" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9556,7 +9775,7 @@
         <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="53"/>
+      <c r="D345" s="50"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
@@ -9566,7 +9785,7 @@
         <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="53"/>
+      <c r="D346" s="50"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
@@ -9576,38 +9795,10 @@
         <v>340</v>
       </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="54"/>
+      <c r="D347" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F262:F287"/>
-    <mergeCell ref="F293:F338"/>
-    <mergeCell ref="D344:D347"/>
-    <mergeCell ref="H63:H97"/>
-    <mergeCell ref="E103:E120"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="F195:F236"/>
-    <mergeCell ref="F242:F257"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E63:E97"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="E16:E33"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="A103:A120"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A236"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B185:B186"/>
     <mergeCell ref="B286:B287"/>
     <mergeCell ref="B284:B285"/>
     <mergeCell ref="B280:B281"/>
@@ -9624,6 +9815,34 @@
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A103:A120"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A236"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E63:E97"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="E16:E33"/>
+    <mergeCell ref="F262:F287"/>
+    <mergeCell ref="F293:F338"/>
+    <mergeCell ref="D344:D347"/>
+    <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="F195:F236"/>
+    <mergeCell ref="F242:F257"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9635,7 +9854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
     <sheet name="「SafetyWarning」のダイアログ" sheetId="25" r:id="rId2"/>
     <sheet name="テンプレート機能に必要なデータ" sheetId="26" r:id="rId3"/>
     <sheet name="No.40 Template機能で使用しているDB" sheetId="27" r:id="rId4"/>
+    <sheet name="FrameDataコマンド入力値一覧" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="612">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2687,28 +2688,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「PLY1」、「PLY2」（プライレーティング）画面は使用する場合は1図面につきどちらか一方という認識でよろしいでしょうか。</t>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>イッポウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AT-B図面登録画面のサイズ項目の「Suffx」（接尾）と「Ply（プライ）」はそれぞれロードインデックスと速度記号を入力する認識でよろしいでしょうか。</t>
     <rPh sb="4" eb="6">
       <t>ズメン</t>
@@ -2777,6 +2756,1052 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成、円弧配列</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「PLY1」、「PLY2」（プライ）画面は使用する場合は1図面につきどちらか一方という認識でよろしいでしょうか。</t>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列、C表作成</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列とC表作成の自動化の際の図面登録の扱いについてですが、下記(A)～（C)のどの認識でしょうか。
+（A)自動化内で図面登録を行う。
+（B)作図までを自動化にし、図面登録は使用者が完成図面確認後に別途コマンド実行。
+(C)自動化内で図面登録は行わないが、一時ファイルとして図面をローカルフォルダに保存する。</t>
+    <rPh sb="0" eb="4">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>ジドウカナイ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="84" eb="88">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="95" eb="100">
+      <t>ズメンカクニンゴ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="119" eb="123">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detail（ラベリング手動認識）機能は自動化には含まないという認識でよろしいでしょうか。</t>
+    <rPh sb="12" eb="16">
+      <t>シュドウニンシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C表作成のFrameDataコマンド（図枠作成機能）の入力項目の中で、AT-B図面作成機能で入力を行っている項目がございましたらご教授ください。
+C表作成の改良要望①のFrameDataの自動入力の対象となる項目の精査を行っているためご確認させてください。
+「」シートにSCで確認した内容を含む入力項目一覧がありますので、そちらにご記入いただきたいです。</t>
+    <rPh sb="19" eb="25">
+      <t>ズワクサクセイキノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キョウジュ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="149" eb="155">
+      <t>ニュウリョクコウモクイチラン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改良要望③「“Labeling Detail”の操作時、ラベリングの転記先の表へ不要な形状発生を無くす」について。
+SafetyWarning画面で入力した番号の1～4が図面上の出力ではそれぞれL、T、M、Bとなっているようです。
+5以降の番号はそのまま出力されています。
+そこで確認ですが、「表へ不要な形状発生を無くす」とありますが、本件で問題となっているのは英字が出力されることで、1～8の番号自体は出力されても問題ないという認識で良いでしょうか。</t>
+    <rPh sb="0" eb="4">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ズメンジョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ホンケン</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="198" eb="202">
+      <t>バンゴウジタイ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力例</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録時の入力</t>
+    <rPh sb="4" eb="9">
+      <t>ズメントウロクジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録以外で入力</t>
+    <rPh sb="4" eb="10">
+      <t>ズメントウロクイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Modlename]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-TMP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle001]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>publication post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行部署</t>
+    <rPh sb="0" eb="4">
+      <t>ハッコウブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[YYYY]/[MM]/[DD]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/02/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>production standard No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-P/C番号（生産用C表番号）</t>
+    <rPh sb="8" eb="11">
+      <t>セイサンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-P/C-23131</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>labeling Draw No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面番号</t>
+    <rPh sb="4" eb="8">
+      <t>ズメンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B-17185-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「4 Figure number」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【C表作成】AT-B図面呼び出し時</t>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ズメンヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mold Draw No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM図面番号</t>
+    <rPh sb="2" eb="4">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM-18518-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「7 Mold No.」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle007]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TWI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【C表作成】TWIコマンド使用時</t>
+    <rPh sb="13" eb="16">
+      <t>シヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle009]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carcass+Breaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造の状態
+（プライ数＋ベルト数＋キャップ数）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2P+2B+2C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Creator]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面制作者名</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>セイサクシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WADA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「101 Creator」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[examination1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面チェック担当者名</t>
+    <rPh sb="10" eb="14">
+      <t>タントウシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAKAMOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「102 examination1」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Approval]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面承認者名</t>
+    <rPh sb="6" eb="9">
+      <t>ショウニンシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KAWAKAMI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル 「105 Approval」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>safe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全コード</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面「Structure」</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tire Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面「Tire Type」</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Modelmaintitle]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル（＝パターン？）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSCV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「201 Model maint title」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途1</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use2</t>
+  </si>
+  <si>
+    <t>用途2</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use3</t>
+  </si>
+  <si>
+    <t>用途3</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ区分
+「チューブタイプタイヤ」or「チューブレスタイヤ（TL)」</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>side division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイド区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「6 Side Category」？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faiber division</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繊維区分</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤのサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT245/70R17 119S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルタイトル「1 Size」（「Tire Type」の記入が図面あり）、
+登録画面「Tire Type」＋「Size」</t>
+    <rPh sb="31" eb="33">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【円弧配列】Template2「Size」コマンド</t>
+    <rPh sb="0" eb="6">
+      <t>｢エンコハイレツ｣</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bead structure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビード構造</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carcass ply number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーカスプライ枚数</t>
+    <rPh sb="7" eb="9">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carcass material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーカス素材</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt number1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト枚数1</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt material1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト材質1</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt number2</t>
+  </si>
+  <si>
+    <t>ベルト枚数2</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt material2</t>
+  </si>
+  <si>
+    <t>ベルト材質2</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt number3</t>
+  </si>
+  <si>
+    <t>ベルト枚数3</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>belt material3</t>
+  </si>
+  <si>
+    <t>ベルト材質3</t>
+    <rPh sb="3" eb="5">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle001]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル1の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle002]</t>
+  </si>
+  <si>
+    <t>ページタイトル2の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle003]</t>
+  </si>
+  <si>
+    <t>ページタイトル3の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle004]</t>
+  </si>
+  <si>
+    <t>ページタイトル4の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle005]</t>
+  </si>
+  <si>
+    <t>ページタイトル5の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle006]</t>
+  </si>
+  <si>
+    <t>ページタイトル6の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle007]</t>
+  </si>
+  <si>
+    <t>ページタイトル7の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle008]</t>
+  </si>
+  <si>
+    <t>ページタイトル8の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle009]</t>
+  </si>
+  <si>
+    <t>ページタイトル9の内容</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle010]</t>
+  </si>
+  <si>
+    <t>ページタイトル10の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle011]</t>
+  </si>
+  <si>
+    <t>ページタイトル11の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle012]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル12の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Pagetitlle019]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページタイトル19の内容</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3077,7 +4102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3219,11 +4244,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3243,6 +4283,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3252,19 +4298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3638,16 +4672,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="1"/>
@@ -3659,6 +4683,16 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5147,8 +6181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5168,11 +6202,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -5862,7 +6896,7 @@
       <c r="D27" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="23" t="s">
         <v>458</v>
       </c>
       <c r="F27" s="5"/>
@@ -5885,7 +6919,7 @@
         <v>456</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="9"/>
@@ -5907,7 +6941,7 @@
         <v>456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="9"/>
@@ -5931,7 +6965,7 @@
         <v>455</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="9"/>
@@ -5941,14 +6975,18 @@
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="19">
+    <row r="31" spans="1:12" s="20" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="23">
         <v>27</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -5957,14 +6995,18 @@
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="23">
         <v>28</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -5973,14 +7015,18 @@
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
+    <row r="33" spans="1:12" s="20" customFormat="1" ht="114" x14ac:dyDescent="0.4">
+      <c r="A33" s="23">
         <v>29</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -5989,14 +7035,18 @@
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
+    <row r="34" spans="1:12" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="23">
         <v>30</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -6069,7 +7119,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -6085,7 +7135,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -6107,79 +7157,79 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576 C18:C24">
-    <cfRule type="containsText" dxfId="71" priority="613" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="71" priority="615" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21">
-    <cfRule type="expression" dxfId="70" priority="611">
+    <cfRule type="expression" dxfId="70" priority="613">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="612">
+    <cfRule type="expression" dxfId="69" priority="614">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="68" priority="126" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="68" priority="128" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I26:I38">
-    <cfRule type="expression" dxfId="67" priority="124">
+    <cfRule type="expression" dxfId="67" priority="126">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="125">
+    <cfRule type="expression" dxfId="66" priority="127">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="65" priority="122">
+    <cfRule type="expression" dxfId="65" priority="124">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="123">
+    <cfRule type="expression" dxfId="64" priority="125">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="59" priority="59">
+  <conditionalFormatting sqref="B26:B31 B32:D32 H32 B38:E38 J38 J26:J35 A36:A40 A39:L40 A33:H35">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31:H31 C25:E25 C26:H30">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="F32:G32">
     <cfRule type="expression" dxfId="54" priority="54">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -6187,7 +7237,7 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="52" priority="52">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -6195,100 +7245,100 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="43" priority="43">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="42" priority="44">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="41" priority="41">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="40" priority="42">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="27" priority="27">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -6296,15 +7346,15 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I7="確認中"</formula>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$I7="済み"</formula>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="F9:H9">
     <cfRule type="expression" dxfId="23" priority="21">
       <formula>$I9="確認中"</formula>
     </cfRule>
@@ -6312,15 +7362,15 @@
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:H9">
+  <conditionalFormatting sqref="I10">
     <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$I9="確認中"</formula>
+      <formula>$I10="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I9="済み"</formula>
+      <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="F10:H10">
     <cfRule type="expression" dxfId="19" priority="17">
       <formula>$I10="確認中"</formula>
     </cfRule>
@@ -6328,15 +7378,15 @@
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:H10">
+  <conditionalFormatting sqref="F18:H20">
     <cfRule type="expression" dxfId="17" priority="15">
-      <formula>$I10="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I10="済み"</formula>
+      <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:H20">
+  <conditionalFormatting sqref="I18:I20">
     <cfRule type="expression" dxfId="15" priority="13">
       <formula>$I18="確認中"</formula>
     </cfRule>
@@ -6344,15 +7394,15 @@
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
+  <conditionalFormatting sqref="G21:H21">
     <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$I18="確認中"</formula>
+      <formula>$I21="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I18="済み"</formula>
+      <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
+  <conditionalFormatting sqref="I21">
     <cfRule type="expression" dxfId="11" priority="9">
       <formula>$I21="確認中"</formula>
     </cfRule>
@@ -6360,15 +7410,15 @@
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="F22:F25">
     <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$I21="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$I21="済み"</formula>
+      <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F25">
+  <conditionalFormatting sqref="G22:H25">
     <cfRule type="expression" dxfId="7" priority="5">
       <formula>$I22="確認中"</formula>
     </cfRule>
@@ -6376,7 +7426,7 @@
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H25">
+  <conditionalFormatting sqref="I22:I25">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>$I22="確認中"</formula>
     </cfRule>
@@ -6384,15 +7434,15 @@
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I25">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I22="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$I22="済み"</formula>
+      <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C40">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
@@ -6503,7 +7553,7 @@
         <v>407</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="54" t="s">
         <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -6522,7 +7572,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="27" t="s">
         <v>376</v>
       </c>
@@ -6539,7 +7589,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
@@ -6552,7 +7602,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="57" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6565,7 +7615,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
@@ -6576,7 +7626,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="54"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -6605,7 +7655,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="60" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -6615,7 +7665,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="54" t="s">
         <v>401</v>
       </c>
       <c r="F16" t="s">
@@ -6623,7 +7673,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="26" t="s">
         <v>65</v>
       </c>
@@ -6631,13 +7681,13 @@
         <v>74</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="50"/>
+      <c r="E17" s="55"/>
       <c r="F17" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
@@ -6645,13 +7695,13 @@
         <v>75</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="50"/>
+      <c r="E18" s="55"/>
       <c r="F18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="59"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="26" t="s">
         <v>67</v>
       </c>
@@ -6659,10 +7709,10 @@
         <v>76</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="50"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="59"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="26" t="s">
         <v>68</v>
       </c>
@@ -6670,10 +7720,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="50"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="59"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="26" t="s">
         <v>69</v>
       </c>
@@ -6681,10 +7731,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="50"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="26" t="s">
         <v>70</v>
       </c>
@@ -6692,10 +7742,10 @@
         <v>81</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="50"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="59"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
@@ -6703,10 +7753,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="50"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="60"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="26" t="s">
         <v>72</v>
       </c>
@@ -6714,10 +7764,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="50"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="60" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -6727,13 +7777,13 @@
         <v>84</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="50"/>
+      <c r="E25" s="55"/>
       <c r="F25" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="59"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -6741,13 +7791,13 @@
         <v>85</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="50"/>
+      <c r="E26" s="55"/>
       <c r="F26" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="59"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
@@ -6755,10 +7805,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="50"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="59"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
@@ -6766,10 +7816,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="50"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="59"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
@@ -6777,10 +7827,10 @@
         <v>90</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="50"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="59"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
@@ -6788,10 +7838,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="50"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="59"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
@@ -6799,10 +7849,10 @@
         <v>87</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="50"/>
+      <c r="E31" s="55"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
@@ -6810,10 +7860,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="50"/>
+      <c r="E32" s="55"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="60"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="26" t="s">
         <v>72</v>
       </c>
@@ -6821,7 +7871,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="51"/>
+      <c r="E33" s="56"/>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -6849,7 +7899,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -6859,12 +7909,12 @@
         <v>92</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="57" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="61"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
@@ -6872,10 +7922,10 @@
         <v>93</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="53"/>
+      <c r="E39" s="58"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="61"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
@@ -6883,10 +7933,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="53"/>
+      <c r="E40" s="58"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="61"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
@@ -6894,10 +7944,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="53"/>
+      <c r="E41" s="58"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
@@ -6905,10 +7955,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="53"/>
+      <c r="E42" s="58"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="61"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="26" t="s">
         <v>70</v>
       </c>
@@ -6916,10 +7966,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="53"/>
+      <c r="E43" s="58"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="61"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="26" t="s">
         <v>71</v>
       </c>
@@ -6927,10 +7977,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="53"/>
+      <c r="E44" s="58"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="61"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="26" t="s">
         <v>72</v>
       </c>
@@ -6938,10 +7988,10 @@
         <v>100</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="53"/>
+      <c r="E45" s="58"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="61"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="26" t="s">
         <v>101</v>
       </c>
@@ -6949,10 +7999,10 @@
         <v>99</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="54"/>
+      <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -6965,7 +8015,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="61"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="26" t="s">
         <v>65</v>
       </c>
@@ -6976,7 +8026,7 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="61"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="26" t="s">
         <v>66</v>
       </c>
@@ -6987,7 +8037,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="61"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="26" t="s">
         <v>67</v>
       </c>
@@ -6998,7 +8048,7 @@
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="61"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
@@ -7009,7 +8059,7 @@
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="61"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="26" t="s">
         <v>69</v>
       </c>
@@ -7020,7 +8070,7 @@
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="61"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="26" t="s">
         <v>70</v>
       </c>
@@ -7031,7 +8081,7 @@
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="61"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="26" t="s">
         <v>71</v>
       </c>
@@ -7042,7 +8092,7 @@
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="61"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
@@ -7098,14 +8148,14 @@
         <v>402</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="57" t="s">
         <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
-      <c r="H63" s="52" t="s">
+      <c r="H63" s="57" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7118,12 +8168,12 @@
         <v>138</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="53"/>
+      <c r="E64" s="58"/>
       <c r="F64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G64" s="29"/>
-      <c r="H64" s="53"/>
+      <c r="H64" s="58"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
@@ -7134,12 +8184,12 @@
         <v>139</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="53"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="29"/>
-      <c r="H65" s="53"/>
+      <c r="H65" s="58"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="26" t="s">
@@ -7150,12 +8200,12 @@
         <v>140</v>
       </c>
       <c r="D66" s="33"/>
-      <c r="E66" s="53"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="26" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="53"/>
+      <c r="H66" s="58"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="26" t="s">
@@ -7166,12 +8216,12 @@
         <v>141</v>
       </c>
       <c r="D67" s="33"/>
-      <c r="E67" s="53"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="53"/>
+      <c r="H67" s="58"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="26" t="s">
@@ -7182,12 +8232,12 @@
         <v>142</v>
       </c>
       <c r="D68" s="33"/>
-      <c r="E68" s="53"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G68" s="29"/>
-      <c r="H68" s="53"/>
+      <c r="H68" s="58"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="26" t="s">
@@ -7200,12 +8250,12 @@
         <v>143</v>
       </c>
       <c r="D69" s="33"/>
-      <c r="E69" s="53"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="53"/>
+      <c r="H69" s="58"/>
       <c r="I69" s="27" t="s">
         <v>380</v>
       </c>
@@ -7219,12 +8269,12 @@
         <v>144</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="53"/>
+      <c r="E70" s="58"/>
       <c r="F70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="53"/>
+      <c r="H70" s="58"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="26" t="s">
@@ -7235,12 +8285,12 @@
         <v>145</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="53"/>
+      <c r="E71" s="58"/>
       <c r="F71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="53"/>
+      <c r="H71" s="58"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="26" t="s">
@@ -7251,12 +8301,12 @@
         <v>146</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" s="53"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="53"/>
+      <c r="H72" s="58"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="26" t="s">
@@ -7267,12 +8317,12 @@
         <v>147</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="53"/>
+      <c r="E73" s="58"/>
       <c r="F73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="53"/>
+      <c r="H73" s="58"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="26" t="s">
@@ -7283,12 +8333,12 @@
         <v>148</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="53"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G74" s="29"/>
-      <c r="H74" s="53"/>
+      <c r="H74" s="58"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="26" t="s">
@@ -7299,12 +8349,12 @@
         <v>149</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="53"/>
+      <c r="E75" s="58"/>
       <c r="F75" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="53"/>
+      <c r="H75" s="58"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="26" t="s">
@@ -7315,12 +8365,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="53"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="53"/>
+      <c r="H76" s="58"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="26" t="s">
@@ -7331,12 +8381,12 @@
         <v>151</v>
       </c>
       <c r="D77" s="33"/>
-      <c r="E77" s="53"/>
+      <c r="E77" s="58"/>
       <c r="F77" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="53"/>
+      <c r="H77" s="58"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="26" t="s">
@@ -7347,12 +8397,12 @@
         <v>152</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="53"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="53"/>
+      <c r="H78" s="58"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="26" t="s">
@@ -7363,12 +8413,12 @@
         <v>153</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="53"/>
+      <c r="E79" s="58"/>
       <c r="F79" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="53"/>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="26" t="s">
@@ -7379,12 +8429,12 @@
         <v>154</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="53"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="53"/>
+      <c r="H80" s="58"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="26" t="s">
@@ -7395,12 +8445,12 @@
         <v>155</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="53"/>
+      <c r="E81" s="58"/>
       <c r="F81" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="53"/>
+      <c r="H81" s="58"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
@@ -7411,12 +8461,12 @@
         <v>156</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="53"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="53"/>
+      <c r="H82" s="58"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="26" t="s">
@@ -7427,12 +8477,12 @@
         <v>157</v>
       </c>
       <c r="D83" s="33"/>
-      <c r="E83" s="53"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="53"/>
+      <c r="H83" s="58"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="26" t="s">
@@ -7443,12 +8493,12 @@
         <v>158</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" s="53"/>
+      <c r="E84" s="58"/>
       <c r="F84" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="53"/>
+      <c r="H84" s="58"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="26" t="s">
@@ -7459,12 +8509,12 @@
         <v>159</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" s="53"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="53"/>
+      <c r="H85" s="58"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="26" t="s">
@@ -7475,12 +8525,12 @@
         <v>160</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="53"/>
+      <c r="E86" s="58"/>
       <c r="F86" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="53"/>
+      <c r="H86" s="58"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
@@ -7491,12 +8541,12 @@
         <v>161</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="53"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="29"/>
-      <c r="H87" s="53"/>
+      <c r="H87" s="58"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
@@ -7507,12 +8557,12 @@
         <v>162</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="53"/>
+      <c r="E88" s="58"/>
       <c r="F88" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="53"/>
+      <c r="H88" s="58"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
@@ -7523,12 +8573,12 @@
         <v>163</v>
       </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="53"/>
+      <c r="E89" s="58"/>
       <c r="F89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G89" s="29"/>
-      <c r="H89" s="53"/>
+      <c r="H89" s="58"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
@@ -7539,12 +8589,12 @@
         <v>164</v>
       </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="53"/>
+      <c r="E90" s="58"/>
       <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="H90" s="53"/>
+      <c r="H90" s="58"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
@@ -7555,12 +8605,12 @@
         <v>165</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="53"/>
+      <c r="E91" s="58"/>
       <c r="F91" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="53"/>
+      <c r="H91" s="58"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
@@ -7571,12 +8621,12 @@
         <v>166</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="53"/>
+      <c r="E92" s="58"/>
       <c r="F92" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G92" s="29"/>
-      <c r="H92" s="53"/>
+      <c r="H92" s="58"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
@@ -7587,12 +8637,12 @@
         <v>167</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" s="53"/>
+      <c r="E93" s="58"/>
       <c r="F93" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="53"/>
+      <c r="H93" s="58"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="26" t="s">
@@ -7603,12 +8653,12 @@
         <v>168</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" s="53"/>
+      <c r="E94" s="58"/>
       <c r="F94" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="53"/>
+      <c r="H94" s="58"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="26" t="s">
@@ -7619,12 +8669,12 @@
         <v>169</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" s="53"/>
+      <c r="E95" s="58"/>
       <c r="F95" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="53"/>
+      <c r="H95" s="58"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
@@ -7635,12 +8685,12 @@
         <v>170</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="53"/>
+      <c r="E96" s="58"/>
       <c r="F96" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G96" s="29"/>
-      <c r="H96" s="53"/>
+      <c r="H96" s="58"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="26" t="s">
@@ -7651,12 +8701,12 @@
         <v>171</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="54"/>
+      <c r="E97" s="59"/>
       <c r="F97" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="54"/>
+      <c r="H97" s="59"/>
     </row>
     <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
@@ -7683,7 +8733,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="60" t="s">
+      <c r="A103" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="35" t="s">
@@ -7693,7 +8743,7 @@
         <v>392</v>
       </c>
       <c r="D103" s="37"/>
-      <c r="E103" s="55" t="s">
+      <c r="E103" s="62" t="s">
         <v>427</v>
       </c>
       <c r="F103" t="s">
@@ -7701,7 +8751,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="61"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="26" t="s">
         <v>180</v>
       </c>
@@ -7709,10 +8759,10 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="56"/>
+      <c r="E104" s="63"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="61"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="26" t="s">
         <v>181</v>
       </c>
@@ -7720,13 +8770,13 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="56"/>
+      <c r="E105" s="63"/>
       <c r="F105" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="61"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="26" t="s">
         <v>182</v>
       </c>
@@ -7734,13 +8784,13 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="56"/>
+      <c r="E106" s="63"/>
       <c r="F106" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="61"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="26" t="s">
         <v>183</v>
       </c>
@@ -7748,13 +8798,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="56"/>
+      <c r="E107" s="63"/>
       <c r="F107" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="61"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -7762,13 +8812,13 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="56"/>
+      <c r="E108" s="63"/>
       <c r="F108" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="61"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -7776,10 +8826,10 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="56"/>
+      <c r="E109" s="63"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="61"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
@@ -7787,10 +8837,10 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="56"/>
+      <c r="E110" s="63"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="61"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="26" t="s">
         <v>185</v>
       </c>
@@ -7798,10 +8848,10 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="56"/>
+      <c r="E111" s="63"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="61"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="26" t="s">
         <v>190</v>
       </c>
@@ -7809,10 +8859,10 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="56"/>
+      <c r="E112" s="63"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="61"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="26" t="s">
         <v>191</v>
       </c>
@@ -7820,10 +8870,10 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="56"/>
+      <c r="E113" s="63"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="61"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="26" t="s">
         <v>188</v>
       </c>
@@ -7831,10 +8881,10 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="56"/>
+      <c r="E114" s="63"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="61"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="26" t="s">
         <v>189</v>
       </c>
@@ -7842,10 +8892,10 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="56"/>
+      <c r="E115" s="63"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="61"/>
+      <c r="A116" s="51"/>
       <c r="B116" s="26" t="s">
         <v>192</v>
       </c>
@@ -7853,10 +8903,10 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="56"/>
+      <c r="E116" s="63"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="61"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
@@ -7864,10 +8914,10 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="56"/>
+      <c r="E117" s="63"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="61"/>
+      <c r="A118" s="51"/>
       <c r="B118" s="26" t="s">
         <v>194</v>
       </c>
@@ -7875,10 +8925,10 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="56"/>
+      <c r="E118" s="63"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="61"/>
+      <c r="A119" s="51"/>
       <c r="B119" s="26" t="s">
         <v>195</v>
       </c>
@@ -7886,10 +8936,10 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="56"/>
+      <c r="E119" s="63"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="61"/>
+      <c r="A120" s="51"/>
       <c r="B120" s="26" t="s">
         <v>196</v>
       </c>
@@ -7897,7 +8947,7 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="57"/>
+      <c r="E120" s="64"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
@@ -8134,10 +9184,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A185" s="61" t="s">
+      <c r="A185" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="61" t="s">
+      <c r="B185" s="51" t="s">
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
@@ -8147,7 +9197,7 @@
         <v>381</v>
       </c>
       <c r="E185" s="33"/>
-      <c r="F185" s="58" t="s">
+      <c r="F185" s="60" t="s">
         <v>430</v>
       </c>
       <c r="G185" t="s">
@@ -8155,8 +9205,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A186" s="61"/>
-      <c r="B186" s="61"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="51"/>
       <c r="C186" s="26" t="s">
         <v>381</v>
       </c>
@@ -8164,11 +9214,11 @@
         <v>428</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="59"/>
+      <c r="F186" s="61"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A187" s="61"/>
-      <c r="B187" s="61" t="s">
+      <c r="A187" s="51"/>
+      <c r="B187" s="51" t="s">
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
@@ -8178,11 +9228,11 @@
         <v>381</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="59"/>
+      <c r="F187" s="61"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A188" s="61"/>
-      <c r="B188" s="61"/>
+      <c r="A188" s="51"/>
+      <c r="B188" s="51"/>
       <c r="C188" s="26" t="s">
         <v>381</v>
       </c>
@@ -8190,11 +9240,11 @@
         <v>353</v>
       </c>
       <c r="E188" s="33"/>
-      <c r="F188" s="59"/>
+      <c r="F188" s="61"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A189" s="61"/>
-      <c r="B189" s="61"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="51"/>
       <c r="C189" s="26" t="s">
         <v>381</v>
       </c>
@@ -8202,11 +9252,11 @@
         <v>354</v>
       </c>
       <c r="E189" s="33"/>
-      <c r="F189" s="59"/>
+      <c r="F189" s="61"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A190" s="61"/>
-      <c r="B190" s="61"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
       <c r="C190" s="26" t="s">
         <v>381</v>
       </c>
@@ -8214,7 +9264,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="60"/>
+      <c r="F190" s="52"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
@@ -8242,10 +9292,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A195" s="61" t="s">
+      <c r="A195" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="62" t="s">
+      <c r="B195" s="53" t="s">
         <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
@@ -8253,7 +9303,7 @@
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="49" t="s">
+      <c r="F195" s="54" t="s">
         <v>431</v>
       </c>
       <c r="G195" t="s">
@@ -8261,38 +9311,38 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A196" s="61"/>
-      <c r="B196" s="62"/>
+      <c r="A196" s="51"/>
+      <c r="B196" s="53"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
         <v>347</v>
       </c>
       <c r="E196" s="39"/>
-      <c r="F196" s="50"/>
+      <c r="F196" s="55"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A197" s="61"/>
-      <c r="B197" s="62"/>
+      <c r="A197" s="51"/>
+      <c r="B197" s="53"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>348</v>
       </c>
       <c r="E197" s="39"/>
-      <c r="F197" s="50"/>
+      <c r="F197" s="55"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A198" s="61"/>
-      <c r="B198" s="62"/>
+      <c r="A198" s="51"/>
+      <c r="B198" s="53"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
         <v>349</v>
       </c>
       <c r="E198" s="39"/>
-      <c r="F198" s="50"/>
+      <c r="F198" s="55"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A199" s="61"/>
-      <c r="B199" s="61" t="s">
+      <c r="A199" s="51"/>
+      <c r="B199" s="51" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
@@ -8300,41 +9350,41 @@
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="50"/>
+      <c r="F199" s="55"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A200" s="61"/>
-      <c r="B200" s="61"/>
+      <c r="A200" s="51"/>
+      <c r="B200" s="51"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="50"/>
+      <c r="F200" s="55"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="61"/>
-      <c r="B201" s="61"/>
+      <c r="A201" s="51"/>
+      <c r="B201" s="51"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="50"/>
+      <c r="F201" s="55"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A202" s="61"/>
-      <c r="B202" s="61"/>
+      <c r="A202" s="51"/>
+      <c r="B202" s="51"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="50"/>
+      <c r="F202" s="55"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A203" s="61"/>
-      <c r="B203" s="61" t="s">
+      <c r="A203" s="51"/>
+      <c r="B203" s="51" t="s">
         <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
@@ -8342,41 +9392,41 @@
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="50"/>
+      <c r="F203" s="55"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A204" s="61"/>
-      <c r="B204" s="61"/>
+      <c r="A204" s="51"/>
+      <c r="B204" s="51"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="50"/>
+      <c r="F204" s="55"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A205" s="61"/>
-      <c r="B205" s="61"/>
+      <c r="A205" s="51"/>
+      <c r="B205" s="51"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="50"/>
+      <c r="F205" s="55"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A206" s="61"/>
-      <c r="B206" s="61"/>
+      <c r="A206" s="51"/>
+      <c r="B206" s="51"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="50"/>
+      <c r="F206" s="55"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A207" s="61"/>
-      <c r="B207" s="61" t="s">
+      <c r="A207" s="51"/>
+      <c r="B207" s="51" t="s">
         <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
@@ -8384,41 +9434,41 @@
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="50"/>
+      <c r="F207" s="55"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A208" s="61"/>
-      <c r="B208" s="61"/>
+      <c r="A208" s="51"/>
+      <c r="B208" s="51"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="50"/>
+      <c r="F208" s="55"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" s="61"/>
-      <c r="B209" s="61"/>
+      <c r="A209" s="51"/>
+      <c r="B209" s="51"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="50"/>
+      <c r="F209" s="55"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" s="61"/>
-      <c r="B210" s="61"/>
+      <c r="A210" s="51"/>
+      <c r="B210" s="51"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="50"/>
+      <c r="F210" s="55"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" s="61"/>
-      <c r="B211" s="61" t="s">
+      <c r="A211" s="51"/>
+      <c r="B211" s="51" t="s">
         <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -8426,31 +9476,31 @@
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="50"/>
+      <c r="F211" s="55"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" s="61"/>
-      <c r="B212" s="61"/>
+      <c r="A212" s="51"/>
+      <c r="B212" s="51"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="50"/>
+      <c r="F212" s="55"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" s="61"/>
-      <c r="B213" s="61"/>
+      <c r="A213" s="51"/>
+      <c r="B213" s="51"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="50"/>
+      <c r="F213" s="55"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" s="61"/>
-      <c r="B214" s="61" t="s">
+      <c r="A214" s="51"/>
+      <c r="B214" s="51" t="s">
         <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
@@ -8458,21 +9508,21 @@
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="50"/>
+      <c r="F214" s="55"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="61"/>
-      <c r="B215" s="61"/>
+      <c r="A215" s="51"/>
+      <c r="B215" s="51"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="50"/>
+      <c r="F215" s="55"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="61"/>
-      <c r="B216" s="61" t="s">
+      <c r="A216" s="51"/>
+      <c r="B216" s="51" t="s">
         <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
@@ -8480,41 +9530,41 @@
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="50"/>
+      <c r="F216" s="55"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="61"/>
-      <c r="B217" s="61"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="51"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="50"/>
+      <c r="F217" s="55"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" s="61"/>
-      <c r="B218" s="61"/>
+      <c r="A218" s="51"/>
+      <c r="B218" s="51"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="50"/>
+      <c r="F218" s="55"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" s="61"/>
-      <c r="B219" s="61"/>
+      <c r="A219" s="51"/>
+      <c r="B219" s="51"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="50"/>
+      <c r="F219" s="55"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" s="61"/>
-      <c r="B220" s="61" t="s">
+      <c r="A220" s="51"/>
+      <c r="B220" s="51" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
@@ -8522,41 +9572,41 @@
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="50"/>
+      <c r="F220" s="55"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" s="61"/>
-      <c r="B221" s="61"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="51"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="50"/>
+      <c r="F221" s="55"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" s="61"/>
-      <c r="B222" s="61"/>
+      <c r="A222" s="51"/>
+      <c r="B222" s="51"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="50"/>
+      <c r="F222" s="55"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="61"/>
-      <c r="B223" s="61"/>
+      <c r="A223" s="51"/>
+      <c r="B223" s="51"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="50"/>
+      <c r="F223" s="55"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" s="61"/>
-      <c r="B224" s="61" t="s">
+      <c r="A224" s="51"/>
+      <c r="B224" s="51" t="s">
         <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
@@ -8564,41 +9614,41 @@
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="50"/>
+      <c r="F224" s="55"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A225" s="61"/>
-      <c r="B225" s="61"/>
+      <c r="A225" s="51"/>
+      <c r="B225" s="51"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="50"/>
+      <c r="F225" s="55"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A226" s="61"/>
-      <c r="B226" s="61"/>
+      <c r="A226" s="51"/>
+      <c r="B226" s="51"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="50"/>
+      <c r="F226" s="55"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A227" s="61"/>
-      <c r="B227" s="61"/>
+      <c r="A227" s="51"/>
+      <c r="B227" s="51"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="50"/>
+      <c r="F227" s="55"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A228" s="61"/>
-      <c r="B228" s="61" t="s">
+      <c r="A228" s="51"/>
+      <c r="B228" s="51" t="s">
         <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
@@ -8606,41 +9656,41 @@
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="50"/>
+      <c r="F228" s="55"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A229" s="61"/>
-      <c r="B229" s="61"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="51"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="50"/>
+      <c r="F229" s="55"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A230" s="61"/>
-      <c r="B230" s="61"/>
+      <c r="A230" s="51"/>
+      <c r="B230" s="51"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="50"/>
+      <c r="F230" s="55"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A231" s="61"/>
-      <c r="B231" s="61"/>
+      <c r="A231" s="51"/>
+      <c r="B231" s="51"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="50"/>
+      <c r="F231" s="55"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A232" s="61"/>
-      <c r="B232" s="61" t="s">
+      <c r="A232" s="51"/>
+      <c r="B232" s="51" t="s">
         <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
@@ -8648,31 +9698,31 @@
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="50"/>
+      <c r="F232" s="55"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A233" s="61"/>
-      <c r="B233" s="61"/>
+      <c r="A233" s="51"/>
+      <c r="B233" s="51"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="50"/>
+      <c r="F233" s="55"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A234" s="61"/>
-      <c r="B234" s="61"/>
+      <c r="A234" s="51"/>
+      <c r="B234" s="51"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="50"/>
+      <c r="F234" s="55"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A235" s="61"/>
-      <c r="B235" s="61" t="s">
+      <c r="A235" s="51"/>
+      <c r="B235" s="51" t="s">
         <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
@@ -8680,17 +9730,17 @@
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="50"/>
+      <c r="F235" s="55"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A236" s="61"/>
-      <c r="B236" s="61"/>
+      <c r="A236" s="51"/>
+      <c r="B236" s="51"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="51"/>
+      <c r="F236" s="56"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
@@ -8727,7 +9777,7 @@
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="49" t="s">
+      <c r="F242" s="54" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8739,7 +9789,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="50"/>
+      <c r="F243" s="55"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
@@ -8749,7 +9799,7 @@
         <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="50"/>
+      <c r="F244" s="55"/>
       <c r="G244" t="s">
         <v>383</v>
       </c>
@@ -8762,7 +9812,7 @@
         <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="50"/>
+      <c r="F245" s="55"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
@@ -8774,7 +9824,7 @@
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="50"/>
+      <c r="F246" s="55"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
@@ -8784,7 +9834,7 @@
         <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="50"/>
+      <c r="F247" s="55"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
@@ -8794,7 +9844,7 @@
         <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="50"/>
+      <c r="F248" s="55"/>
       <c r="G248" t="s">
         <v>383</v>
       </c>
@@ -8807,7 +9857,7 @@
         <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="50"/>
+      <c r="F249" s="55"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
@@ -8819,7 +9869,7 @@
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="50"/>
+      <c r="F250" s="55"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
@@ -8829,7 +9879,7 @@
         <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="50"/>
+      <c r="F251" s="55"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
@@ -8839,7 +9889,7 @@
         <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="50"/>
+      <c r="F252" s="55"/>
       <c r="G252" t="s">
         <v>383</v>
       </c>
@@ -8852,7 +9902,7 @@
         <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="50"/>
+      <c r="F253" s="55"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
@@ -8864,7 +9914,7 @@
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="50"/>
+      <c r="F254" s="55"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
@@ -8874,7 +9924,7 @@
         <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="50"/>
+      <c r="F255" s="55"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
@@ -8884,7 +9934,7 @@
         <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="50"/>
+      <c r="F256" s="55"/>
       <c r="G256" t="s">
         <v>383</v>
       </c>
@@ -8897,7 +9947,7 @@
         <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="51"/>
+      <c r="F257" s="56"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
@@ -8923,10 +9973,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A262" s="61" t="s">
+      <c r="A262" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B262" s="61" t="s">
+      <c r="B262" s="51" t="s">
         <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -8934,43 +9984,43 @@
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="49" t="s">
+      <c r="F262" s="54" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A263" s="61"/>
-      <c r="B263" s="61"/>
+      <c r="A263" s="51"/>
+      <c r="B263" s="51"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
         <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="50"/>
+      <c r="F263" s="55"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A264" s="61"/>
-      <c r="B264" s="61"/>
+      <c r="A264" s="51"/>
+      <c r="B264" s="51"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="50"/>
+      <c r="F264" s="55"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A265" s="61"/>
-      <c r="B265" s="61"/>
+      <c r="A265" s="51"/>
+      <c r="B265" s="51"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
         <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="50"/>
+      <c r="F265" s="55"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A266" s="61"/>
-      <c r="B266" s="61" t="s">
+      <c r="A266" s="51"/>
+      <c r="B266" s="51" t="s">
         <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
@@ -8978,41 +10028,41 @@
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="50"/>
+      <c r="F266" s="55"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A267" s="61"/>
-      <c r="B267" s="61"/>
+      <c r="A267" s="51"/>
+      <c r="B267" s="51"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="50"/>
+      <c r="F267" s="55"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A268" s="61"/>
-      <c r="B268" s="61"/>
+      <c r="A268" s="51"/>
+      <c r="B268" s="51"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
         <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="50"/>
+      <c r="F268" s="55"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A269" s="61"/>
-      <c r="B269" s="61"/>
+      <c r="A269" s="51"/>
+      <c r="B269" s="51"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
         <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="50"/>
+      <c r="F269" s="55"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A270" s="61"/>
-      <c r="B270" s="61" t="s">
+      <c r="A270" s="51"/>
+      <c r="B270" s="51" t="s">
         <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
@@ -9020,41 +10070,41 @@
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="50"/>
+      <c r="F270" s="55"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A271" s="61"/>
-      <c r="B271" s="61"/>
+      <c r="A271" s="51"/>
+      <c r="B271" s="51"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="50"/>
+      <c r="F271" s="55"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A272" s="61"/>
-      <c r="B272" s="61"/>
+      <c r="A272" s="51"/>
+      <c r="B272" s="51"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
         <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="50"/>
+      <c r="F272" s="55"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="61"/>
-      <c r="B273" s="61"/>
+      <c r="A273" s="51"/>
+      <c r="B273" s="51"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="50"/>
+      <c r="F273" s="55"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="61"/>
-      <c r="B274" s="61" t="s">
+      <c r="A274" s="51"/>
+      <c r="B274" s="51" t="s">
         <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
@@ -9062,41 +10112,41 @@
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="50"/>
+      <c r="F274" s="55"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="61"/>
-      <c r="B275" s="61"/>
+      <c r="A275" s="51"/>
+      <c r="B275" s="51"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="50"/>
+      <c r="F275" s="55"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="61"/>
-      <c r="B276" s="61"/>
+      <c r="A276" s="51"/>
+      <c r="B276" s="51"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
         <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="50"/>
+      <c r="F276" s="55"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="61"/>
-      <c r="B277" s="61"/>
+      <c r="A277" s="51"/>
+      <c r="B277" s="51"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="50"/>
+      <c r="F277" s="55"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="61"/>
-      <c r="B278" s="61" t="s">
+      <c r="A278" s="51"/>
+      <c r="B278" s="51" t="s">
         <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
@@ -9104,21 +10154,21 @@
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="50"/>
+      <c r="F278" s="55"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="61"/>
-      <c r="B279" s="61"/>
+      <c r="A279" s="51"/>
+      <c r="B279" s="51"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="50"/>
+      <c r="F279" s="55"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="61"/>
-      <c r="B280" s="61" t="s">
+      <c r="A280" s="51"/>
+      <c r="B280" s="51" t="s">
         <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
@@ -9126,21 +10176,21 @@
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="50"/>
+      <c r="F280" s="55"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="61"/>
-      <c r="B281" s="61"/>
+      <c r="A281" s="51"/>
+      <c r="B281" s="51"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
         <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="50"/>
+      <c r="F281" s="55"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="61"/>
-      <c r="B282" s="61" t="s">
+      <c r="A282" s="51"/>
+      <c r="B282" s="51" t="s">
         <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
@@ -9148,21 +10198,21 @@
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="50"/>
+      <c r="F282" s="55"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="61"/>
-      <c r="B283" s="61"/>
+      <c r="A283" s="51"/>
+      <c r="B283" s="51"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="50"/>
+      <c r="F283" s="55"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="61"/>
-      <c r="B284" s="61" t="s">
+      <c r="A284" s="51"/>
+      <c r="B284" s="51" t="s">
         <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
@@ -9170,21 +10220,21 @@
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="50"/>
+      <c r="F284" s="55"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="61"/>
-      <c r="B285" s="61"/>
+      <c r="A285" s="51"/>
+      <c r="B285" s="51"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
         <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="50"/>
+      <c r="F285" s="55"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="61"/>
-      <c r="B286" s="61" t="s">
+      <c r="A286" s="51"/>
+      <c r="B286" s="51" t="s">
         <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
@@ -9192,17 +10242,17 @@
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="50"/>
+      <c r="F286" s="55"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="61"/>
-      <c r="B287" s="61"/>
+      <c r="A287" s="51"/>
+      <c r="B287" s="51"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
         <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="51"/>
+      <c r="F287" s="56"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
@@ -9239,7 +10289,7 @@
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="49" t="s">
+      <c r="F293" s="54" t="s">
         <v>434</v>
       </c>
       <c r="G293" t="s">
@@ -9254,7 +10304,7 @@
         <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="50"/>
+      <c r="F294" s="55"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
@@ -9266,7 +10316,7 @@
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="50"/>
+      <c r="F295" s="55"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
@@ -9276,7 +10326,7 @@
         <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="50"/>
+      <c r="F296" s="55"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
@@ -9286,7 +10336,7 @@
         <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="50"/>
+      <c r="F297" s="55"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
@@ -9298,7 +10348,7 @@
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="50"/>
+      <c r="F298" s="55"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
@@ -9308,7 +10358,7 @@
         <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="50"/>
+      <c r="F299" s="55"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
@@ -9318,7 +10368,7 @@
         <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="50"/>
+      <c r="F300" s="55"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
@@ -9328,7 +10378,7 @@
         <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="50"/>
+      <c r="F301" s="55"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
@@ -9342,7 +10392,7 @@
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="50"/>
+      <c r="F302" s="55"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
@@ -9352,7 +10402,7 @@
         <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="50"/>
+      <c r="F303" s="55"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
@@ -9364,7 +10414,7 @@
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="50"/>
+      <c r="F304" s="55"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
@@ -9374,7 +10424,7 @@
         <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="50"/>
+      <c r="F305" s="55"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
@@ -9384,7 +10434,7 @@
         <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="50"/>
+      <c r="F306" s="55"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
@@ -9396,7 +10446,7 @@
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="50"/>
+      <c r="F307" s="55"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
@@ -9406,7 +10456,7 @@
         <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="50"/>
+      <c r="F308" s="55"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
@@ -9416,7 +10466,7 @@
         <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="50"/>
+      <c r="F309" s="55"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
@@ -9426,7 +10476,7 @@
         <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="50"/>
+      <c r="F310" s="55"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
@@ -9440,7 +10490,7 @@
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="50"/>
+      <c r="F311" s="55"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
@@ -9450,7 +10500,7 @@
         <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="50"/>
+      <c r="F312" s="55"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
@@ -9462,7 +10512,7 @@
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="50"/>
+      <c r="F313" s="55"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
@@ -9472,7 +10522,7 @@
         <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="50"/>
+      <c r="F314" s="55"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
@@ -9482,7 +10532,7 @@
         <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="50"/>
+      <c r="F315" s="55"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
@@ -9494,7 +10544,7 @@
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="50"/>
+      <c r="F316" s="55"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
@@ -9504,7 +10554,7 @@
         <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="50"/>
+      <c r="F317" s="55"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
@@ -9514,7 +10564,7 @@
         <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="50"/>
+      <c r="F318" s="55"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
@@ -9524,7 +10574,7 @@
         <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="50"/>
+      <c r="F319" s="55"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
@@ -9538,7 +10588,7 @@
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="50"/>
+      <c r="F320" s="55"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
@@ -9548,7 +10598,7 @@
         <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="50"/>
+      <c r="F321" s="55"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
@@ -9560,7 +10610,7 @@
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="50"/>
+      <c r="F322" s="55"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
@@ -9570,7 +10620,7 @@
         <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="50"/>
+      <c r="F323" s="55"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
@@ -9580,7 +10630,7 @@
         <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="50"/>
+      <c r="F324" s="55"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
@@ -9592,7 +10642,7 @@
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="50"/>
+      <c r="F325" s="55"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
@@ -9602,7 +10652,7 @@
         <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="50"/>
+      <c r="F326" s="55"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
@@ -9612,7 +10662,7 @@
         <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="50"/>
+      <c r="F327" s="55"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
@@ -9626,7 +10676,7 @@
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="50"/>
+      <c r="F328" s="55"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
@@ -9636,7 +10686,7 @@
         <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="50"/>
+      <c r="F329" s="55"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
@@ -9646,7 +10696,7 @@
         <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="50"/>
+      <c r="F330" s="55"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
@@ -9660,7 +10710,7 @@
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="50"/>
+      <c r="F331" s="55"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
@@ -9670,7 +10720,7 @@
         <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="50"/>
+      <c r="F332" s="55"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
@@ -9682,7 +10732,7 @@
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="50"/>
+      <c r="F333" s="55"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
@@ -9692,7 +10742,7 @@
         <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="50"/>
+      <c r="F334" s="55"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
@@ -9704,7 +10754,7 @@
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="50"/>
+      <c r="F335" s="55"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
@@ -9714,7 +10764,7 @@
         <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="50"/>
+      <c r="F336" s="55"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
@@ -9726,7 +10776,7 @@
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="50"/>
+      <c r="F337" s="55"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
@@ -9736,7 +10786,7 @@
         <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="51"/>
+      <c r="F338" s="56"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
@@ -9763,7 +10813,7 @@
         <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="49" t="s">
+      <c r="D344" s="54" t="s">
         <v>435</v>
       </c>
     </row>
@@ -9775,7 +10825,7 @@
         <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="50"/>
+      <c r="D345" s="55"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
@@ -9785,7 +10835,7 @@
         <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="50"/>
+      <c r="D346" s="55"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
@@ -9795,10 +10845,38 @@
         <v>340</v>
       </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="51"/>
+      <c r="D347" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F262:F287"/>
+    <mergeCell ref="F293:F338"/>
+    <mergeCell ref="D344:D347"/>
+    <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="F195:F236"/>
+    <mergeCell ref="F242:F257"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E63:E97"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="E16:E33"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A103:A120"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A236"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B185:B186"/>
     <mergeCell ref="B286:B287"/>
     <mergeCell ref="B284:B285"/>
     <mergeCell ref="B280:B281"/>
@@ -9815,34 +10893,6 @@
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="A103:A120"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A236"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E63:E97"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="E16:E33"/>
-    <mergeCell ref="F262:F287"/>
-    <mergeCell ref="F293:F338"/>
-    <mergeCell ref="D344:D347"/>
-    <mergeCell ref="H63:H97"/>
-    <mergeCell ref="E103:E120"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="F195:F236"/>
-    <mergeCell ref="F242:F257"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9973,4 +11023,782 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="47" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="47" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+    </row>
+    <row r="27" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>566</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>568</v>
+      </c>
+      <c r="C32" s="47">
+        <v>2</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>571</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="47">
+        <v>2</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="47" t="s">
+        <v>574</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>575</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>576</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="47" t="s">
+        <v>579</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>580</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="47" t="s">
+        <v>585</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="F39" s="47"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="F40" s="47"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>592</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F41" s="47"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="47" t="s">
+        <v>593</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>594</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="F42" s="47"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>596</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F43" s="47"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47" t="s">
+        <v>599</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="F44" s="47"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="F45" s="47"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>603</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F50" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
     <sheet name="「SafetyWarning」のダイアログ" sheetId="25" r:id="rId2"/>
     <sheet name="テンプレート機能に必要なデータ" sheetId="26" r:id="rId3"/>
     <sheet name="No.40 Template機能で使用しているDB" sheetId="27" r:id="rId4"/>
-    <sheet name="FrameDataコマンド入力値一覧" sheetId="28" r:id="rId5"/>
+    <sheet name="No.xx FrameDataコマンド入力値一覧" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="614">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2904,145 +2904,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C表作成のFrameDataコマンド（図枠作成機能）の入力項目の中で、AT-B図面作成機能で入力を行っている項目がございましたらご教授ください。
-C表作成の改良要望①のFrameDataの自動入力の対象となる項目の精査を行っているためご確認させてください。
-「」シートにSCで確認した内容を含む入力項目一覧がありますので、そちらにご記入いただきたいです。</t>
-    <rPh sb="19" eb="25">
-      <t>ズワクサクセイキノウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キョウジュ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ヒョウサクセイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>カイリョウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ヨウボウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="149" eb="155">
-      <t>ニュウリョクコウモクイチラン</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改良要望③「“Labeling Detail”の操作時、ラベリングの転記先の表へ不要な形状発生を無くす」について。
-SafetyWarning画面で入力した番号の1～4が図面上の出力ではそれぞれL、T、M、Bとなっているようです。
-5以降の番号はそのまま出力されています。
-そこで確認ですが、「表へ不要な形状発生を無くす」とありますが、本件で問題となっているのは英字が出力されることで、1～8の番号自体は出力されても問題ないという認識で良いでしょうか。</t>
-    <rPh sb="0" eb="4">
-      <t>カイリョウヨウボウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ズメンジョウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ホンケン</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="198" eb="202">
-      <t>バンゴウジタイ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="209" eb="211">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -3802,6 +3663,289 @@
     <t>ページタイトル19の内容</t>
     <rPh sb="10" eb="12">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C表作成のFrameDataコマンド（図枠作成機能）の入力項目の中で、AT-B図面作成機能で入力を行っている項目がございましたらご教授ください。
+C表作成の改良要望①のFrameDataの自動入力の対象となる項目の精査を行っているためご確認させてください。
+「No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> FrameDataコマンド入力値一覧」シートにSCで確認した内容を含む入力項目一覧がありますので、
+AT-B図面登録機能（Brand→Brand Drawing→Drawing “regist“）時に入力を行うものはD列「AT-B図面登録時の入力」に、
+それ以外の機能で入力を行うものはE列「AT-B図面登録以外で入力」にそれぞれモデルタイトル、入力画面での項目、または対応コマンドをご記入いただきたいです。</t>
+    </r>
+    <rPh sb="19" eb="25">
+      <t>ズワクサクセイキノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キョウジュ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="173" eb="179">
+      <t>ニュウリョクコウモクイチラン</t>
+    </rPh>
+    <rPh sb="192" eb="196">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="311" eb="315">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列とC表作成の自動化において、作図に必要な情報は全て、事前に決定済みという認識でよろしいでしょうか。
+特に、円弧配列の編集文字、各種マーク類等でDB検索を行うものに関して、検索結果が1つに絞り込まれるレベルの情報は決定可能でしょうか。</t>
+    <rPh sb="18" eb="20">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ケッテイズ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="90" eb="94">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="111" eb="115">
+      <t>ケッテイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>改良要望③「“Labeling Detail”の操作時、ラベリングの転記先の表へ不要な形状発生を無くす」について。
+SafetyWarning画面で入力した番号の1～4が図面上の出力ではそれぞれL、T、M、Bとなっているようです。
+5以降の番号はそのまま出力されています。
+そこで確認ですが、「表へ不要な形状発生を無くす」とありますが、本件で問題となっているのは英字が出力されることで、数字の番号自体は出力されても問題ないという認識で良いでしょうか。
+または、番号の出力も取りやめるという認識でしょうか。</t>
+    <rPh sb="0" eb="4">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>ズメンジョウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ホンケン</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="197" eb="201">
+      <t>バンゴウジタイ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ニンシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3810,7 +3954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3863,6 +4007,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4250,20 +4401,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4283,12 +4428,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4298,14 +4437,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4323,6 +4474,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6181,8 +6362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6202,11 +6383,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -6878,9 +7059,15 @@
         <v>457</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="G26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
@@ -6900,9 +7087,15 @@
         <v>458</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="G27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
@@ -6922,9 +7115,15 @@
         <v>460</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="G28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
@@ -6944,9 +7143,15 @@
         <v>463</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="G29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
@@ -6968,49 +7173,71 @@
         <v>459</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
+      <c r="G30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="20" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23">
         <v>27</v>
       </c>
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>612</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>462</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>467</v>
+        <v>610</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="128.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>28</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>461</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>468</v>
+        <v>613</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
@@ -7020,7 +7247,9 @@
         <v>29</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>417</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>464</v>
       </c>
@@ -7028,19 +7257,27 @@
         <v>465</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>30</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>417</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>461</v>
       </c>
@@ -7048,25 +7285,43 @@
         <v>466</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
+      <c r="G34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+    <row r="35" spans="1:12" s="20" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="23">
         <v>31</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="G35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
@@ -7157,140 +7412,156 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576 C18:C24">
-    <cfRule type="containsText" dxfId="71" priority="615" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="75" priority="619" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21">
-    <cfRule type="expression" dxfId="70" priority="613">
+    <cfRule type="expression" dxfId="74" priority="617">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="614">
+    <cfRule type="expression" dxfId="73" priority="618">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="68" priority="128" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="72" priority="132" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I26:I38">
-    <cfRule type="expression" dxfId="67" priority="126">
+  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I36:I38">
+    <cfRule type="expression" dxfId="71" priority="130">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="127">
+    <cfRule type="expression" dxfId="70" priority="131">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="65" priority="124">
+    <cfRule type="expression" dxfId="69" priority="128">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="125">
+    <cfRule type="expression" dxfId="68" priority="129">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="67">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 B38:E38 J38 J26:J35 A36:A40 A39:L40 A33:H35">
-    <cfRule type="expression" dxfId="59" priority="61">
+  <conditionalFormatting sqref="B26:B31 B32:D32 B38:E38 J38 J26:J35 A36:A40 A39:L40 A33:F35">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31:H31 C25:E25 C26:H30">
-    <cfRule type="expression" dxfId="56" priority="58">
+  <conditionalFormatting sqref="C31 E31:F31 C25:E25 C26:F30">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="54" priority="54">
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="expression" dxfId="39" priority="39">
       <formula>$I6="確認中"</formula>
     </cfRule>
@@ -7298,7 +7569,7 @@
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="37" priority="37">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -7306,15 +7577,15 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>$I6="確認中"</formula>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$I6="済み"</formula>
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="33" priority="33">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -7322,95 +7593,95 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="29" priority="29">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H20">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H25">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I25">
     <cfRule type="expression" dxfId="9" priority="7">
       <formula>$I22="確認中"</formula>
     </cfRule>
@@ -7418,31 +7689,31 @@
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H25">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$I22="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I25">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <conditionalFormatting sqref="G26:H35">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I35">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C40">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
@@ -7553,7 +7824,7 @@
         <v>407</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="52" t="s">
         <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -7572,7 +7843,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="27" t="s">
         <v>376</v>
       </c>
@@ -7589,7 +7860,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
@@ -7602,7 +7873,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7615,7 +7886,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
@@ -7626,7 +7897,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="59"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -7655,7 +7926,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -7665,7 +7936,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="52" t="s">
         <v>401</v>
       </c>
       <c r="F16" t="s">
@@ -7673,7 +7944,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="26" t="s">
         <v>65</v>
       </c>
@@ -7681,13 +7952,13 @@
         <v>74</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="55"/>
+      <c r="E17" s="53"/>
       <c r="F17" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
@@ -7695,13 +7966,13 @@
         <v>75</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="55"/>
+      <c r="E18" s="53"/>
       <c r="F18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="26" t="s">
         <v>67</v>
       </c>
@@ -7709,10 +7980,10 @@
         <v>76</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="26" t="s">
         <v>68</v>
       </c>
@@ -7720,10 +7991,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="26" t="s">
         <v>69</v>
       </c>
@@ -7731,10 +8002,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="26" t="s">
         <v>70</v>
       </c>
@@ -7742,10 +8013,10 @@
         <v>81</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="55"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
@@ -7753,10 +8024,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="55"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="52"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="26" t="s">
         <v>72</v>
       </c>
@@ -7764,10 +8035,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="55"/>
+      <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -7777,13 +8048,13 @@
         <v>84</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="55"/>
+      <c r="E25" s="53"/>
       <c r="F25" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -7791,13 +8062,13 @@
         <v>85</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="55"/>
+      <c r="E26" s="53"/>
       <c r="F26" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
@@ -7805,10 +8076,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="55"/>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
@@ -7816,10 +8087,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
@@ -7827,10 +8098,10 @@
         <v>90</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
@@ -7838,10 +8109,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
@@ -7849,10 +8120,10 @@
         <v>87</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="55"/>
+      <c r="E31" s="53"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
@@ -7860,10 +8131,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="55"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="26" t="s">
         <v>72</v>
       </c>
@@ -7871,7 +8142,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="56"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -7899,7 +8170,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="64" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -7909,12 +8180,12 @@
         <v>92</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="55" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="51"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
@@ -7922,10 +8193,10 @@
         <v>93</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="58"/>
+      <c r="E39" s="56"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="51"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
@@ -7933,10 +8204,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="58"/>
+      <c r="E40" s="56"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="51"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
@@ -7944,10 +8215,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="58"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="51"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
@@ -7955,10 +8226,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="58"/>
+      <c r="E42" s="56"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="51"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="26" t="s">
         <v>70</v>
       </c>
@@ -7966,10 +8237,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="58"/>
+      <c r="E43" s="56"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="51"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="26" t="s">
         <v>71</v>
       </c>
@@ -7977,10 +8248,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="58"/>
+      <c r="E44" s="56"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="51"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="26" t="s">
         <v>72</v>
       </c>
@@ -7988,10 +8259,10 @@
         <v>100</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="58"/>
+      <c r="E45" s="56"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="51"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="26" t="s">
         <v>101</v>
       </c>
@@ -7999,10 +8270,10 @@
         <v>99</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="59"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="64" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -8015,7 +8286,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="51"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="26" t="s">
         <v>65</v>
       </c>
@@ -8026,7 +8297,7 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="51"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="26" t="s">
         <v>66</v>
       </c>
@@ -8037,7 +8308,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="51"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="26" t="s">
         <v>67</v>
       </c>
@@ -8048,7 +8319,7 @@
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="51"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
@@ -8059,7 +8330,7 @@
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="51"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="26" t="s">
         <v>69</v>
       </c>
@@ -8070,7 +8341,7 @@
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="51"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="26" t="s">
         <v>70</v>
       </c>
@@ -8081,7 +8352,7 @@
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="51"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="26" t="s">
         <v>71</v>
       </c>
@@ -8092,7 +8363,7 @@
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="51"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
@@ -8148,14 +8419,14 @@
         <v>402</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="55" t="s">
         <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
-      <c r="H63" s="57" t="s">
+      <c r="H63" s="55" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8168,12 +8439,12 @@
         <v>138</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="58"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G64" s="29"/>
-      <c r="H64" s="58"/>
+      <c r="H64" s="56"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
@@ -8184,12 +8455,12 @@
         <v>139</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="58"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="29"/>
-      <c r="H65" s="58"/>
+      <c r="H65" s="56"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="26" t="s">
@@ -8200,12 +8471,12 @@
         <v>140</v>
       </c>
       <c r="D66" s="33"/>
-      <c r="E66" s="58"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="26" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="58"/>
+      <c r="H66" s="56"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="26" t="s">
@@ -8216,12 +8487,12 @@
         <v>141</v>
       </c>
       <c r="D67" s="33"/>
-      <c r="E67" s="58"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="58"/>
+      <c r="H67" s="56"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="26" t="s">
@@ -8232,12 +8503,12 @@
         <v>142</v>
       </c>
       <c r="D68" s="33"/>
-      <c r="E68" s="58"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G68" s="29"/>
-      <c r="H68" s="58"/>
+      <c r="H68" s="56"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="26" t="s">
@@ -8250,12 +8521,12 @@
         <v>143</v>
       </c>
       <c r="D69" s="33"/>
-      <c r="E69" s="58"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="58"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="27" t="s">
         <v>380</v>
       </c>
@@ -8269,12 +8540,12 @@
         <v>144</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="58"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="58"/>
+      <c r="H70" s="56"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="26" t="s">
@@ -8285,12 +8556,12 @@
         <v>145</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="58"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="58"/>
+      <c r="H71" s="56"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="26" t="s">
@@ -8301,12 +8572,12 @@
         <v>146</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" s="58"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="58"/>
+      <c r="H72" s="56"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="26" t="s">
@@ -8317,12 +8588,12 @@
         <v>147</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="58"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="58"/>
+      <c r="H73" s="56"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="26" t="s">
@@ -8333,12 +8604,12 @@
         <v>148</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="58"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G74" s="29"/>
-      <c r="H74" s="58"/>
+      <c r="H74" s="56"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="26" t="s">
@@ -8349,12 +8620,12 @@
         <v>149</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="58"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="58"/>
+      <c r="H75" s="56"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="26" t="s">
@@ -8365,12 +8636,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="58"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="58"/>
+      <c r="H76" s="56"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="26" t="s">
@@ -8381,12 +8652,12 @@
         <v>151</v>
       </c>
       <c r="D77" s="33"/>
-      <c r="E77" s="58"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="58"/>
+      <c r="H77" s="56"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="26" t="s">
@@ -8397,12 +8668,12 @@
         <v>152</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="58"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="58"/>
+      <c r="H78" s="56"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="26" t="s">
@@ -8413,12 +8684,12 @@
         <v>153</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="58"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="58"/>
+      <c r="H79" s="56"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="26" t="s">
@@ -8429,12 +8700,12 @@
         <v>154</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="58"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="58"/>
+      <c r="H80" s="56"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="26" t="s">
@@ -8445,12 +8716,12 @@
         <v>155</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="58"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="58"/>
+      <c r="H81" s="56"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
@@ -8461,12 +8732,12 @@
         <v>156</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="58"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="58"/>
+      <c r="H82" s="56"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="26" t="s">
@@ -8477,12 +8748,12 @@
         <v>157</v>
       </c>
       <c r="D83" s="33"/>
-      <c r="E83" s="58"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="58"/>
+      <c r="H83" s="56"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="26" t="s">
@@ -8493,12 +8764,12 @@
         <v>158</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" s="58"/>
+      <c r="E84" s="56"/>
       <c r="F84" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="58"/>
+      <c r="H84" s="56"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="26" t="s">
@@ -8509,12 +8780,12 @@
         <v>159</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" s="58"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="58"/>
+      <c r="H85" s="56"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="26" t="s">
@@ -8525,12 +8796,12 @@
         <v>160</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="58"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="58"/>
+      <c r="H86" s="56"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
@@ -8541,12 +8812,12 @@
         <v>161</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="58"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="29"/>
-      <c r="H87" s="58"/>
+      <c r="H87" s="56"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
@@ -8557,12 +8828,12 @@
         <v>162</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="58"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="58"/>
+      <c r="H88" s="56"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
@@ -8573,12 +8844,12 @@
         <v>163</v>
       </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="58"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G89" s="29"/>
-      <c r="H89" s="58"/>
+      <c r="H89" s="56"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
@@ -8589,12 +8860,12 @@
         <v>164</v>
       </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="58"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="H90" s="58"/>
+      <c r="H90" s="56"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
@@ -8605,12 +8876,12 @@
         <v>165</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="58"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="58"/>
+      <c r="H91" s="56"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
@@ -8621,12 +8892,12 @@
         <v>166</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="58"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G92" s="29"/>
-      <c r="H92" s="58"/>
+      <c r="H92" s="56"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
@@ -8637,12 +8908,12 @@
         <v>167</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" s="58"/>
+      <c r="E93" s="56"/>
       <c r="F93" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="58"/>
+      <c r="H93" s="56"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="26" t="s">
@@ -8653,12 +8924,12 @@
         <v>168</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" s="58"/>
+      <c r="E94" s="56"/>
       <c r="F94" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="58"/>
+      <c r="H94" s="56"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="26" t="s">
@@ -8669,12 +8940,12 @@
         <v>169</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" s="58"/>
+      <c r="E95" s="56"/>
       <c r="F95" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="58"/>
+      <c r="H95" s="56"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
@@ -8685,12 +8956,12 @@
         <v>170</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="58"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G96" s="29"/>
-      <c r="H96" s="58"/>
+      <c r="H96" s="56"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="26" t="s">
@@ -8701,12 +8972,12 @@
         <v>171</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="59"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="59"/>
+      <c r="H97" s="57"/>
     </row>
     <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
@@ -8733,7 +9004,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="63" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="35" t="s">
@@ -8743,7 +9014,7 @@
         <v>392</v>
       </c>
       <c r="D103" s="37"/>
-      <c r="E103" s="62" t="s">
+      <c r="E103" s="58" t="s">
         <v>427</v>
       </c>
       <c r="F103" t="s">
@@ -8751,7 +9022,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="51"/>
+      <c r="A104" s="64"/>
       <c r="B104" s="26" t="s">
         <v>180</v>
       </c>
@@ -8759,10 +9030,10 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="63"/>
+      <c r="E104" s="59"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="51"/>
+      <c r="A105" s="64"/>
       <c r="B105" s="26" t="s">
         <v>181</v>
       </c>
@@ -8770,13 +9041,13 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="63"/>
+      <c r="E105" s="59"/>
       <c r="F105" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="51"/>
+      <c r="A106" s="64"/>
       <c r="B106" s="26" t="s">
         <v>182</v>
       </c>
@@ -8784,13 +9055,13 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="63"/>
+      <c r="E106" s="59"/>
       <c r="F106" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="51"/>
+      <c r="A107" s="64"/>
       <c r="B107" s="26" t="s">
         <v>183</v>
       </c>
@@ -8798,13 +9069,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="63"/>
+      <c r="E107" s="59"/>
       <c r="F107" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="51"/>
+      <c r="A108" s="64"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -8812,13 +9083,13 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="63"/>
+      <c r="E108" s="59"/>
       <c r="F108" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="51"/>
+      <c r="A109" s="64"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -8826,10 +9097,10 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="63"/>
+      <c r="E109" s="59"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="51"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
@@ -8837,10 +9108,10 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="63"/>
+      <c r="E110" s="59"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="51"/>
+      <c r="A111" s="64"/>
       <c r="B111" s="26" t="s">
         <v>185</v>
       </c>
@@ -8848,10 +9119,10 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="63"/>
+      <c r="E111" s="59"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="51"/>
+      <c r="A112" s="64"/>
       <c r="B112" s="26" t="s">
         <v>190</v>
       </c>
@@ -8859,10 +9130,10 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="63"/>
+      <c r="E112" s="59"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="51"/>
+      <c r="A113" s="64"/>
       <c r="B113" s="26" t="s">
         <v>191</v>
       </c>
@@ -8870,10 +9141,10 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="63"/>
+      <c r="E113" s="59"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="51"/>
+      <c r="A114" s="64"/>
       <c r="B114" s="26" t="s">
         <v>188</v>
       </c>
@@ -8881,10 +9152,10 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="63"/>
+      <c r="E114" s="59"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="51"/>
+      <c r="A115" s="64"/>
       <c r="B115" s="26" t="s">
         <v>189</v>
       </c>
@@ -8892,10 +9163,10 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="63"/>
+      <c r="E115" s="59"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="51"/>
+      <c r="A116" s="64"/>
       <c r="B116" s="26" t="s">
         <v>192</v>
       </c>
@@ -8903,10 +9174,10 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="63"/>
+      <c r="E116" s="59"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="51"/>
+      <c r="A117" s="64"/>
       <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
@@ -8914,10 +9185,10 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="63"/>
+      <c r="E117" s="59"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="51"/>
+      <c r="A118" s="64"/>
       <c r="B118" s="26" t="s">
         <v>194</v>
       </c>
@@ -8925,10 +9196,10 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="63"/>
+      <c r="E118" s="59"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="51"/>
+      <c r="A119" s="64"/>
       <c r="B119" s="26" t="s">
         <v>195</v>
       </c>
@@ -8936,10 +9207,10 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="63"/>
+      <c r="E119" s="59"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="51"/>
+      <c r="A120" s="64"/>
       <c r="B120" s="26" t="s">
         <v>196</v>
       </c>
@@ -8947,7 +9218,7 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="64"/>
+      <c r="E120" s="60"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
@@ -9184,10 +9455,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A185" s="51" t="s">
+      <c r="A185" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="51" t="s">
+      <c r="B185" s="64" t="s">
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
@@ -9197,7 +9468,7 @@
         <v>381</v>
       </c>
       <c r="E185" s="33"/>
-      <c r="F185" s="60" t="s">
+      <c r="F185" s="61" t="s">
         <v>430</v>
       </c>
       <c r="G185" t="s">
@@ -9205,8 +9476,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A186" s="51"/>
-      <c r="B186" s="51"/>
+      <c r="A186" s="64"/>
+      <c r="B186" s="64"/>
       <c r="C186" s="26" t="s">
         <v>381</v>
       </c>
@@ -9214,11 +9485,11 @@
         <v>428</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="61"/>
+      <c r="F186" s="62"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A187" s="51"/>
-      <c r="B187" s="51" t="s">
+      <c r="A187" s="64"/>
+      <c r="B187" s="64" t="s">
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
@@ -9228,11 +9499,11 @@
         <v>381</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="61"/>
+      <c r="F187" s="62"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A188" s="51"/>
-      <c r="B188" s="51"/>
+      <c r="A188" s="64"/>
+      <c r="B188" s="64"/>
       <c r="C188" s="26" t="s">
         <v>381</v>
       </c>
@@ -9240,11 +9511,11 @@
         <v>353</v>
       </c>
       <c r="E188" s="33"/>
-      <c r="F188" s="61"/>
+      <c r="F188" s="62"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A189" s="51"/>
-      <c r="B189" s="51"/>
+      <c r="A189" s="64"/>
+      <c r="B189" s="64"/>
       <c r="C189" s="26" t="s">
         <v>381</v>
       </c>
@@ -9252,11 +9523,11 @@
         <v>354</v>
       </c>
       <c r="E189" s="33"/>
-      <c r="F189" s="61"/>
+      <c r="F189" s="62"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A190" s="51"/>
-      <c r="B190" s="51"/>
+      <c r="A190" s="64"/>
+      <c r="B190" s="64"/>
       <c r="C190" s="26" t="s">
         <v>381</v>
       </c>
@@ -9264,7 +9535,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="52"/>
+      <c r="F190" s="63"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
@@ -9292,10 +9563,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A195" s="51" t="s">
+      <c r="A195" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="53" t="s">
+      <c r="B195" s="65" t="s">
         <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
@@ -9303,7 +9574,7 @@
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="54" t="s">
+      <c r="F195" s="52" t="s">
         <v>431</v>
       </c>
       <c r="G195" t="s">
@@ -9311,38 +9582,38 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A196" s="51"/>
-      <c r="B196" s="53"/>
+      <c r="A196" s="64"/>
+      <c r="B196" s="65"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
         <v>347</v>
       </c>
       <c r="E196" s="39"/>
-      <c r="F196" s="55"/>
+      <c r="F196" s="53"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A197" s="51"/>
-      <c r="B197" s="53"/>
+      <c r="A197" s="64"/>
+      <c r="B197" s="65"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>348</v>
       </c>
       <c r="E197" s="39"/>
-      <c r="F197" s="55"/>
+      <c r="F197" s="53"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A198" s="51"/>
-      <c r="B198" s="53"/>
+      <c r="A198" s="64"/>
+      <c r="B198" s="65"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
         <v>349</v>
       </c>
       <c r="E198" s="39"/>
-      <c r="F198" s="55"/>
+      <c r="F198" s="53"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A199" s="51"/>
-      <c r="B199" s="51" t="s">
+      <c r="A199" s="64"/>
+      <c r="B199" s="64" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
@@ -9350,41 +9621,41 @@
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="55"/>
+      <c r="F199" s="53"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A200" s="51"/>
-      <c r="B200" s="51"/>
+      <c r="A200" s="64"/>
+      <c r="B200" s="64"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="55"/>
+      <c r="F200" s="53"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="51"/>
-      <c r="B201" s="51"/>
+      <c r="A201" s="64"/>
+      <c r="B201" s="64"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="55"/>
+      <c r="F201" s="53"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A202" s="51"/>
-      <c r="B202" s="51"/>
+      <c r="A202" s="64"/>
+      <c r="B202" s="64"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="55"/>
+      <c r="F202" s="53"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A203" s="51"/>
-      <c r="B203" s="51" t="s">
+      <c r="A203" s="64"/>
+      <c r="B203" s="64" t="s">
         <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
@@ -9392,41 +9663,41 @@
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="55"/>
+      <c r="F203" s="53"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A204" s="51"/>
-      <c r="B204" s="51"/>
+      <c r="A204" s="64"/>
+      <c r="B204" s="64"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="55"/>
+      <c r="F204" s="53"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A205" s="51"/>
-      <c r="B205" s="51"/>
+      <c r="A205" s="64"/>
+      <c r="B205" s="64"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="55"/>
+      <c r="F205" s="53"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A206" s="51"/>
-      <c r="B206" s="51"/>
+      <c r="A206" s="64"/>
+      <c r="B206" s="64"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="55"/>
+      <c r="F206" s="53"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A207" s="51"/>
-      <c r="B207" s="51" t="s">
+      <c r="A207" s="64"/>
+      <c r="B207" s="64" t="s">
         <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
@@ -9434,41 +9705,41 @@
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="55"/>
+      <c r="F207" s="53"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A208" s="51"/>
-      <c r="B208" s="51"/>
+      <c r="A208" s="64"/>
+      <c r="B208" s="64"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="55"/>
+      <c r="F208" s="53"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" s="51"/>
-      <c r="B209" s="51"/>
+      <c r="A209" s="64"/>
+      <c r="B209" s="64"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="55"/>
+      <c r="F209" s="53"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" s="51"/>
-      <c r="B210" s="51"/>
+      <c r="A210" s="64"/>
+      <c r="B210" s="64"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="55"/>
+      <c r="F210" s="53"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" s="51"/>
-      <c r="B211" s="51" t="s">
+      <c r="A211" s="64"/>
+      <c r="B211" s="64" t="s">
         <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -9476,31 +9747,31 @@
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="55"/>
+      <c r="F211" s="53"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" s="51"/>
-      <c r="B212" s="51"/>
+      <c r="A212" s="64"/>
+      <c r="B212" s="64"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="55"/>
+      <c r="F212" s="53"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" s="51"/>
-      <c r="B213" s="51"/>
+      <c r="A213" s="64"/>
+      <c r="B213" s="64"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="55"/>
+      <c r="F213" s="53"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" s="51"/>
-      <c r="B214" s="51" t="s">
+      <c r="A214" s="64"/>
+      <c r="B214" s="64" t="s">
         <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
@@ -9508,21 +9779,21 @@
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="55"/>
+      <c r="F214" s="53"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="51"/>
-      <c r="B215" s="51"/>
+      <c r="A215" s="64"/>
+      <c r="B215" s="64"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="55"/>
+      <c r="F215" s="53"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="51"/>
-      <c r="B216" s="51" t="s">
+      <c r="A216" s="64"/>
+      <c r="B216" s="64" t="s">
         <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
@@ -9530,41 +9801,41 @@
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="55"/>
+      <c r="F216" s="53"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="51"/>
-      <c r="B217" s="51"/>
+      <c r="A217" s="64"/>
+      <c r="B217" s="64"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="55"/>
+      <c r="F217" s="53"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" s="51"/>
-      <c r="B218" s="51"/>
+      <c r="A218" s="64"/>
+      <c r="B218" s="64"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="55"/>
+      <c r="F218" s="53"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" s="51"/>
-      <c r="B219" s="51"/>
+      <c r="A219" s="64"/>
+      <c r="B219" s="64"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="55"/>
+      <c r="F219" s="53"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" s="51"/>
-      <c r="B220" s="51" t="s">
+      <c r="A220" s="64"/>
+      <c r="B220" s="64" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
@@ -9572,41 +9843,41 @@
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="55"/>
+      <c r="F220" s="53"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" s="51"/>
-      <c r="B221" s="51"/>
+      <c r="A221" s="64"/>
+      <c r="B221" s="64"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="55"/>
+      <c r="F221" s="53"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" s="51"/>
-      <c r="B222" s="51"/>
+      <c r="A222" s="64"/>
+      <c r="B222" s="64"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="55"/>
+      <c r="F222" s="53"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="51"/>
-      <c r="B223" s="51"/>
+      <c r="A223" s="64"/>
+      <c r="B223" s="64"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="55"/>
+      <c r="F223" s="53"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" s="51"/>
-      <c r="B224" s="51" t="s">
+      <c r="A224" s="64"/>
+      <c r="B224" s="64" t="s">
         <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
@@ -9614,41 +9885,41 @@
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="55"/>
+      <c r="F224" s="53"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A225" s="51"/>
-      <c r="B225" s="51"/>
+      <c r="A225" s="64"/>
+      <c r="B225" s="64"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="55"/>
+      <c r="F225" s="53"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A226" s="51"/>
-      <c r="B226" s="51"/>
+      <c r="A226" s="64"/>
+      <c r="B226" s="64"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="55"/>
+      <c r="F226" s="53"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A227" s="51"/>
-      <c r="B227" s="51"/>
+      <c r="A227" s="64"/>
+      <c r="B227" s="64"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="55"/>
+      <c r="F227" s="53"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A228" s="51"/>
-      <c r="B228" s="51" t="s">
+      <c r="A228" s="64"/>
+      <c r="B228" s="64" t="s">
         <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
@@ -9656,41 +9927,41 @@
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="55"/>
+      <c r="F228" s="53"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A229" s="51"/>
-      <c r="B229" s="51"/>
+      <c r="A229" s="64"/>
+      <c r="B229" s="64"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="55"/>
+      <c r="F229" s="53"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A230" s="51"/>
-      <c r="B230" s="51"/>
+      <c r="A230" s="64"/>
+      <c r="B230" s="64"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="55"/>
+      <c r="F230" s="53"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A231" s="51"/>
-      <c r="B231" s="51"/>
+      <c r="A231" s="64"/>
+      <c r="B231" s="64"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="55"/>
+      <c r="F231" s="53"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A232" s="51"/>
-      <c r="B232" s="51" t="s">
+      <c r="A232" s="64"/>
+      <c r="B232" s="64" t="s">
         <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
@@ -9698,31 +9969,31 @@
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="55"/>
+      <c r="F232" s="53"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A233" s="51"/>
-      <c r="B233" s="51"/>
+      <c r="A233" s="64"/>
+      <c r="B233" s="64"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="55"/>
+      <c r="F233" s="53"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A234" s="51"/>
-      <c r="B234" s="51"/>
+      <c r="A234" s="64"/>
+      <c r="B234" s="64"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="55"/>
+      <c r="F234" s="53"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A235" s="51"/>
-      <c r="B235" s="51" t="s">
+      <c r="A235" s="64"/>
+      <c r="B235" s="64" t="s">
         <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
@@ -9730,17 +10001,17 @@
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="55"/>
+      <c r="F235" s="53"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A236" s="51"/>
-      <c r="B236" s="51"/>
+      <c r="A236" s="64"/>
+      <c r="B236" s="64"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="56"/>
+      <c r="F236" s="54"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
@@ -9777,7 +10048,7 @@
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="54" t="s">
+      <c r="F242" s="52" t="s">
         <v>432</v>
       </c>
     </row>
@@ -9789,7 +10060,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="55"/>
+      <c r="F243" s="53"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
@@ -9799,7 +10070,7 @@
         <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="55"/>
+      <c r="F244" s="53"/>
       <c r="G244" t="s">
         <v>383</v>
       </c>
@@ -9812,7 +10083,7 @@
         <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="55"/>
+      <c r="F245" s="53"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
@@ -9824,7 +10095,7 @@
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="55"/>
+      <c r="F246" s="53"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
@@ -9834,7 +10105,7 @@
         <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="55"/>
+      <c r="F247" s="53"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
@@ -9844,7 +10115,7 @@
         <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="55"/>
+      <c r="F248" s="53"/>
       <c r="G248" t="s">
         <v>383</v>
       </c>
@@ -9857,7 +10128,7 @@
         <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="55"/>
+      <c r="F249" s="53"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
@@ -9869,7 +10140,7 @@
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="55"/>
+      <c r="F250" s="53"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
@@ -9879,7 +10150,7 @@
         <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="55"/>
+      <c r="F251" s="53"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
@@ -9889,7 +10160,7 @@
         <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="55"/>
+      <c r="F252" s="53"/>
       <c r="G252" t="s">
         <v>383</v>
       </c>
@@ -9902,7 +10173,7 @@
         <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="55"/>
+      <c r="F253" s="53"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
@@ -9914,7 +10185,7 @@
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="55"/>
+      <c r="F254" s="53"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
@@ -9924,7 +10195,7 @@
         <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="55"/>
+      <c r="F255" s="53"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
@@ -9934,7 +10205,7 @@
         <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="55"/>
+      <c r="F256" s="53"/>
       <c r="G256" t="s">
         <v>383</v>
       </c>
@@ -9947,7 +10218,7 @@
         <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="56"/>
+      <c r="F257" s="54"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
@@ -9973,10 +10244,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A262" s="51" t="s">
+      <c r="A262" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B262" s="51" t="s">
+      <c r="B262" s="64" t="s">
         <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -9984,43 +10255,43 @@
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="54" t="s">
+      <c r="F262" s="52" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A263" s="51"/>
-      <c r="B263" s="51"/>
+      <c r="A263" s="64"/>
+      <c r="B263" s="64"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
         <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="55"/>
+      <c r="F263" s="53"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A264" s="51"/>
-      <c r="B264" s="51"/>
+      <c r="A264" s="64"/>
+      <c r="B264" s="64"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="55"/>
+      <c r="F264" s="53"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A265" s="51"/>
-      <c r="B265" s="51"/>
+      <c r="A265" s="64"/>
+      <c r="B265" s="64"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
         <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="55"/>
+      <c r="F265" s="53"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A266" s="51"/>
-      <c r="B266" s="51" t="s">
+      <c r="A266" s="64"/>
+      <c r="B266" s="64" t="s">
         <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
@@ -10028,41 +10299,41 @@
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="55"/>
+      <c r="F266" s="53"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A267" s="51"/>
-      <c r="B267" s="51"/>
+      <c r="A267" s="64"/>
+      <c r="B267" s="64"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="55"/>
+      <c r="F267" s="53"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A268" s="51"/>
-      <c r="B268" s="51"/>
+      <c r="A268" s="64"/>
+      <c r="B268" s="64"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
         <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="55"/>
+      <c r="F268" s="53"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A269" s="51"/>
-      <c r="B269" s="51"/>
+      <c r="A269" s="64"/>
+      <c r="B269" s="64"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
         <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="55"/>
+      <c r="F269" s="53"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A270" s="51"/>
-      <c r="B270" s="51" t="s">
+      <c r="A270" s="64"/>
+      <c r="B270" s="64" t="s">
         <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
@@ -10070,41 +10341,41 @@
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="55"/>
+      <c r="F270" s="53"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A271" s="51"/>
-      <c r="B271" s="51"/>
+      <c r="A271" s="64"/>
+      <c r="B271" s="64"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="55"/>
+      <c r="F271" s="53"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A272" s="51"/>
-      <c r="B272" s="51"/>
+      <c r="A272" s="64"/>
+      <c r="B272" s="64"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
         <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="55"/>
+      <c r="F272" s="53"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="51"/>
-      <c r="B273" s="51"/>
+      <c r="A273" s="64"/>
+      <c r="B273" s="64"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="55"/>
+      <c r="F273" s="53"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="51"/>
-      <c r="B274" s="51" t="s">
+      <c r="A274" s="64"/>
+      <c r="B274" s="64" t="s">
         <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
@@ -10112,41 +10383,41 @@
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="55"/>
+      <c r="F274" s="53"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="51"/>
-      <c r="B275" s="51"/>
+      <c r="A275" s="64"/>
+      <c r="B275" s="64"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="55"/>
+      <c r="F275" s="53"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="51"/>
-      <c r="B276" s="51"/>
+      <c r="A276" s="64"/>
+      <c r="B276" s="64"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
         <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="55"/>
+      <c r="F276" s="53"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="51"/>
-      <c r="B277" s="51"/>
+      <c r="A277" s="64"/>
+      <c r="B277" s="64"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="55"/>
+      <c r="F277" s="53"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="51"/>
-      <c r="B278" s="51" t="s">
+      <c r="A278" s="64"/>
+      <c r="B278" s="64" t="s">
         <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
@@ -10154,21 +10425,21 @@
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="55"/>
+      <c r="F278" s="53"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="51"/>
-      <c r="B279" s="51"/>
+      <c r="A279" s="64"/>
+      <c r="B279" s="64"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="55"/>
+      <c r="F279" s="53"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="51"/>
-      <c r="B280" s="51" t="s">
+      <c r="A280" s="64"/>
+      <c r="B280" s="64" t="s">
         <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
@@ -10176,21 +10447,21 @@
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="55"/>
+      <c r="F280" s="53"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="51"/>
-      <c r="B281" s="51"/>
+      <c r="A281" s="64"/>
+      <c r="B281" s="64"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
         <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="55"/>
+      <c r="F281" s="53"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="51"/>
-      <c r="B282" s="51" t="s">
+      <c r="A282" s="64"/>
+      <c r="B282" s="64" t="s">
         <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
@@ -10198,21 +10469,21 @@
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="55"/>
+      <c r="F282" s="53"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="51"/>
-      <c r="B283" s="51"/>
+      <c r="A283" s="64"/>
+      <c r="B283" s="64"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="55"/>
+      <c r="F283" s="53"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="51"/>
-      <c r="B284" s="51" t="s">
+      <c r="A284" s="64"/>
+      <c r="B284" s="64" t="s">
         <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
@@ -10220,21 +10491,21 @@
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="55"/>
+      <c r="F284" s="53"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="51"/>
-      <c r="B285" s="51"/>
+      <c r="A285" s="64"/>
+      <c r="B285" s="64"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
         <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="55"/>
+      <c r="F285" s="53"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="51"/>
-      <c r="B286" s="51" t="s">
+      <c r="A286" s="64"/>
+      <c r="B286" s="64" t="s">
         <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
@@ -10242,17 +10513,17 @@
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="55"/>
+      <c r="F286" s="53"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="51"/>
-      <c r="B287" s="51"/>
+      <c r="A287" s="64"/>
+      <c r="B287" s="64"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
         <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="56"/>
+      <c r="F287" s="54"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
@@ -10289,7 +10560,7 @@
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="54" t="s">
+      <c r="F293" s="52" t="s">
         <v>434</v>
       </c>
       <c r="G293" t="s">
@@ -10304,7 +10575,7 @@
         <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="55"/>
+      <c r="F294" s="53"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
@@ -10316,7 +10587,7 @@
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="55"/>
+      <c r="F295" s="53"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
@@ -10326,7 +10597,7 @@
         <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="55"/>
+      <c r="F296" s="53"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
@@ -10336,7 +10607,7 @@
         <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="55"/>
+      <c r="F297" s="53"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
@@ -10348,7 +10619,7 @@
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="55"/>
+      <c r="F298" s="53"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
@@ -10358,7 +10629,7 @@
         <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="55"/>
+      <c r="F299" s="53"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
@@ -10368,7 +10639,7 @@
         <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="55"/>
+      <c r="F300" s="53"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
@@ -10378,7 +10649,7 @@
         <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="55"/>
+      <c r="F301" s="53"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
@@ -10392,7 +10663,7 @@
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="55"/>
+      <c r="F302" s="53"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
@@ -10402,7 +10673,7 @@
         <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="55"/>
+      <c r="F303" s="53"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
@@ -10414,7 +10685,7 @@
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="55"/>
+      <c r="F304" s="53"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
@@ -10424,7 +10695,7 @@
         <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="55"/>
+      <c r="F305" s="53"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
@@ -10434,7 +10705,7 @@
         <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="55"/>
+      <c r="F306" s="53"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
@@ -10446,7 +10717,7 @@
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="55"/>
+      <c r="F307" s="53"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
@@ -10456,7 +10727,7 @@
         <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="55"/>
+      <c r="F308" s="53"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
@@ -10466,7 +10737,7 @@
         <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="55"/>
+      <c r="F309" s="53"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
@@ -10476,7 +10747,7 @@
         <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="55"/>
+      <c r="F310" s="53"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
@@ -10490,7 +10761,7 @@
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="55"/>
+      <c r="F311" s="53"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
@@ -10500,7 +10771,7 @@
         <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="55"/>
+      <c r="F312" s="53"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
@@ -10512,7 +10783,7 @@
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="55"/>
+      <c r="F313" s="53"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
@@ -10522,7 +10793,7 @@
         <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="55"/>
+      <c r="F314" s="53"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
@@ -10532,7 +10803,7 @@
         <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="55"/>
+      <c r="F315" s="53"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
@@ -10544,7 +10815,7 @@
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="55"/>
+      <c r="F316" s="53"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
@@ -10554,7 +10825,7 @@
         <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="55"/>
+      <c r="F317" s="53"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
@@ -10564,7 +10835,7 @@
         <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="55"/>
+      <c r="F318" s="53"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
@@ -10574,7 +10845,7 @@
         <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="55"/>
+      <c r="F319" s="53"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
@@ -10588,7 +10859,7 @@
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="55"/>
+      <c r="F320" s="53"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
@@ -10598,7 +10869,7 @@
         <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="55"/>
+      <c r="F321" s="53"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
@@ -10610,7 +10881,7 @@
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="55"/>
+      <c r="F322" s="53"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
@@ -10620,7 +10891,7 @@
         <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="55"/>
+      <c r="F323" s="53"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
@@ -10630,7 +10901,7 @@
         <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="55"/>
+      <c r="F324" s="53"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
@@ -10642,7 +10913,7 @@
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="55"/>
+      <c r="F325" s="53"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
@@ -10652,7 +10923,7 @@
         <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="55"/>
+      <c r="F326" s="53"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
@@ -10662,7 +10933,7 @@
         <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="55"/>
+      <c r="F327" s="53"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
@@ -10676,7 +10947,7 @@
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="55"/>
+      <c r="F328" s="53"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
@@ -10686,7 +10957,7 @@
         <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="55"/>
+      <c r="F329" s="53"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
@@ -10696,7 +10967,7 @@
         <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="55"/>
+      <c r="F330" s="53"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
@@ -10710,7 +10981,7 @@
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="55"/>
+      <c r="F331" s="53"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
@@ -10720,7 +10991,7 @@
         <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="55"/>
+      <c r="F332" s="53"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
@@ -10732,7 +11003,7 @@
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="55"/>
+      <c r="F333" s="53"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
@@ -10742,7 +11013,7 @@
         <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="55"/>
+      <c r="F334" s="53"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
@@ -10754,7 +11025,7 @@
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="55"/>
+      <c r="F335" s="53"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
@@ -10764,7 +11035,7 @@
         <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="55"/>
+      <c r="F336" s="53"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
@@ -10776,7 +11047,7 @@
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="55"/>
+      <c r="F337" s="53"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
@@ -10786,7 +11057,7 @@
         <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="56"/>
+      <c r="F338" s="54"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
@@ -10813,7 +11084,7 @@
         <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="54" t="s">
+      <c r="D344" s="52" t="s">
         <v>435</v>
       </c>
     </row>
@@ -10825,7 +11096,7 @@
         <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="55"/>
+      <c r="D345" s="53"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
@@ -10835,7 +11106,7 @@
         <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="55"/>
+      <c r="D346" s="53"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
@@ -10845,38 +11116,10 @@
         <v>340</v>
       </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="56"/>
+      <c r="D347" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F262:F287"/>
-    <mergeCell ref="F293:F338"/>
-    <mergeCell ref="D344:D347"/>
-    <mergeCell ref="H63:H97"/>
-    <mergeCell ref="E103:E120"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="F195:F236"/>
-    <mergeCell ref="F242:F257"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E63:E97"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="E16:E33"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="A103:A120"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A236"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B185:B186"/>
     <mergeCell ref="B286:B287"/>
     <mergeCell ref="B284:B285"/>
     <mergeCell ref="B280:B281"/>
@@ -10893,6 +11136,34 @@
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A103:A120"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A236"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E63:E97"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="E16:E33"/>
+    <mergeCell ref="F262:F287"/>
+    <mergeCell ref="F293:F338"/>
+    <mergeCell ref="D344:D347"/>
+    <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="F195:F236"/>
+    <mergeCell ref="F242:F257"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11029,11 +11300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9:E9"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11048,64 +11319,64 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>442</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>471</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>477</v>
-      </c>
       <c r="E2" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -11114,31 +11385,31 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="D5" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="47" t="s">
         <v>484</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>485</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>486</v>
       </c>
       <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>487</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>489</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -11146,89 +11417,89 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="D7" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="E7" s="47" t="s">
         <v>492</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>494</v>
       </c>
       <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="D8" s="47" t="s">
         <v>496</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>498</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="47" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="47" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="47" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>503</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>505</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -11236,61 +11507,61 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>506</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="D13" s="47" t="s">
         <v>507</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>509</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="D14" s="47" t="s">
         <v>511</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>513</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="D15" s="47" t="s">
         <v>515</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>517</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>518</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>520</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -11298,26 +11569,26 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>521</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="D17" s="47" t="s">
         <v>522</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>524</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="47" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -11326,45 +11597,45 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="D19" s="47" t="s">
         <v>528</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>530</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>531</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="D20" s="47" t="s">
         <v>532</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>533</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>534</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>535</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>536</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>537</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -11372,10 +11643,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="47" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -11384,13 +11655,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>540</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>541</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>542</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -11398,13 +11669,13 @@
     </row>
     <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>543</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>545</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -11412,24 +11683,24 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="47" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -11438,28 +11709,28 @@
     </row>
     <row r="27" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="C27" s="47" t="s">
         <v>551</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="D27" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="E27" s="47" t="s">
         <v>553</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>554</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>555</v>
       </c>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -11468,13 +11739,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="47" t="s">
         <v>558</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>560</v>
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47"/>
@@ -11482,13 +11753,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="C30" s="49" t="s">
         <v>561</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>563</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
@@ -11496,13 +11767,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>564</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>566</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -11510,10 +11781,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C32" s="47">
         <v>2</v>
@@ -11524,13 +11795,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="47" t="s">
         <v>569</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>571</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -11538,10 +11809,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="47" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C34" s="47">
         <v>2</v>
@@ -11552,13 +11823,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>574</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>576</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="47"/>
@@ -11566,10 +11837,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="47" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -11578,10 +11849,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="47" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -11590,209 +11861,209 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="47" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="47" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="47" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="47" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F43" s="47"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="47" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F44" s="47"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="47" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="47" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="47" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="47" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F50" s="47"/>
     </row>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -16,9 +16,13 @@
     <sheet name="「SafetyWarning」のダイアログ" sheetId="25" r:id="rId2"/>
     <sheet name="テンプレート機能に必要なデータ" sheetId="26" r:id="rId3"/>
     <sheet name="No.40 Template機能で使用しているDB" sheetId="27" r:id="rId4"/>
-    <sheet name="No.xx FrameDataコマンド入力値一覧" sheetId="28" r:id="rId5"/>
+    <sheet name="質疑22～25 自動作図" sheetId="30" r:id="rId5"/>
+    <sheet name="質疑26～30 円弧配列画面" sheetId="29" r:id="rId6"/>
+    <sheet name="質疑32~35 C表作成" sheetId="31" r:id="rId7"/>
+    <sheet name="No.36 FrameDataコマンド入力値一覧" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="635">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2602,164 +2606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>円弧配列　Template機能</t>
-    <rPh sb="0" eb="4">
-      <t>エンコハイレツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一部の画面にあるSize項目の「Speed」は速度カテゴリーが「ZR」となるときに「Z」を入力するっという認識でよろしいでしょうか？</t>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「Load index(S)」、「Load index(D)」、「PR」（プライレーティング）画面は1つの図面に付き何れかの1画面を使用するという認識でよろしいでしょうか。
-ロードインデックスとプライは表記方法が異なるが、示している内容は同じと認識しています。
-また、ロードインデックスのDは単輪と複輪があるときと認識しています。</t>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>イズ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>タンワ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AT-B図面登録画面のサイズ項目の「Suffx」（接尾）と「Ply（プライ）」はそれぞれロードインデックスと速度記号を入力する認識でよろしいでしょうか。</t>
-    <rPh sb="4" eb="6">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「LT」画面は使用しない場合があるという認識でよろしいでしょうか。
-小型トラック用のタイヤの場合に、納入国に沿って「LT」表記か「C」表記にするかを設定する画面と認識しています。</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コガタ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>ノウニュウコク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ソ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C表作成</t>
     <rPh sb="1" eb="4">
       <t>ヒョウサクセイ</t>
@@ -2777,129 +2623,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「PLY1」、「PLY2」（プライ）画面は使用する場合は1図面につきどちらか一方という認識でよろしいでしょうか。</t>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イッポウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>円弧配列、C表作成</t>
     <rPh sb="0" eb="4">
       <t>エンコハイレツ</t>
     </rPh>
     <rPh sb="6" eb="9">
       <t>ヒョウサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>円弧配列とC表作成の自動化の際の図面登録の扱いについてですが、下記(A)～（C)のどの認識でしょうか。
-（A)自動化内で図面登録を行う。
-（B)作図までを自動化にし、図面登録は使用者が完成図面確認後に別途コマンド実行。
-(C)自動化内で図面登録は行わないが、一時ファイルとして図面をローカルフォルダに保存する。</t>
-    <rPh sb="0" eb="4">
-      <t>エンコハイレツ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ヒョウサクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ジドウカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ズメントウロク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="56" eb="60">
-      <t>ジドウカナイ</t>
-    </rPh>
-    <rPh sb="61" eb="65">
-      <t>ズメントウロク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>サクズ</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ジドウカ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>ズメントウロク</t>
-    </rPh>
-    <rPh sb="89" eb="92">
-      <t>シヨウシャ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="95" eb="100">
-      <t>ズメンカクニンゴ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="119" eb="123">
-      <t>ズメントウロク</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Detail（ラベリング手動認識）機能は自動化には含まないという認識でよろしいでしょうか。</t>
-    <rPh sb="12" eb="16">
-      <t>シュドウニンシキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ジドウカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニンシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3663,6 +3392,1127 @@
     <t>ページタイトル19の内容</t>
     <rPh sb="10" eb="12">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>C表作成</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPLATE2サイズ画面</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPLATE2　LoadIndex(S)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMPLATE2　LoadIndex(D)・・・単輪と複輪</t>
+    <rPh sb="25" eb="27">
+      <t>タンワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認】
+改良要望「②　“Labeling Detail”の操作時、処理能力を向上させる」の後半部の「ラベリングが漏れて表のピクチャに転記されない」についてですが、機能を調査したところ機能開始時に設定ファイル「C_BrandSet.ini」の[syousai]-syousai_brand_no から詳細化対象のブランドNoを取得していることが判明しました。
+以前、円弧配列をレクチャーいただいた際にブランドNoは基本固定と伺っておりますので、現在手動で定義している編集文字のブランドNoを設定ファイルに追加することで解決できると考えているのですがいかがでしょうか。</t>
+    <rPh sb="7" eb="11">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="94" eb="99">
+      <t>キノウカイシジ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="152" eb="157">
+      <t>ショウサイカタイショウ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="186" eb="190">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ウカガ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認】
+図面登録機能に含まれるDOTの削除に関して。
+単独のDOTの作成・削除機能が移植対象となっていませんが、図面登録側のDOT削除機能は移植後も必要でしょうか。</t>
+    <rPh sb="7" eb="9">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>イショクタイショウ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>ズメントウロクガワ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>イショクゴ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+Detail（ラベリング手動認識）機能は自動化には含まないという認識でよろしいでしょうか。</t>
+    <rPh sb="24" eb="28">
+      <t>シュドウニンシキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+Platformマーク以外に図面によって作図の有無が変わる各種ラベリング定義機能はありますでしょうか。
+作図の有無が変わる場合、自動化の際に作図有無の情報が必要となるので確認させていただきたいです。</t>
+    <rPh sb="23" eb="25">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>テイギキノウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>サクズウム</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（Template機能）／仕様確認（自動化）】
+「LT」画面は使用しない場合があるという認識でよろしいでしょうか。
+小型トラック用のタイヤの場合に、納入国に沿って「LT」表記か「C」表記にするかを設定する画面と認識しています。</t>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>ノウニュウコク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【操作確認（Template機能）／仕様確認（自動化）】
+「PLY1」、「PLY2」（プライ）画面は使用する場合は1図面につきどちらか一方という認識でよろしいでしょうか。</t>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（A)円弧配列、C表作成を連続実行するコマンドを1つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(B)円弧配列を自動で行うコマンド＋C表作成を自動で行うコマンドの計2つのコマンド</t>
+  </si>
+  <si>
+    <t>【仕様確認（自動化）】
+円弧配列とC表作成の自動化の際の図面登録の扱いについてですが、下記(A)～（C)のどの認識でしょうか。
+（A)自動化内で図面登録を行う。
+（B)作図までを自動化にし、図面登録は使用者が完成図面確認後に別途図面登録コマンド実行。
+(C)自動化内で図面登録は行わないが、一時ファイルとして図面をローカルフォルダに保存する。</t>
+    <rPh sb="6" eb="9">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ジドウカナイ</t>
+    </rPh>
+    <rPh sb="73" eb="77">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="96" eb="100">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="107" eb="112">
+      <t>ズメンカクニンゴ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円周上の矢印マーク</t>
+    <rPh sb="0" eb="3">
+      <t>エンシュウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印マークの編集文字PIC</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（例）編集文字検索の場合</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤枠の検索条件だけでは、検索結果（緑枠）が複数ある。</t>
+    <rPh sb="0" eb="2">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケンサクジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミドリワク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動化の場合は「Height」等の青枠内の情報を使用して検索結果を一つに絞り込む必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アオワクナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【仕様確認（自動化）】
+円弧配列とC表作成の自動化に関して、下記のどちらの認識が正しいでしょうか。
+(A)円弧配列、C表作成を連続実行するコマンドを1つ
+(B)円弧配列を自動で行うコマンド＋C表作成を自動で行うコマンドの計2つのコマンド
+※シート「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">22～25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自動作図」を参照</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>レンゾクジッコウ</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【操作確認（Template機能）／仕様確認（自動化）】
+「Load index(S)」、「Load index(D)」、「PR」（プライレーティング）画面について。
+ロードインデックスは1つの図面に付き何れかの1画面を使用するという認識でよろしいでしょうか。
+また、プライレーティングは常に使用するという認識でよろしいでしょうか。
+ロードインデックスとプライレーティングは表記方法が異なるが、示している内容は同じと認識しています。
+また、ロードインデックスのDは単輪と複輪があるときと認識しています。
+※「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>26～30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 円弧配列画面」参照</t>
+    </r>
+    <rPh sb="18" eb="22">
+      <t>シヨウカクニン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>イズ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>タンワ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【操作確認（Template機能）】
+一部の画面にあるSize項目の「Speed」は速度カテゴリーが「ZR」となるときに「Z」を入力するという認識でよろしいでしょうか？
+※「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>26～30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 円弧配列画面」参照</t>
+    </r>
+    <rPh sb="0" eb="5">
+      <t>｢ソウサカクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【仕様確認（自動化）】
+円弧配列とC表作成の自動化において、作図に必要な情報は全て、事前に決定済みという認識でよろしいでしょうか。
+特に、円弧配列の編集文字、各種マーク類等でDB検索を行うものに関して、検索結果が1つに絞り込まれるレベルの情報は決定可能でしょうか。
+※シート「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">22～25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自動作図」を参照</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ケッテイズ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="102" eb="106">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="123" eb="127">
+      <t>ケッテイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【操作確認（図面登録）】
+AT-B図面登録画面のサイズ項目の「Suffx」（接尾）と「Ply（プライ）」はそれぞれロードインデックスと速度記号を入力する認識でよろしいでしょうか。
+※「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>26～30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 円弧配列画面」参照</t>
+    </r>
+    <rPh sb="6" eb="10">
+      <t>ズメントウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【仕様確認】
+改良要望③「“Labeling Detail”の操作時、ラベリングの転記先の表へ不要な形状発生を無くす」について。
+SafetyWarning画面で入力した番号の1～4が図面上の出力ではそれぞれL、T、M、Bとなっているようです。
+5以降の番号はそのまま出力されています。
+そこで確認ですが、「表へ不要な形状発生を無くす」とありますが、本件で問題となっているのは英字が出力されることで、数字の番号自体は出力されても問題ないという認識で良いでしょうか。
+または、番号の出力も取りやめるという認識でしょうか。
+※シート「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>32～35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> C表作成」を参照</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>ズメンジョウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ホンケン</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="204" eb="208">
+      <t>バンゴウジタイ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>【仕様確認】
+改良要望「④　“Drawing Pos.”の操作時、作成されたPlatformのマーク（雪マークもしくは矢印マーク）を図面に配置させる」について。
+矢印（DOM)の場合は、円周上に矢印マークが配置されているかをブランドNoでチェックし、配置されていればレイアウト上に表示していることが判明しました。
+雪（IO)には円周上にマークは配置されていないという認識でよろしいでしょうか。
+※シート「「質疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">32～35 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>C表作成」を参照</t>
+    </r>
+    <rPh sb="7" eb="11">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>エンシュウジョウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>エンシュウジョウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>ニンシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3680,7 +4530,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>xx</t>
+      <t>36</t>
     </r>
     <r>
       <rPr>
@@ -3799,153 +4649,137 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>円弧配列とC表作成の自動化において、作図に必要な情報は全て、事前に決定済みという認識でよろしいでしょうか。
-特に、円弧配列の編集文字、各種マーク類等でDB検索を行うものに関して、検索結果が1つに絞り込まれるレベルの情報は決定可能でしょうか。</t>
-    <rPh sb="18" eb="20">
-      <t>サクズ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ケッテイズ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="58" eb="62">
-      <t>エンコハイレツ</t>
-    </rPh>
-    <rPh sb="63" eb="67">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ルイ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="90" eb="94">
-      <t>ケンサクケッカ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="111" eb="115">
-      <t>ケッテイカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>改良要望③「“Labeling Detail”の操作時、ラベリングの転記先の表へ不要な形状発生を無くす」について。
-SafetyWarning画面で入力した番号の1～4が図面上の出力ではそれぞれL、T、M、Bとなっているようです。
-5以降の番号はそのまま出力されています。
-そこで確認ですが、「表へ不要な形状発生を無くす」とありますが、本件で問題となっているのは英字が出力されることで、数字の番号自体は出力されても問題ないという認識で良いでしょうか。
-または、番号の出力も取りやめるという認識でしょうか。</t>
-    <rPh sb="0" eb="4">
-      <t>カイリョウヨウボウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ズメンジョウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ホンケン</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="197" eb="201">
-      <t>バンゴウジタイ</t>
-    </rPh>
-    <rPh sb="202" eb="204">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="238" eb="239">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ニンシキ</t>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>＜質疑No.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>＞</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3954,7 +4788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4014,6 +4848,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4253,7 +5103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4452,11 +5302,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4474,51 +5345,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4893,61 +5719,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -5019,21 +5790,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6097,6 +6853,3158 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283788</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671512" y="733425"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ATB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表自動作図コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687200" y="1463115"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円弧配列機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687200" y="2274608"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表作成機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671512" y="3086100"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1849250" y="1118347"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1849250" y="1929840"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1849250" y="2741333"/>
+          <a:ext cx="0" cy="344767"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257799" y="733425"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ATB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面自動作図コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53787</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5273487" y="1463115"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円弧配列機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257799" y="2274608"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6421250" y="2274608"/>
+          <a:ext cx="14287" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077199" y="733425"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表自動作図コマンド実行</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549087</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129987</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD1CA3E-D688-440D-B53D-2A1F6518E8A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8092887" y="1463115"/>
+          <a:ext cx="2324100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表作成機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F6EF0-E8B6-470E-B255-78D94E7381F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077199" y="2274608"/>
+          <a:ext cx="2355476" cy="384922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6435537" y="1118347"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263337</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6435537" y="1929840"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45758</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9254937" y="1929840"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339537</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9254937" y="1118347"/>
+          <a:ext cx="0" cy="344768"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>231550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4657725"/>
+          <a:ext cx="4019550" cy="4994050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="5172074"/>
+          <a:ext cx="1314450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38099" y="7867649"/>
+          <a:ext cx="3800475" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552447</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="L 字 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="76198" y="5162549"/>
+          <a:ext cx="3905249" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58571"/>
+            <a:gd name="adj2" fmla="val 283868"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18190</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>237411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="6876190" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228598</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="L 字 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="742949" y="1543051"/>
+          <a:ext cx="2228849" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36076"/>
+            <a:gd name="adj2" fmla="val 87533"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676276" y="4200525"/>
+          <a:ext cx="3800474" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562476" y="4190999"/>
+          <a:ext cx="3000374" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線吹き出し 1 (枠付き) 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="2305050"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val -18097"/>
+            <a:gd name="adj4" fmla="val -72708"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質疑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.xx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>230124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2576513" y="2611374"/>
+          <a:ext cx="1052512" cy="1589151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="線吹き出し 1 (枠付き) 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="5400675"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val -33644"/>
+            <a:gd name="adj4" fmla="val -66458"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質疑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.xx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="714375"/>
+          <a:ext cx="3779520" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>230124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4543425" y="1662113"/>
+          <a:ext cx="5762626" cy="949261"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306051" y="1419225"/>
+          <a:ext cx="428624" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324758</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4286250"/>
+          <a:ext cx="3753758" cy="2470026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>324758</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344399" y="4286250"/>
+          <a:ext cx="3753759" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096251" y="3867149"/>
+          <a:ext cx="8315324" cy="3143251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>230124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7315200" y="5438775"/>
+          <a:ext cx="781051" cy="268224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170815</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7753350"/>
+          <a:ext cx="3599815" cy="3710940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105151" y="9353550"/>
+          <a:ext cx="628649" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>174498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="線吹き出し 1 (枠付き) 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="9696450"/>
+          <a:ext cx="1695450" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 560"/>
+            <a:gd name="adj4" fmla="val -41247"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ロードインデックスと速度記号を入力？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153187</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="304800"/>
+          <a:ext cx="5639587" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>267886</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>143120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="1552575"/>
+          <a:ext cx="8497486" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="1924049"/>
+          <a:ext cx="1543050" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>実行結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="1457325"/>
+          <a:ext cx="409575" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="1733550"/>
+          <a:ext cx="257175" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="線吹き出し 1 (枠付き) 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486774" y="619125"/>
+          <a:ext cx="1857375" cy="717423"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val 160697"/>
+            <a:gd name="adj4" fmla="val -20460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>処理内で意図的に数字を英字に変換している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>614920</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5848350"/>
+          <a:ext cx="8158720" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="7077075"/>
+          <a:ext cx="466725" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666991</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2109543" y="7972424"/>
+          <a:ext cx="1300648" cy="1257533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16667</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="7339013"/>
+          <a:ext cx="511967" cy="633411"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>581585</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>229197</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5848350"/>
+          <a:ext cx="4010585" cy="4277322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="5924550"/>
+          <a:ext cx="752475" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="線吹き出し 1 (枠付き) 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="7191375"/>
+          <a:ext cx="2381250" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49845"/>
+            <a:gd name="adj2" fmla="val 0"/>
+            <a:gd name="adj3" fmla="val -61159"/>
+            <a:gd name="adj4" fmla="val -48224"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>この番号で矢印マークが存在するかをチェックしている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6360,10 +10268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L40"/>
+  <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7044,21 +10952,23 @@
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23">
         <v>22</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>621</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44830</v>
+      </c>
       <c r="G26" s="9" t="s">
         <v>35</v>
       </c>
@@ -7072,21 +10982,23 @@
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23">
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E27" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="E27" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44830</v>
+      </c>
       <c r="G27" s="9" t="s">
         <v>35</v>
       </c>
@@ -7100,21 +11012,23 @@
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23">
         <v>24</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>626</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44830</v>
+      </c>
       <c r="G28" s="9" t="s">
         <v>35</v>
       </c>
@@ -7128,21 +11042,25 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23">
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="67">
+        <v>32</v>
+      </c>
       <c r="C29" s="9" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>456</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>609</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44830</v>
+      </c>
       <c r="G29" s="9" t="s">
         <v>35</v>
       </c>
@@ -7156,13 +11074,11 @@
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="20" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="20" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23">
         <v>26</v>
       </c>
-      <c r="B30" s="9">
-        <v>23</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
         <v>13</v>
       </c>
@@ -7170,9 +11086,11 @@
         <v>455</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>625</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44830</v>
+      </c>
       <c r="G30" s="9" t="s">
         <v>35</v>
       </c>
@@ -7192,15 +11110,17 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>612</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>455</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="F31" s="5">
+        <v>44830</v>
+      </c>
       <c r="G31" s="9" t="s">
         <v>35</v>
       </c>
@@ -7214,7 +11134,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>28</v>
       </c>
@@ -7223,12 +11143,14 @@
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>611</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44830</v>
+      </c>
       <c r="G32" s="9" t="s">
         <v>35</v>
       </c>
@@ -7242,21 +11164,23 @@
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="114" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="20" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>29</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>417</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>612</v>
+      </c>
+      <c r="F33" s="5">
+        <v>44830</v>
+      </c>
       <c r="G33" s="9" t="s">
         <v>35</v>
       </c>
@@ -7270,21 +11194,23 @@
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="20" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>30</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>417</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>627</v>
+      </c>
+      <c r="F34" s="5">
+        <v>44830</v>
+      </c>
       <c r="G34" s="9" t="s">
         <v>35</v>
       </c>
@@ -7298,21 +11224,23 @@
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="20" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="20" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>31</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>417</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F35" s="5"/>
+        <v>610</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44830</v>
+      </c>
       <c r="G35" s="9" t="s">
         <v>35</v>
       </c>
@@ -7326,401 +11254,514 @@
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>31</v>
+    <row r="36" spans="1:12" s="20" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23">
+        <v>32</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
+      <c r="C36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F36" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>32</v>
+    <row r="37" spans="1:12" s="20" customFormat="1" ht="199.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="23">
+        <v>33</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F37" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>33</v>
+    <row r="38" spans="1:12" s="20" customFormat="1" ht="156.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="23">
+        <v>34</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>34</v>
+    <row r="39" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="23">
+        <v>35</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
+      <c r="C39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F39" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="5"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+    <row r="40" spans="1:12" s="20" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="23">
+        <v>36</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F40" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
+      <c r="H40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="5"/>
       <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C41:C1048576 C18:C24">
-    <cfRule type="containsText" dxfId="75" priority="619" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C18:C24 C38:C1048576 C26:C36">
+    <cfRule type="containsText" dxfId="62" priority="643" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A32 L32 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21">
-    <cfRule type="expression" dxfId="74" priority="617">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A25 L37 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21 B30:B34 G30:L34 F31:F34 F37:J37 A26:L26 B40:L40 B27:L29 K38:L38 F38:I39 B35:L36 A41:L1048576 A27:A40">
+    <cfRule type="expression" dxfId="1" priority="641">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="618">
+    <cfRule type="expression" dxfId="0" priority="642">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="72" priority="132" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="61" priority="156" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17 I36:I38">
-    <cfRule type="expression" dxfId="71" priority="130">
+  <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17">
+    <cfRule type="expression" dxfId="60" priority="154">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="131">
+    <cfRule type="expression" dxfId="59" priority="155">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="69" priority="128">
+    <cfRule type="expression" dxfId="58" priority="152">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="129">
+    <cfRule type="expression" dxfId="57" priority="153">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="56" priority="96" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="55" priority="94">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="54" priority="95">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 B38:E38 J38 J26:J35 A36:A40 A39:L40 A33:F35">
-    <cfRule type="expression" dxfId="63" priority="65">
-      <formula>$I26="確認中"</formula>
+  <conditionalFormatting sqref="B37:D37 J38 B38:C39 E38:E39 J39:L39">
+    <cfRule type="expression" dxfId="52" priority="89">
+      <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$I26="済み"</formula>
+    <cfRule type="expression" dxfId="51" priority="90">
+      <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="高">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="50" priority="88" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31:F31 C25:E25 C26:F30">
-    <cfRule type="expression" dxfId="60" priority="62">
+  <conditionalFormatting sqref="C25:E25 C30:F30 C31:E34">
+    <cfRule type="expression" dxfId="49" priority="86">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="48" priority="87">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="58" priority="58">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="56" priority="56">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="51" priority="51">
+  <conditionalFormatting sqref="K37">
+    <cfRule type="expression" dxfId="47" priority="80">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="46" priority="81">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="49" priority="49">
+  <conditionalFormatting sqref="K19:L25">
+    <cfRule type="expression" dxfId="45" priority="73">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="44" priority="74">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="45" priority="45">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="43" priority="67">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="42" priority="68">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="39" priority="63">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="38" priority="64">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="37" priority="61">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="36" priority="62">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="35" priority="53">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="34" priority="54">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="32" priority="58">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="31" priority="55">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="30" priority="56">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="29" priority="51">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="27" priority="49">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="26" priority="50">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="25" priority="47">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="24" priority="48">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="23" priority="45">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H20">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="21" priority="43">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="20" priority="44">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="18" priority="42">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="17" priority="39">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="16" priority="40">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="15" priority="37">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="14" priority="38">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="13" priority="35">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="12" priority="36">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H25">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="11" priority="33">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="10" priority="34">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="9" priority="31">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="8" priority="32">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$I32="確認中"</formula>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="7" priority="29">
+      <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I32="済み"</formula>
+    <cfRule type="expression" dxfId="6" priority="30">
+      <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H35">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$I26="確認中"</formula>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="expression" dxfId="5" priority="15">
+      <formula>$I38="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I35">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$I26="済み"</formula>
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C46">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I46">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H46">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11287,10 +15328,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 B6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11298,13 +15339,149 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="66" t="s">
+        <v>613</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:S32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="M18" t="s">
+        <v>605</v>
+      </c>
+      <c r="S18" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="24" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>634</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>616</v>
+      </c>
+      <c r="N24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection activeCell="T21" sqref="T21"/>
+      <selection pane="topRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11319,64 +15496,64 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>442</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="47" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -11385,31 +15562,31 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="47" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -11417,89 +15594,89 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="47" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="47" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="47" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="47" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12" s="47" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -11507,61 +15684,61 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="47" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="47" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="47" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -11569,26 +15746,26 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="47" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="47" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -11597,45 +15774,45 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="47" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="47" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -11643,10 +15820,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="47" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -11655,13 +15832,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="47" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -11669,13 +15846,13 @@
     </row>
     <row r="24" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="47" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
@@ -11683,24 +15860,24 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="47" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="48" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="47" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -11709,28 +15886,28 @@
     </row>
     <row r="27" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -11739,13 +15916,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D29" s="47"/>
       <c r="E29" s="47"/>
@@ -11753,13 +15930,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
@@ -11767,13 +15944,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D31" s="47"/>
       <c r="E31" s="47"/>
@@ -11781,10 +15958,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="47" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C32" s="47">
         <v>2</v>
@@ -11795,13 +15972,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -11809,10 +15986,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="47" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C34" s="47">
         <v>2</v>
@@ -11823,13 +16000,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="47" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D35" s="47"/>
       <c r="E35" s="47"/>
@@ -11837,10 +16014,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="47" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -11849,10 +16026,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="47" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -11861,209 +16038,209 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="47" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="47" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="47" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="47" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="47" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="47" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="47" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="47" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="47" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F43" s="47"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="47" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F44" s="47"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="47" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="47" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="47" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="47" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="47" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="47" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="47" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F50" s="47"/>
     </row>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -22,7 +22,6 @@
     <sheet name="No.36 FrameDataコマンド入力値一覧" sheetId="28" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="643">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -4780,6 +4779,99 @@
     </r>
     <rPh sb="1" eb="3">
       <t>シツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>221025_円弧配列_C表メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（15行目）
+セリアルのオプションコードとは「Note/Year Sign」コマンドで入力する注記のことでしょうか。</t>
+    <rPh sb="3" eb="5">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（32行目）
+SNIとはどういったものでしょうか。</t>
+    <rPh sb="3" eb="5">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（31行目）
+UTQGはENoのようにグループ化（ブランドNoが29-A、29=Bのように分割）されている編集文字でしょうか。</t>
+    <rPh sb="3" eb="5">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（45行目）
+Safty　warningのエラーとはどういったものでしょうか。</t>
+    <rPh sb="3" eb="5">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートの仕様決定</t>
+    <rPh sb="7" eb="11">
+      <t>シヨウケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現システムで発生しているえSafty　warningのエラーを回避する仕様の決定</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTQGを詳細化する時に、3単語がバラバラになって詳細化されることがある件を回避する仕様に検討</t>
+    <rPh sb="36" eb="37">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5103,7 +5195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5254,11 +5346,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5278,6 +5391,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5287,47 +5406,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5790,6 +5873,21 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10268,15 +10366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L46"/>
+  <dimension ref="A3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="53" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="4" customWidth="1"/>
@@ -10291,11 +10389,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -10309,7 +10407,7 @@
       <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="52" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -10347,7 +10445,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" ht="142.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -10379,7 +10477,7 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10411,7 +10509,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" s="20" customFormat="1" ht="57" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10953,7 +11051,7 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="23">
+      <c r="A26" s="19">
         <v>22</v>
       </c>
       <c r="B26" s="9"/>
@@ -10983,7 +11081,7 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="23">
+      <c r="A27" s="19">
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
@@ -11013,7 +11111,7 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="23">
+      <c r="A28" s="19">
         <v>24</v>
       </c>
       <c r="B28" s="9"/>
@@ -11043,10 +11141,10 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="23">
+      <c r="A29" s="19">
         <v>25</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="51">
         <v>32</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -11075,7 +11173,7 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="23">
+      <c r="A30" s="19">
         <v>26</v>
       </c>
       <c r="B30" s="9"/>
@@ -11105,7 +11203,7 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="23">
+      <c r="A31" s="19">
         <v>27</v>
       </c>
       <c r="B31" s="9"/>
@@ -11135,7 +11233,7 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" s="20" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="23">
+      <c r="A32" s="19">
         <v>28</v>
       </c>
       <c r="B32" s="9"/>
@@ -11165,7 +11263,7 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="20" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23">
+      <c r="A33" s="19">
         <v>29</v>
       </c>
       <c r="B33" s="9"/>
@@ -11195,7 +11293,7 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="20" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="23">
+      <c r="A34" s="19">
         <v>30</v>
       </c>
       <c r="B34" s="9"/>
@@ -11225,7 +11323,7 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="23">
+      <c r="A35" s="19">
         <v>31</v>
       </c>
       <c r="B35" s="9"/>
@@ -11255,7 +11353,7 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="23">
+      <c r="A36" s="19">
         <v>32</v>
       </c>
       <c r="B36" s="9"/>
@@ -11285,7 +11383,7 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="199.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="23">
+      <c r="A37" s="19">
         <v>33</v>
       </c>
       <c r="B37" s="9"/>
@@ -11315,7 +11413,7 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="20" customFormat="1" ht="156.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="23">
+      <c r="A38" s="19">
         <v>34</v>
       </c>
       <c r="B38" s="9"/>
@@ -11345,7 +11443,7 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="23">
+      <c r="A39" s="19">
         <v>35</v>
       </c>
       <c r="B39" s="9"/>
@@ -11375,7 +11473,7 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" s="20" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="23">
+      <c r="A40" s="19">
         <v>36</v>
       </c>
       <c r="B40" s="9"/>
@@ -11404,78 +11502,128 @@
       <c r="K40" s="5"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+    <row r="41" spans="1:12" s="20" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="23">
         <v>36</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F41" s="5">
+        <v>44861</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="5"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
+    <row r="42" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="23">
         <v>37</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
+      <c r="D42" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F42" s="5">
+        <v>44861</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="5"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
+    <row r="43" spans="1:12" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="23">
         <v>38</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
+      <c r="D43" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F43" s="5">
+        <v>44861</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="5"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
+    <row r="44" spans="1:12" s="20" customFormat="1" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="23">
         <v>39</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
+      <c r="D44" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F44" s="5">
+        <v>44861</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="5"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+    <row r="45" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="19">
         <v>40</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>640</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -11484,14 +11632,16 @@
       <c r="K45" s="5"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+    <row r="46" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="19">
         <v>41</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>641</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -11500,268 +11650,414 @@
       <c r="K46" s="5"/>
       <c r="L46" s="9"/>
     </row>
+    <row r="47" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="19">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="19">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="19">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="19">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="19">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="19">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19">
+        <v>48</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="19">
+        <v>49</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="19">
+        <v>50</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C18:C24 C38:C1048576 C26:C36">
+  <conditionalFormatting sqref="C4 C6 C18:C24 C26:C36 C38:C1048576">
     <cfRule type="containsText" dxfId="62" priority="643" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A25 L37 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21 B30:B34 G30:L34 F31:F34 F37:J37 A26:L26 B40:L40 B27:L29 K38:L38 F38:I39 B35:L36 A41:L1048576 A27:A40">
-    <cfRule type="expression" dxfId="1" priority="641">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 B25 A20:A25 L37 J19:J25 K10:L10 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 D10:E10 A16:B17 D11:H17 A18:E19 B20:E20 B22:E24 B21:F21 B30:B34 G30:L34 F31:F34 F37:J37 A26:L26 B40:L40 B27:L29 K38:L38 F38:I39 B35:L36 A27:A40 A41:L1048576">
+    <cfRule type="expression" dxfId="61" priority="641">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="642">
+    <cfRule type="expression" dxfId="60" priority="642">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="61" priority="156" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="59" priority="156" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5 I6:I8 I11:I17">
-    <cfRule type="expression" dxfId="60" priority="154">
+    <cfRule type="expression" dxfId="58" priority="154">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="155">
+    <cfRule type="expression" dxfId="57" priority="155">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="58" priority="152">
+    <cfRule type="expression" dxfId="56" priority="152">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="153">
+    <cfRule type="expression" dxfId="55" priority="153">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C17">
-    <cfRule type="containsText" dxfId="56" priority="96" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="54" priority="96" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H8 J10 J7:L9 C7 H7 E7 B9:E9 C10:C17">
-    <cfRule type="expression" dxfId="55" priority="94">
+    <cfRule type="expression" dxfId="53" priority="94">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="95">
+    <cfRule type="expression" dxfId="52" priority="95">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="51" priority="91" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:D37 J38 B38:C39 E38:E39 J39:L39">
-    <cfRule type="expression" dxfId="52" priority="89">
+    <cfRule type="expression" dxfId="50" priority="89">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="90">
+    <cfRule type="expression" dxfId="49" priority="90">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="50" priority="88" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="88" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:E25 C30:F30 C31:E34">
-    <cfRule type="expression" dxfId="49" priority="86">
+    <cfRule type="expression" dxfId="47" priority="86">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="87">
+    <cfRule type="expression" dxfId="46" priority="87">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="47" priority="80">
+    <cfRule type="expression" dxfId="45" priority="80">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="81">
+    <cfRule type="expression" dxfId="44" priority="81">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L25">
-    <cfRule type="expression" dxfId="45" priority="73">
+    <cfRule type="expression" dxfId="43" priority="73">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="74">
+    <cfRule type="expression" dxfId="42" priority="74">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="43" priority="67">
+    <cfRule type="expression" dxfId="41" priority="67">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="68">
+    <cfRule type="expression" dxfId="40" priority="68">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="66">
+    <cfRule type="expression" dxfId="38" priority="66">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="39" priority="63">
+    <cfRule type="expression" dxfId="37" priority="63">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="64">
+    <cfRule type="expression" dxfId="36" priority="64">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="37" priority="61">
+    <cfRule type="expression" dxfId="35" priority="61">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="62">
+    <cfRule type="expression" dxfId="34" priority="62">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="35" priority="53">
+    <cfRule type="expression" dxfId="33" priority="53">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="54">
+    <cfRule type="expression" dxfId="32" priority="54">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="33" priority="57">
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="58">
+    <cfRule type="expression" dxfId="30" priority="58">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="31" priority="55">
+    <cfRule type="expression" dxfId="29" priority="55">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="56">
+    <cfRule type="expression" dxfId="28" priority="56">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="29" priority="51">
+    <cfRule type="expression" dxfId="27" priority="51">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52">
+    <cfRule type="expression" dxfId="26" priority="52">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:H9">
-    <cfRule type="expression" dxfId="27" priority="49">
+    <cfRule type="expression" dxfId="25" priority="49">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="50">
+    <cfRule type="expression" dxfId="24" priority="50">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="25" priority="47">
+    <cfRule type="expression" dxfId="23" priority="47">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="48">
+    <cfRule type="expression" dxfId="22" priority="48">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:H10">
-    <cfRule type="expression" dxfId="23" priority="45">
+    <cfRule type="expression" dxfId="21" priority="45">
       <formula>$I10="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="20" priority="46">
       <formula>$I10="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H20">
-    <cfRule type="expression" dxfId="21" priority="43">
+    <cfRule type="expression" dxfId="19" priority="43">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="18" priority="44">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="19" priority="41">
+    <cfRule type="expression" dxfId="17" priority="41">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="42">
+    <cfRule type="expression" dxfId="16" priority="42">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="17" priority="39">
+    <cfRule type="expression" dxfId="15" priority="39">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="40">
+    <cfRule type="expression" dxfId="14" priority="40">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="15" priority="37">
+    <cfRule type="expression" dxfId="13" priority="37">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="38">
+    <cfRule type="expression" dxfId="12" priority="38">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="expression" dxfId="13" priority="35">
+    <cfRule type="expression" dxfId="11" priority="35">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="36">
+    <cfRule type="expression" dxfId="10" priority="36">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H25">
-    <cfRule type="expression" dxfId="11" priority="33">
+    <cfRule type="expression" dxfId="9" priority="33">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="34">
+    <cfRule type="expression" dxfId="8" priority="34">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I25">
-    <cfRule type="expression" dxfId="9" priority="31">
+    <cfRule type="expression" dxfId="7" priority="31">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="32">
+    <cfRule type="expression" dxfId="6" priority="32">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="7" priority="29">
+    <cfRule type="expression" dxfId="5" priority="29">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="expression" dxfId="5" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$I38="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$I38="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C55">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I55">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H55">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11775,7 +12071,7 @@
   <dimension ref="M3:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11802,7 +12098,7 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F242" sqref="F195:F257"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11865,7 +12161,7 @@
         <v>407</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="59" t="s">
         <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -11884,7 +12180,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="53"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="27" t="s">
         <v>376</v>
       </c>
@@ -11901,7 +12197,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="54"/>
+      <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
@@ -11914,7 +12210,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="62" t="s">
         <v>404</v>
       </c>
     </row>
@@ -11927,7 +12223,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="56"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
@@ -11938,7 +12234,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="57"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -11967,7 +12263,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -11977,7 +12273,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="59" t="s">
         <v>401</v>
       </c>
       <c r="F16" t="s">
@@ -11985,7 +12281,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="26" t="s">
         <v>65</v>
       </c>
@@ -11993,13 +12289,13 @@
         <v>74</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="53"/>
+      <c r="E17" s="60"/>
       <c r="F17" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="26" t="s">
         <v>66</v>
       </c>
@@ -12007,13 +12303,13 @@
         <v>75</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="53"/>
+      <c r="E18" s="60"/>
       <c r="F18" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="62"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="26" t="s">
         <v>67</v>
       </c>
@@ -12021,10 +12317,10 @@
         <v>76</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="53"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="26" t="s">
         <v>68</v>
       </c>
@@ -12032,10 +12328,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="53"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="26" t="s">
         <v>69</v>
       </c>
@@ -12043,10 +12339,10 @@
         <v>80</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="62"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="26" t="s">
         <v>70</v>
       </c>
@@ -12054,10 +12350,10 @@
         <v>81</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="62"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="26" t="s">
         <v>71</v>
       </c>
@@ -12065,10 +12361,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="26" t="s">
         <v>72</v>
       </c>
@@ -12076,10 +12372,10 @@
         <v>83</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="53"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="65" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -12089,13 +12385,13 @@
         <v>84</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="53"/>
+      <c r="E25" s="60"/>
       <c r="F25" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="26" t="s">
         <v>65</v>
       </c>
@@ -12103,13 +12399,13 @@
         <v>85</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="53"/>
+      <c r="E26" s="60"/>
       <c r="F26" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="26" t="s">
         <v>66</v>
       </c>
@@ -12117,10 +12413,10 @@
         <v>86</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="53"/>
+      <c r="E27" s="60"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="26" t="s">
         <v>67</v>
       </c>
@@ -12128,10 +12424,10 @@
         <v>77</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="53"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="26" t="s">
         <v>68</v>
       </c>
@@ -12139,10 +12435,10 @@
         <v>90</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="53"/>
+      <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="26" t="s">
         <v>69</v>
       </c>
@@ -12150,10 +12446,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="26" t="s">
         <v>70</v>
       </c>
@@ -12161,10 +12457,10 @@
         <v>87</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="53"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="26" t="s">
         <v>71</v>
       </c>
@@ -12172,10 +12468,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="26" t="s">
         <v>72</v>
       </c>
@@ -12183,7 +12479,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="54"/>
+      <c r="E33" s="61"/>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -12211,7 +12507,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -12221,12 +12517,12 @@
         <v>92</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="62" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="64"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
@@ -12234,10 +12530,10 @@
         <v>93</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="64"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
@@ -12245,10 +12541,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="63"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="64"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
@@ -12256,10 +12552,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="56"/>
+      <c r="E41" s="63"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="64"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
@@ -12267,10 +12563,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="56"/>
+      <c r="E42" s="63"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="64"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="26" t="s">
         <v>70</v>
       </c>
@@ -12278,10 +12574,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="56"/>
+      <c r="E43" s="63"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="64"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="26" t="s">
         <v>71</v>
       </c>
@@ -12289,10 +12585,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="56"/>
+      <c r="E44" s="63"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="64"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="26" t="s">
         <v>72</v>
       </c>
@@ -12300,10 +12596,10 @@
         <v>100</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="56"/>
+      <c r="E45" s="63"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="64"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="26" t="s">
         <v>101</v>
       </c>
@@ -12311,10 +12607,10 @@
         <v>99</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="57"/>
+      <c r="E46" s="64"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="56" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -12327,7 +12623,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="64"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="26" t="s">
         <v>65</v>
       </c>
@@ -12338,7 +12634,7 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="64"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="26" t="s">
         <v>66</v>
       </c>
@@ -12349,7 +12645,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="64"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="26" t="s">
         <v>67</v>
       </c>
@@ -12360,7 +12656,7 @@
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="64"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
@@ -12371,7 +12667,7 @@
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="64"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="26" t="s">
         <v>69</v>
       </c>
@@ -12382,7 +12678,7 @@
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="64"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="26" t="s">
         <v>70</v>
       </c>
@@ -12393,7 +12689,7 @@
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="64"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="26" t="s">
         <v>71</v>
       </c>
@@ -12404,7 +12700,7 @@
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="64"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
@@ -12460,14 +12756,14 @@
         <v>402</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="62" t="s">
         <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
-      <c r="H63" s="55" t="s">
+      <c r="H63" s="62" t="s">
         <v>406</v>
       </c>
     </row>
@@ -12480,12 +12776,12 @@
         <v>138</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="56"/>
+      <c r="E64" s="63"/>
       <c r="F64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G64" s="29"/>
-      <c r="H64" s="56"/>
+      <c r="H64" s="63"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
@@ -12496,12 +12792,12 @@
         <v>139</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="56"/>
+      <c r="E65" s="63"/>
       <c r="F65" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="29"/>
-      <c r="H65" s="56"/>
+      <c r="H65" s="63"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="26" t="s">
@@ -12512,12 +12808,12 @@
         <v>140</v>
       </c>
       <c r="D66" s="33"/>
-      <c r="E66" s="56"/>
+      <c r="E66" s="63"/>
       <c r="F66" s="26" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="56"/>
+      <c r="H66" s="63"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="26" t="s">
@@ -12528,12 +12824,12 @@
         <v>141</v>
       </c>
       <c r="D67" s="33"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="63"/>
       <c r="F67" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="56"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="26" t="s">
@@ -12544,12 +12840,12 @@
         <v>142</v>
       </c>
       <c r="D68" s="33"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G68" s="29"/>
-      <c r="H68" s="56"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="26" t="s">
@@ -12562,12 +12858,12 @@
         <v>143</v>
       </c>
       <c r="D69" s="33"/>
-      <c r="E69" s="56"/>
+      <c r="E69" s="63"/>
       <c r="F69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="56"/>
+      <c r="H69" s="63"/>
       <c r="I69" s="27" t="s">
         <v>380</v>
       </c>
@@ -12581,12 +12877,12 @@
         <v>144</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="56"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="56"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="26" t="s">
@@ -12597,12 +12893,12 @@
         <v>145</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="56"/>
+      <c r="E71" s="63"/>
       <c r="F71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="56"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="26" t="s">
@@ -12613,12 +12909,12 @@
         <v>146</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" s="56"/>
+      <c r="E72" s="63"/>
       <c r="F72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="56"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="26" t="s">
@@ -12629,12 +12925,12 @@
         <v>147</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="63"/>
       <c r="F73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="56"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="26" t="s">
@@ -12645,12 +12941,12 @@
         <v>148</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="56"/>
+      <c r="E74" s="63"/>
       <c r="F74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G74" s="29"/>
-      <c r="H74" s="56"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="26" t="s">
@@ -12661,12 +12957,12 @@
         <v>149</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="56"/>
+      <c r="E75" s="63"/>
       <c r="F75" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="26" t="s">
@@ -12677,12 +12973,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="56"/>
+      <c r="E76" s="63"/>
       <c r="F76" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="56"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="26" t="s">
@@ -12693,12 +12989,12 @@
         <v>151</v>
       </c>
       <c r="D77" s="33"/>
-      <c r="E77" s="56"/>
+      <c r="E77" s="63"/>
       <c r="F77" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="56"/>
+      <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="26" t="s">
@@ -12709,12 +13005,12 @@
         <v>152</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="56"/>
+      <c r="E78" s="63"/>
       <c r="F78" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="56"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="26" t="s">
@@ -12725,12 +13021,12 @@
         <v>153</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="56"/>
+      <c r="E79" s="63"/>
       <c r="F79" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="56"/>
+      <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="26" t="s">
@@ -12741,12 +13037,12 @@
         <v>154</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="56"/>
+      <c r="E80" s="63"/>
       <c r="F80" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="56"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="26" t="s">
@@ -12757,12 +13053,12 @@
         <v>155</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="56"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="56"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
@@ -12773,12 +13069,12 @@
         <v>156</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="56"/>
+      <c r="E82" s="63"/>
       <c r="F82" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="56"/>
+      <c r="H82" s="63"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="26" t="s">
@@ -12789,12 +13085,12 @@
         <v>157</v>
       </c>
       <c r="D83" s="33"/>
-      <c r="E83" s="56"/>
+      <c r="E83" s="63"/>
       <c r="F83" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="56"/>
+      <c r="H83" s="63"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="26" t="s">
@@ -12805,12 +13101,12 @@
         <v>158</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" s="56"/>
+      <c r="E84" s="63"/>
       <c r="F84" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="56"/>
+      <c r="H84" s="63"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="26" t="s">
@@ -12821,12 +13117,12 @@
         <v>159</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" s="56"/>
+      <c r="E85" s="63"/>
       <c r="F85" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="56"/>
+      <c r="H85" s="63"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="26" t="s">
@@ -12837,12 +13133,12 @@
         <v>160</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="56"/>
+      <c r="E86" s="63"/>
       <c r="F86" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="56"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
@@ -12853,12 +13149,12 @@
         <v>161</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="56"/>
+      <c r="E87" s="63"/>
       <c r="F87" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="29"/>
-      <c r="H87" s="56"/>
+      <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
@@ -12869,12 +13165,12 @@
         <v>162</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="56"/>
+      <c r="E88" s="63"/>
       <c r="F88" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="56"/>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
@@ -12885,12 +13181,12 @@
         <v>163</v>
       </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="56"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G89" s="29"/>
-      <c r="H89" s="56"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
@@ -12901,12 +13197,12 @@
         <v>164</v>
       </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="56"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="H90" s="56"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
@@ -12917,12 +13213,12 @@
         <v>165</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="56"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="56"/>
+      <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
@@ -12933,12 +13229,12 @@
         <v>166</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="56"/>
+      <c r="E92" s="63"/>
       <c r="F92" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G92" s="29"/>
-      <c r="H92" s="56"/>
+      <c r="H92" s="63"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
@@ -12949,12 +13245,12 @@
         <v>167</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" s="56"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="56"/>
+      <c r="H93" s="63"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="26" t="s">
@@ -12965,12 +13261,12 @@
         <v>168</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" s="56"/>
+      <c r="E94" s="63"/>
       <c r="F94" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="56"/>
+      <c r="H94" s="63"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="26" t="s">
@@ -12981,12 +13277,12 @@
         <v>169</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" s="56"/>
+      <c r="E95" s="63"/>
       <c r="F95" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="56"/>
+      <c r="H95" s="63"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
@@ -12997,12 +13293,12 @@
         <v>170</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="56"/>
+      <c r="E96" s="63"/>
       <c r="F96" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G96" s="29"/>
-      <c r="H96" s="56"/>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="26" t="s">
@@ -13013,12 +13309,12 @@
         <v>171</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="57"/>
+      <c r="E97" s="64"/>
       <c r="F97" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="57"/>
+      <c r="H97" s="64"/>
     </row>
     <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
@@ -13045,7 +13341,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="63" t="s">
+      <c r="A103" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="35" t="s">
@@ -13055,7 +13351,7 @@
         <v>392</v>
       </c>
       <c r="D103" s="37"/>
-      <c r="E103" s="58" t="s">
+      <c r="E103" s="67" t="s">
         <v>427</v>
       </c>
       <c r="F103" t="s">
@@ -13063,7 +13359,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="64"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="26" t="s">
         <v>180</v>
       </c>
@@ -13071,10 +13367,10 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="59"/>
+      <c r="E104" s="68"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="64"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="26" t="s">
         <v>181</v>
       </c>
@@ -13082,13 +13378,13 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="59"/>
+      <c r="E105" s="68"/>
       <c r="F105" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="64"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="26" t="s">
         <v>182</v>
       </c>
@@ -13096,13 +13392,13 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="59"/>
+      <c r="E106" s="68"/>
       <c r="F106" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="64"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="26" t="s">
         <v>183</v>
       </c>
@@ -13110,13 +13406,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="59"/>
+      <c r="E107" s="68"/>
       <c r="F107" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="64"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -13124,13 +13420,13 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="59"/>
+      <c r="E108" s="68"/>
       <c r="F108" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="64"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -13138,10 +13434,10 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="59"/>
+      <c r="E109" s="68"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="64"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
@@ -13149,10 +13445,10 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="59"/>
+      <c r="E110" s="68"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="64"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="26" t="s">
         <v>185</v>
       </c>
@@ -13160,10 +13456,10 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="59"/>
+      <c r="E111" s="68"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="64"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="26" t="s">
         <v>190</v>
       </c>
@@ -13171,10 +13467,10 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="59"/>
+      <c r="E112" s="68"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="64"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="26" t="s">
         <v>191</v>
       </c>
@@ -13182,10 +13478,10 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="59"/>
+      <c r="E113" s="68"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="64"/>
+      <c r="A114" s="56"/>
       <c r="B114" s="26" t="s">
         <v>188</v>
       </c>
@@ -13193,10 +13489,10 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="59"/>
+      <c r="E114" s="68"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="64"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="26" t="s">
         <v>189</v>
       </c>
@@ -13204,10 +13500,10 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="59"/>
+      <c r="E115" s="68"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="64"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="26" t="s">
         <v>192</v>
       </c>
@@ -13215,10 +13511,10 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="59"/>
+      <c r="E116" s="68"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="64"/>
+      <c r="A117" s="56"/>
       <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
@@ -13226,10 +13522,10 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="59"/>
+      <c r="E117" s="68"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="64"/>
+      <c r="A118" s="56"/>
       <c r="B118" s="26" t="s">
         <v>194</v>
       </c>
@@ -13237,10 +13533,10 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="59"/>
+      <c r="E118" s="68"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="64"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="26" t="s">
         <v>195</v>
       </c>
@@ -13248,10 +13544,10 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="59"/>
+      <c r="E119" s="68"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="64"/>
+      <c r="A120" s="56"/>
       <c r="B120" s="26" t="s">
         <v>196</v>
       </c>
@@ -13259,7 +13555,7 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="60"/>
+      <c r="E120" s="69"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
@@ -13496,10 +13792,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A185" s="64" t="s">
+      <c r="A185" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="64" t="s">
+      <c r="B185" s="56" t="s">
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
@@ -13509,7 +13805,7 @@
         <v>381</v>
       </c>
       <c r="E185" s="33"/>
-      <c r="F185" s="61" t="s">
+      <c r="F185" s="65" t="s">
         <v>430</v>
       </c>
       <c r="G185" t="s">
@@ -13517,8 +13813,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A186" s="64"/>
-      <c r="B186" s="64"/>
+      <c r="A186" s="56"/>
+      <c r="B186" s="56"/>
       <c r="C186" s="26" t="s">
         <v>381</v>
       </c>
@@ -13526,11 +13822,11 @@
         <v>428</v>
       </c>
       <c r="E186" s="26"/>
-      <c r="F186" s="62"/>
+      <c r="F186" s="66"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A187" s="64"/>
-      <c r="B187" s="64" t="s">
+      <c r="A187" s="56"/>
+      <c r="B187" s="56" t="s">
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
@@ -13540,11 +13836,11 @@
         <v>381</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="62"/>
+      <c r="F187" s="66"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A188" s="64"/>
-      <c r="B188" s="64"/>
+      <c r="A188" s="56"/>
+      <c r="B188" s="56"/>
       <c r="C188" s="26" t="s">
         <v>381</v>
       </c>
@@ -13552,11 +13848,11 @@
         <v>353</v>
       </c>
       <c r="E188" s="33"/>
-      <c r="F188" s="62"/>
+      <c r="F188" s="66"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A189" s="64"/>
-      <c r="B189" s="64"/>
+      <c r="A189" s="56"/>
+      <c r="B189" s="56"/>
       <c r="C189" s="26" t="s">
         <v>381</v>
       </c>
@@ -13564,11 +13860,11 @@
         <v>354</v>
       </c>
       <c r="E189" s="33"/>
-      <c r="F189" s="62"/>
+      <c r="F189" s="66"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A190" s="64"/>
-      <c r="B190" s="64"/>
+      <c r="A190" s="56"/>
+      <c r="B190" s="56"/>
       <c r="C190" s="26" t="s">
         <v>381</v>
       </c>
@@ -13576,7 +13872,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="63"/>
+      <c r="F190" s="57"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
@@ -13604,10 +13900,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A195" s="64" t="s">
+      <c r="A195" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="65" t="s">
+      <c r="B195" s="58" t="s">
         <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
@@ -13615,7 +13911,7 @@
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="52" t="s">
+      <c r="F195" s="59" t="s">
         <v>431</v>
       </c>
       <c r="G195" t="s">
@@ -13623,38 +13919,38 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A196" s="64"/>
-      <c r="B196" s="65"/>
+      <c r="A196" s="56"/>
+      <c r="B196" s="58"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
         <v>347</v>
       </c>
       <c r="E196" s="39"/>
-      <c r="F196" s="53"/>
+      <c r="F196" s="60"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A197" s="64"/>
-      <c r="B197" s="65"/>
+      <c r="A197" s="56"/>
+      <c r="B197" s="58"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>348</v>
       </c>
       <c r="E197" s="39"/>
-      <c r="F197" s="53"/>
+      <c r="F197" s="60"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A198" s="64"/>
-      <c r="B198" s="65"/>
+      <c r="A198" s="56"/>
+      <c r="B198" s="58"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
         <v>349</v>
       </c>
       <c r="E198" s="39"/>
-      <c r="F198" s="53"/>
+      <c r="F198" s="60"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A199" s="64"/>
-      <c r="B199" s="64" t="s">
+      <c r="A199" s="56"/>
+      <c r="B199" s="56" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
@@ -13662,41 +13958,41 @@
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="53"/>
+      <c r="F199" s="60"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A200" s="64"/>
-      <c r="B200" s="64"/>
+      <c r="A200" s="56"/>
+      <c r="B200" s="56"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="53"/>
+      <c r="F200" s="60"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="64"/>
-      <c r="B201" s="64"/>
+      <c r="A201" s="56"/>
+      <c r="B201" s="56"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="53"/>
+      <c r="F201" s="60"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A202" s="64"/>
-      <c r="B202" s="64"/>
+      <c r="A202" s="56"/>
+      <c r="B202" s="56"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="53"/>
+      <c r="F202" s="60"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A203" s="64"/>
-      <c r="B203" s="64" t="s">
+      <c r="A203" s="56"/>
+      <c r="B203" s="56" t="s">
         <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
@@ -13704,41 +14000,41 @@
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="53"/>
+      <c r="F203" s="60"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A204" s="64"/>
-      <c r="B204" s="64"/>
+      <c r="A204" s="56"/>
+      <c r="B204" s="56"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="53"/>
+      <c r="F204" s="60"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A205" s="64"/>
-      <c r="B205" s="64"/>
+      <c r="A205" s="56"/>
+      <c r="B205" s="56"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="53"/>
+      <c r="F205" s="60"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A206" s="64"/>
-      <c r="B206" s="64"/>
+      <c r="A206" s="56"/>
+      <c r="B206" s="56"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="53"/>
+      <c r="F206" s="60"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A207" s="64"/>
-      <c r="B207" s="64" t="s">
+      <c r="A207" s="56"/>
+      <c r="B207" s="56" t="s">
         <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
@@ -13746,41 +14042,41 @@
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="53"/>
+      <c r="F207" s="60"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A208" s="64"/>
-      <c r="B208" s="64"/>
+      <c r="A208" s="56"/>
+      <c r="B208" s="56"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="53"/>
+      <c r="F208" s="60"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" s="64"/>
-      <c r="B209" s="64"/>
+      <c r="A209" s="56"/>
+      <c r="B209" s="56"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="53"/>
+      <c r="F209" s="60"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" s="64"/>
-      <c r="B210" s="64"/>
+      <c r="A210" s="56"/>
+      <c r="B210" s="56"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="53"/>
+      <c r="F210" s="60"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" s="64"/>
-      <c r="B211" s="64" t="s">
+      <c r="A211" s="56"/>
+      <c r="B211" s="56" t="s">
         <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -13788,31 +14084,31 @@
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="53"/>
+      <c r="F211" s="60"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" s="64"/>
-      <c r="B212" s="64"/>
+      <c r="A212" s="56"/>
+      <c r="B212" s="56"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="53"/>
+      <c r="F212" s="60"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" s="64"/>
-      <c r="B213" s="64"/>
+      <c r="A213" s="56"/>
+      <c r="B213" s="56"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="53"/>
+      <c r="F213" s="60"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" s="64"/>
-      <c r="B214" s="64" t="s">
+      <c r="A214" s="56"/>
+      <c r="B214" s="56" t="s">
         <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
@@ -13820,21 +14116,21 @@
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="53"/>
+      <c r="F214" s="60"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="64"/>
-      <c r="B215" s="64"/>
+      <c r="A215" s="56"/>
+      <c r="B215" s="56"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="53"/>
+      <c r="F215" s="60"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="64"/>
-      <c r="B216" s="64" t="s">
+      <c r="A216" s="56"/>
+      <c r="B216" s="56" t="s">
         <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
@@ -13842,41 +14138,41 @@
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="53"/>
+      <c r="F216" s="60"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="64"/>
-      <c r="B217" s="64"/>
+      <c r="A217" s="56"/>
+      <c r="B217" s="56"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="53"/>
+      <c r="F217" s="60"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" s="64"/>
-      <c r="B218" s="64"/>
+      <c r="A218" s="56"/>
+      <c r="B218" s="56"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="53"/>
+      <c r="F218" s="60"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" s="64"/>
-      <c r="B219" s="64"/>
+      <c r="A219" s="56"/>
+      <c r="B219" s="56"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="53"/>
+      <c r="F219" s="60"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" s="64"/>
-      <c r="B220" s="64" t="s">
+      <c r="A220" s="56"/>
+      <c r="B220" s="56" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
@@ -13884,41 +14180,41 @@
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="53"/>
+      <c r="F220" s="60"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" s="64"/>
-      <c r="B221" s="64"/>
+      <c r="A221" s="56"/>
+      <c r="B221" s="56"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="53"/>
+      <c r="F221" s="60"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" s="64"/>
-      <c r="B222" s="64"/>
+      <c r="A222" s="56"/>
+      <c r="B222" s="56"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="53"/>
+      <c r="F222" s="60"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="64"/>
-      <c r="B223" s="64"/>
+      <c r="A223" s="56"/>
+      <c r="B223" s="56"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="53"/>
+      <c r="F223" s="60"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" s="64"/>
-      <c r="B224" s="64" t="s">
+      <c r="A224" s="56"/>
+      <c r="B224" s="56" t="s">
         <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
@@ -13926,41 +14222,41 @@
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="53"/>
+      <c r="F224" s="60"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A225" s="64"/>
-      <c r="B225" s="64"/>
+      <c r="A225" s="56"/>
+      <c r="B225" s="56"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="53"/>
+      <c r="F225" s="60"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A226" s="64"/>
-      <c r="B226" s="64"/>
+      <c r="A226" s="56"/>
+      <c r="B226" s="56"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="53"/>
+      <c r="F226" s="60"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A227" s="64"/>
-      <c r="B227" s="64"/>
+      <c r="A227" s="56"/>
+      <c r="B227" s="56"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="53"/>
+      <c r="F227" s="60"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A228" s="64"/>
-      <c r="B228" s="64" t="s">
+      <c r="A228" s="56"/>
+      <c r="B228" s="56" t="s">
         <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
@@ -13968,41 +14264,41 @@
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="53"/>
+      <c r="F228" s="60"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A229" s="64"/>
-      <c r="B229" s="64"/>
+      <c r="A229" s="56"/>
+      <c r="B229" s="56"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="53"/>
+      <c r="F229" s="60"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A230" s="64"/>
-      <c r="B230" s="64"/>
+      <c r="A230" s="56"/>
+      <c r="B230" s="56"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="53"/>
+      <c r="F230" s="60"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A231" s="64"/>
-      <c r="B231" s="64"/>
+      <c r="A231" s="56"/>
+      <c r="B231" s="56"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="53"/>
+      <c r="F231" s="60"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A232" s="64"/>
-      <c r="B232" s="64" t="s">
+      <c r="A232" s="56"/>
+      <c r="B232" s="56" t="s">
         <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
@@ -14010,31 +14306,31 @@
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="53"/>
+      <c r="F232" s="60"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A233" s="64"/>
-      <c r="B233" s="64"/>
+      <c r="A233" s="56"/>
+      <c r="B233" s="56"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="53"/>
+      <c r="F233" s="60"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A234" s="64"/>
-      <c r="B234" s="64"/>
+      <c r="A234" s="56"/>
+      <c r="B234" s="56"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="53"/>
+      <c r="F234" s="60"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A235" s="64"/>
-      <c r="B235" s="64" t="s">
+      <c r="A235" s="56"/>
+      <c r="B235" s="56" t="s">
         <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
@@ -14042,17 +14338,17 @@
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="53"/>
+      <c r="F235" s="60"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A236" s="64"/>
-      <c r="B236" s="64"/>
+      <c r="A236" s="56"/>
+      <c r="B236" s="56"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="54"/>
+      <c r="F236" s="61"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
@@ -14089,7 +14385,7 @@
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="52" t="s">
+      <c r="F242" s="59" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14101,7 +14397,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="53"/>
+      <c r="F243" s="60"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
@@ -14111,7 +14407,7 @@
         <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="53"/>
+      <c r="F244" s="60"/>
       <c r="G244" t="s">
         <v>383</v>
       </c>
@@ -14124,7 +14420,7 @@
         <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="53"/>
+      <c r="F245" s="60"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
@@ -14136,7 +14432,7 @@
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="53"/>
+      <c r="F246" s="60"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
@@ -14146,7 +14442,7 @@
         <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="53"/>
+      <c r="F247" s="60"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
@@ -14156,7 +14452,7 @@
         <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="53"/>
+      <c r="F248" s="60"/>
       <c r="G248" t="s">
         <v>383</v>
       </c>
@@ -14169,7 +14465,7 @@
         <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="53"/>
+      <c r="F249" s="60"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
@@ -14181,7 +14477,7 @@
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="53"/>
+      <c r="F250" s="60"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
@@ -14191,7 +14487,7 @@
         <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="53"/>
+      <c r="F251" s="60"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
@@ -14201,7 +14497,7 @@
         <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="53"/>
+      <c r="F252" s="60"/>
       <c r="G252" t="s">
         <v>383</v>
       </c>
@@ -14214,7 +14510,7 @@
         <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="53"/>
+      <c r="F253" s="60"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
@@ -14226,7 +14522,7 @@
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="53"/>
+      <c r="F254" s="60"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
@@ -14236,7 +14532,7 @@
         <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="53"/>
+      <c r="F255" s="60"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
@@ -14246,7 +14542,7 @@
         <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="53"/>
+      <c r="F256" s="60"/>
       <c r="G256" t="s">
         <v>383</v>
       </c>
@@ -14259,7 +14555,7 @@
         <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="54"/>
+      <c r="F257" s="61"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
@@ -14285,10 +14581,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A262" s="64" t="s">
+      <c r="A262" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B262" s="64" t="s">
+      <c r="B262" s="56" t="s">
         <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -14296,43 +14592,43 @@
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="52" t="s">
+      <c r="F262" s="59" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A263" s="64"/>
-      <c r="B263" s="64"/>
+      <c r="A263" s="56"/>
+      <c r="B263" s="56"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
         <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="53"/>
+      <c r="F263" s="60"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A264" s="64"/>
-      <c r="B264" s="64"/>
+      <c r="A264" s="56"/>
+      <c r="B264" s="56"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="53"/>
+      <c r="F264" s="60"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A265" s="64"/>
-      <c r="B265" s="64"/>
+      <c r="A265" s="56"/>
+      <c r="B265" s="56"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
         <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="53"/>
+      <c r="F265" s="60"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A266" s="64"/>
-      <c r="B266" s="64" t="s">
+      <c r="A266" s="56"/>
+      <c r="B266" s="56" t="s">
         <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
@@ -14340,41 +14636,41 @@
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="53"/>
+      <c r="F266" s="60"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A267" s="64"/>
-      <c r="B267" s="64"/>
+      <c r="A267" s="56"/>
+      <c r="B267" s="56"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="53"/>
+      <c r="F267" s="60"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A268" s="64"/>
-      <c r="B268" s="64"/>
+      <c r="A268" s="56"/>
+      <c r="B268" s="56"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
         <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="53"/>
+      <c r="F268" s="60"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A269" s="64"/>
-      <c r="B269" s="64"/>
+      <c r="A269" s="56"/>
+      <c r="B269" s="56"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
         <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="53"/>
+      <c r="F269" s="60"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A270" s="64"/>
-      <c r="B270" s="64" t="s">
+      <c r="A270" s="56"/>
+      <c r="B270" s="56" t="s">
         <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
@@ -14382,41 +14678,41 @@
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="53"/>
+      <c r="F270" s="60"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A271" s="64"/>
-      <c r="B271" s="64"/>
+      <c r="A271" s="56"/>
+      <c r="B271" s="56"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="53"/>
+      <c r="F271" s="60"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A272" s="64"/>
-      <c r="B272" s="64"/>
+      <c r="A272" s="56"/>
+      <c r="B272" s="56"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
         <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="53"/>
+      <c r="F272" s="60"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="64"/>
-      <c r="B273" s="64"/>
+      <c r="A273" s="56"/>
+      <c r="B273" s="56"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="53"/>
+      <c r="F273" s="60"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="64"/>
-      <c r="B274" s="64" t="s">
+      <c r="A274" s="56"/>
+      <c r="B274" s="56" t="s">
         <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
@@ -14424,41 +14720,41 @@
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="53"/>
+      <c r="F274" s="60"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="64"/>
-      <c r="B275" s="64"/>
+      <c r="A275" s="56"/>
+      <c r="B275" s="56"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="53"/>
+      <c r="F275" s="60"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="64"/>
-      <c r="B276" s="64"/>
+      <c r="A276" s="56"/>
+      <c r="B276" s="56"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
         <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="53"/>
+      <c r="F276" s="60"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="64"/>
-      <c r="B277" s="64"/>
+      <c r="A277" s="56"/>
+      <c r="B277" s="56"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="53"/>
+      <c r="F277" s="60"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="64"/>
-      <c r="B278" s="64" t="s">
+      <c r="A278" s="56"/>
+      <c r="B278" s="56" t="s">
         <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
@@ -14466,21 +14762,21 @@
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="53"/>
+      <c r="F278" s="60"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="64"/>
-      <c r="B279" s="64"/>
+      <c r="A279" s="56"/>
+      <c r="B279" s="56"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="53"/>
+      <c r="F279" s="60"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="64"/>
-      <c r="B280" s="64" t="s">
+      <c r="A280" s="56"/>
+      <c r="B280" s="56" t="s">
         <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
@@ -14488,21 +14784,21 @@
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="53"/>
+      <c r="F280" s="60"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="64"/>
-      <c r="B281" s="64"/>
+      <c r="A281" s="56"/>
+      <c r="B281" s="56"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
         <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="53"/>
+      <c r="F281" s="60"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="64"/>
-      <c r="B282" s="64" t="s">
+      <c r="A282" s="56"/>
+      <c r="B282" s="56" t="s">
         <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
@@ -14510,21 +14806,21 @@
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="53"/>
+      <c r="F282" s="60"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="64"/>
-      <c r="B283" s="64"/>
+      <c r="A283" s="56"/>
+      <c r="B283" s="56"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="53"/>
+      <c r="F283" s="60"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="64"/>
-      <c r="B284" s="64" t="s">
+      <c r="A284" s="56"/>
+      <c r="B284" s="56" t="s">
         <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
@@ -14532,21 +14828,21 @@
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="53"/>
+      <c r="F284" s="60"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="64"/>
-      <c r="B285" s="64"/>
+      <c r="A285" s="56"/>
+      <c r="B285" s="56"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
         <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="53"/>
+      <c r="F285" s="60"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="64"/>
-      <c r="B286" s="64" t="s">
+      <c r="A286" s="56"/>
+      <c r="B286" s="56" t="s">
         <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
@@ -14554,17 +14850,17 @@
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="53"/>
+      <c r="F286" s="60"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="64"/>
-      <c r="B287" s="64"/>
+      <c r="A287" s="56"/>
+      <c r="B287" s="56"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
         <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="54"/>
+      <c r="F287" s="61"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
@@ -14601,7 +14897,7 @@
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="52" t="s">
+      <c r="F293" s="59" t="s">
         <v>434</v>
       </c>
       <c r="G293" t="s">
@@ -14616,7 +14912,7 @@
         <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="53"/>
+      <c r="F294" s="60"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
@@ -14628,7 +14924,7 @@
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="53"/>
+      <c r="F295" s="60"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
@@ -14638,7 +14934,7 @@
         <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="53"/>
+      <c r="F296" s="60"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
@@ -14648,7 +14944,7 @@
         <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="53"/>
+      <c r="F297" s="60"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
@@ -14660,7 +14956,7 @@
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="53"/>
+      <c r="F298" s="60"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
@@ -14670,7 +14966,7 @@
         <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="53"/>
+      <c r="F299" s="60"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
@@ -14680,7 +14976,7 @@
         <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="53"/>
+      <c r="F300" s="60"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
@@ -14690,7 +14986,7 @@
         <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="53"/>
+      <c r="F301" s="60"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
@@ -14704,7 +15000,7 @@
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="53"/>
+      <c r="F302" s="60"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
@@ -14714,7 +15010,7 @@
         <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="53"/>
+      <c r="F303" s="60"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
@@ -14726,7 +15022,7 @@
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="53"/>
+      <c r="F304" s="60"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
@@ -14736,7 +15032,7 @@
         <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="53"/>
+      <c r="F305" s="60"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
@@ -14746,7 +15042,7 @@
         <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="53"/>
+      <c r="F306" s="60"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
@@ -14758,7 +15054,7 @@
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="53"/>
+      <c r="F307" s="60"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
@@ -14768,7 +15064,7 @@
         <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="53"/>
+      <c r="F308" s="60"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
@@ -14778,7 +15074,7 @@
         <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="53"/>
+      <c r="F309" s="60"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
@@ -14788,7 +15084,7 @@
         <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="53"/>
+      <c r="F310" s="60"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
@@ -14802,7 +15098,7 @@
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="53"/>
+      <c r="F311" s="60"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
@@ -14812,7 +15108,7 @@
         <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="53"/>
+      <c r="F312" s="60"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
@@ -14824,7 +15120,7 @@
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="53"/>
+      <c r="F313" s="60"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
@@ -14834,7 +15130,7 @@
         <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="53"/>
+      <c r="F314" s="60"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
@@ -14844,7 +15140,7 @@
         <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="53"/>
+      <c r="F315" s="60"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
@@ -14856,7 +15152,7 @@
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="53"/>
+      <c r="F316" s="60"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
@@ -14866,7 +15162,7 @@
         <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="53"/>
+      <c r="F317" s="60"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
@@ -14876,7 +15172,7 @@
         <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="53"/>
+      <c r="F318" s="60"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
@@ -14886,7 +15182,7 @@
         <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="53"/>
+      <c r="F319" s="60"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
@@ -14900,7 +15196,7 @@
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="53"/>
+      <c r="F320" s="60"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
@@ -14910,7 +15206,7 @@
         <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="53"/>
+      <c r="F321" s="60"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
@@ -14922,7 +15218,7 @@
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="53"/>
+      <c r="F322" s="60"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
@@ -14932,7 +15228,7 @@
         <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="53"/>
+      <c r="F323" s="60"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
@@ -14942,7 +15238,7 @@
         <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="53"/>
+      <c r="F324" s="60"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
@@ -14954,7 +15250,7 @@
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="53"/>
+      <c r="F325" s="60"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
@@ -14964,7 +15260,7 @@
         <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="53"/>
+      <c r="F326" s="60"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
@@ -14974,7 +15270,7 @@
         <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="53"/>
+      <c r="F327" s="60"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
@@ -14988,7 +15284,7 @@
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="53"/>
+      <c r="F328" s="60"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
@@ -14998,7 +15294,7 @@
         <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="53"/>
+      <c r="F329" s="60"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
@@ -15008,7 +15304,7 @@
         <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="53"/>
+      <c r="F330" s="60"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
@@ -15022,7 +15318,7 @@
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="53"/>
+      <c r="F331" s="60"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
@@ -15032,7 +15328,7 @@
         <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="53"/>
+      <c r="F332" s="60"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
@@ -15044,7 +15340,7 @@
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="53"/>
+      <c r="F333" s="60"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
@@ -15054,7 +15350,7 @@
         <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="53"/>
+      <c r="F334" s="60"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
@@ -15066,7 +15362,7 @@
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="53"/>
+      <c r="F335" s="60"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
@@ -15076,7 +15372,7 @@
         <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="53"/>
+      <c r="F336" s="60"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
@@ -15088,7 +15384,7 @@
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="53"/>
+      <c r="F337" s="60"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
@@ -15098,7 +15394,7 @@
         <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="54"/>
+      <c r="F338" s="61"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
@@ -15125,7 +15421,7 @@
         <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="52" t="s">
+      <c r="D344" s="59" t="s">
         <v>435</v>
       </c>
     </row>
@@ -15137,7 +15433,7 @@
         <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="53"/>
+      <c r="D345" s="60"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
@@ -15147,7 +15443,7 @@
         <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="53"/>
+      <c r="D346" s="60"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
@@ -15157,10 +15453,38 @@
         <v>340</v>
       </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="54"/>
+      <c r="D347" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="F262:F287"/>
+    <mergeCell ref="F293:F338"/>
+    <mergeCell ref="D344:D347"/>
+    <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="F195:F236"/>
+    <mergeCell ref="F242:F257"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E63:E97"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="E16:E33"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A103:A120"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A236"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B185:B186"/>
     <mergeCell ref="B286:B287"/>
     <mergeCell ref="B284:B285"/>
     <mergeCell ref="B280:B281"/>
@@ -15177,34 +15501,6 @@
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="B211:B213"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="A103:A120"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A236"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E63:E97"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="E16:E33"/>
-    <mergeCell ref="F262:F287"/>
-    <mergeCell ref="F293:F338"/>
-    <mergeCell ref="D344:D347"/>
-    <mergeCell ref="H63:H97"/>
-    <mergeCell ref="E103:E120"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="F195:F236"/>
-    <mergeCell ref="F242:F257"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15217,7 +15513,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15328,10 +15624,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 B6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15339,13 +15635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15356,10 +15649,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="50" t="s">
         <v>614</v>
       </c>
     </row>
@@ -15392,13 +15685,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15435,12 +15725,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15471,17 +15760,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="T21" sqref="T21"/>
-      <selection pane="topRight" activeCell="T21" sqref="T21"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection activeCell="A21" sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="A21" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/質疑表/TOYOTIRE_質疑表_山本.xlsx
+++ b/質疑表/TOYOTIRE_質疑表_山本.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="643">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -5364,15 +5364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5391,12 +5382,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5404,6 +5389,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10368,8 +10368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12161,7 +12161,7 @@
         <v>407</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="56" t="s">
         <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
@@ -12180,7 +12180,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="60"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="27" t="s">
         <v>376</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="33"/>
-      <c r="E8" s="61"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="26" t="s">
@@ -12210,7 +12210,7 @@
         <v>385</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>404</v>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="63"/>
+      <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="26"/>
@@ -12234,7 +12234,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="33"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="61"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
@@ -12273,7 +12273,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="33"/>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="56" t="s">
         <v>401</v>
       </c>
       <c r="F16" t="s">
@@ -12289,7 +12289,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="33"/>
-      <c r="E17" s="60"/>
+      <c r="E17" s="57"/>
       <c r="F17" t="s">
         <v>387</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="60"/>
+      <c r="E18" s="57"/>
       <c r="F18" t="s">
         <v>388</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>76</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="60"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="66"/>
@@ -12328,7 +12328,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="60"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="66"/>
@@ -12339,7 +12339,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="33"/>
-      <c r="E21" s="60"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="66"/>
@@ -12350,7 +12350,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="33"/>
-      <c r="E22" s="60"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="66"/>
@@ -12361,10 +12361,10 @@
         <v>82</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="60"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="57"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="26" t="s">
         <v>72</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="60"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="65" t="s">
@@ -12385,7 +12385,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="60"/>
+      <c r="E25" s="57"/>
       <c r="F25" t="s">
         <v>390</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="60"/>
+      <c r="E26" s="57"/>
       <c r="F26" t="s">
         <v>389</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>86</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="60"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="66"/>
@@ -12424,7 +12424,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="60"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="66"/>
@@ -12435,7 +12435,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="60"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="66"/>
@@ -12446,7 +12446,7 @@
         <v>78</v>
       </c>
       <c r="D30" s="33"/>
-      <c r="E30" s="60"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="66"/>
@@ -12457,7 +12457,7 @@
         <v>87</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="60"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="66"/>
@@ -12468,10 +12468,10 @@
         <v>88</v>
       </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="60"/>
+      <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="57"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="26" t="s">
         <v>72</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="61"/>
+      <c r="E33" s="58"/>
     </row>
     <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="24" t="s">
@@ -12507,7 +12507,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="68" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -12517,12 +12517,12 @@
         <v>92</v>
       </c>
       <c r="D38" s="33"/>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="59" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
@@ -12530,10 +12530,10 @@
         <v>93</v>
       </c>
       <c r="D39" s="33"/>
-      <c r="E39" s="63"/>
+      <c r="E39" s="60"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="56"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="26" t="s">
         <v>66</v>
       </c>
@@ -12541,10 +12541,10 @@
         <v>94</v>
       </c>
       <c r="D40" s="33"/>
-      <c r="E40" s="63"/>
+      <c r="E40" s="60"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="56"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="26" t="s">
         <v>67</v>
       </c>
@@ -12552,10 +12552,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="33"/>
-      <c r="E41" s="63"/>
+      <c r="E41" s="60"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="56"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="26" t="s">
         <v>69</v>
       </c>
@@ -12563,10 +12563,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="33"/>
-      <c r="E42" s="63"/>
+      <c r="E42" s="60"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="56"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="26" t="s">
         <v>70</v>
       </c>
@@ -12574,10 +12574,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="63"/>
+      <c r="E43" s="60"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="56"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="26" t="s">
         <v>71</v>
       </c>
@@ -12585,10 +12585,10 @@
         <v>98</v>
       </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="63"/>
+      <c r="E44" s="60"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="56"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="26" t="s">
         <v>72</v>
       </c>
@@ -12596,10 +12596,10 @@
         <v>100</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="63"/>
+      <c r="E45" s="60"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="56"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="26" t="s">
         <v>101</v>
       </c>
@@ -12607,10 +12607,10 @@
         <v>99</v>
       </c>
       <c r="D46" s="33"/>
-      <c r="E46" s="64"/>
+      <c r="E46" s="61"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="68" t="s">
         <v>91</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -12623,7 +12623,7 @@
       <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="56"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="26" t="s">
         <v>65</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="56"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="26" t="s">
         <v>66</v>
       </c>
@@ -12645,7 +12645,7 @@
       <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="56"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="26" t="s">
         <v>67</v>
       </c>
@@ -12656,7 +12656,7 @@
       <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="56"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="26" t="s">
         <v>68</v>
       </c>
@@ -12667,7 +12667,7 @@
       <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="56"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="26" t="s">
         <v>69</v>
       </c>
@@ -12678,7 +12678,7 @@
       <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="56"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="26" t="s">
         <v>70</v>
       </c>
@@ -12689,7 +12689,7 @@
       <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="56"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="26" t="s">
         <v>71</v>
       </c>
@@ -12700,7 +12700,7 @@
       <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="56"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="26" t="s">
         <v>72</v>
       </c>
@@ -12756,14 +12756,14 @@
         <v>402</v>
       </c>
       <c r="D63" s="33"/>
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="59" t="s">
         <v>403</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>173</v>
       </c>
       <c r="G63" s="33"/>
-      <c r="H63" s="62" t="s">
+      <c r="H63" s="59" t="s">
         <v>406</v>
       </c>
     </row>
@@ -12776,12 +12776,12 @@
         <v>138</v>
       </c>
       <c r="D64" s="33"/>
-      <c r="E64" s="63"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G64" s="29"/>
-      <c r="H64" s="63"/>
+      <c r="H64" s="60"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="26" t="s">
@@ -12792,12 +12792,12 @@
         <v>139</v>
       </c>
       <c r="D65" s="33"/>
-      <c r="E65" s="63"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="29" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="29"/>
-      <c r="H65" s="63"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="26" t="s">
@@ -12808,12 +12808,12 @@
         <v>140</v>
       </c>
       <c r="D66" s="33"/>
-      <c r="E66" s="63"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="26" t="s">
         <v>176</v>
       </c>
       <c r="G66" s="33"/>
-      <c r="H66" s="63"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="26" t="s">
@@ -12824,12 +12824,12 @@
         <v>141</v>
       </c>
       <c r="D67" s="33"/>
-      <c r="E67" s="63"/>
+      <c r="E67" s="60"/>
       <c r="F67" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="29"/>
-      <c r="H67" s="63"/>
+      <c r="H67" s="60"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="26" t="s">
@@ -12840,12 +12840,12 @@
         <v>142</v>
       </c>
       <c r="D68" s="33"/>
-      <c r="E68" s="63"/>
+      <c r="E68" s="60"/>
       <c r="F68" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G68" s="29"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="60"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="26" t="s">
@@ -12858,12 +12858,12 @@
         <v>143</v>
       </c>
       <c r="D69" s="33"/>
-      <c r="E69" s="63"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="29"/>
-      <c r="H69" s="63"/>
+      <c r="H69" s="60"/>
       <c r="I69" s="27" t="s">
         <v>380</v>
       </c>
@@ -12877,12 +12877,12 @@
         <v>144</v>
       </c>
       <c r="D70" s="33"/>
-      <c r="E70" s="63"/>
+      <c r="E70" s="60"/>
       <c r="F70" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="63"/>
+      <c r="H70" s="60"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="26" t="s">
@@ -12893,12 +12893,12 @@
         <v>145</v>
       </c>
       <c r="D71" s="33"/>
-      <c r="E71" s="63"/>
+      <c r="E71" s="60"/>
       <c r="F71" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="29"/>
-      <c r="H71" s="63"/>
+      <c r="H71" s="60"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="26" t="s">
@@ -12909,12 +12909,12 @@
         <v>146</v>
       </c>
       <c r="D72" s="33"/>
-      <c r="E72" s="63"/>
+      <c r="E72" s="60"/>
       <c r="F72" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G72" s="29"/>
-      <c r="H72" s="63"/>
+      <c r="H72" s="60"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="26" t="s">
@@ -12925,12 +12925,12 @@
         <v>147</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="E73" s="63"/>
+      <c r="E73" s="60"/>
       <c r="F73" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="29"/>
-      <c r="H73" s="63"/>
+      <c r="H73" s="60"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="26" t="s">
@@ -12941,12 +12941,12 @@
         <v>148</v>
       </c>
       <c r="D74" s="33"/>
-      <c r="E74" s="63"/>
+      <c r="E74" s="60"/>
       <c r="F74" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G74" s="29"/>
-      <c r="H74" s="63"/>
+      <c r="H74" s="60"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="26" t="s">
@@ -12957,12 +12957,12 @@
         <v>149</v>
       </c>
       <c r="D75" s="33"/>
-      <c r="E75" s="63"/>
+      <c r="E75" s="60"/>
       <c r="F75" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="63"/>
+      <c r="H75" s="60"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="26" t="s">
@@ -12973,12 +12973,12 @@
         <v>150</v>
       </c>
       <c r="D76" s="33"/>
-      <c r="E76" s="63"/>
+      <c r="E76" s="60"/>
       <c r="F76" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="63"/>
+      <c r="H76" s="60"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="26" t="s">
@@ -12989,12 +12989,12 @@
         <v>151</v>
       </c>
       <c r="D77" s="33"/>
-      <c r="E77" s="63"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="63"/>
+      <c r="H77" s="60"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="26" t="s">
@@ -13005,12 +13005,12 @@
         <v>152</v>
       </c>
       <c r="D78" s="33"/>
-      <c r="E78" s="63"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="63"/>
+      <c r="H78" s="60"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="26" t="s">
@@ -13021,12 +13021,12 @@
         <v>153</v>
       </c>
       <c r="D79" s="33"/>
-      <c r="E79" s="63"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="29"/>
-      <c r="H79" s="63"/>
+      <c r="H79" s="60"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="26" t="s">
@@ -13037,12 +13037,12 @@
         <v>154</v>
       </c>
       <c r="D80" s="33"/>
-      <c r="E80" s="63"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="63"/>
+      <c r="H80" s="60"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="26" t="s">
@@ -13053,12 +13053,12 @@
         <v>155</v>
       </c>
       <c r="D81" s="33"/>
-      <c r="E81" s="63"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="63"/>
+      <c r="H81" s="60"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="26" t="s">
@@ -13069,12 +13069,12 @@
         <v>156</v>
       </c>
       <c r="D82" s="33"/>
-      <c r="E82" s="63"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="63"/>
+      <c r="H82" s="60"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="26" t="s">
@@ -13085,12 +13085,12 @@
         <v>157</v>
       </c>
       <c r="D83" s="33"/>
-      <c r="E83" s="63"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="63"/>
+      <c r="H83" s="60"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="26" t="s">
@@ -13101,12 +13101,12 @@
         <v>158</v>
       </c>
       <c r="D84" s="33"/>
-      <c r="E84" s="63"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="63"/>
+      <c r="H84" s="60"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="26" t="s">
@@ -13117,12 +13117,12 @@
         <v>159</v>
       </c>
       <c r="D85" s="33"/>
-      <c r="E85" s="63"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="63"/>
+      <c r="H85" s="60"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="26" t="s">
@@ -13133,12 +13133,12 @@
         <v>160</v>
       </c>
       <c r="D86" s="33"/>
-      <c r="E86" s="63"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="63"/>
+      <c r="H86" s="60"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="26" t="s">
@@ -13149,12 +13149,12 @@
         <v>161</v>
       </c>
       <c r="D87" s="33"/>
-      <c r="E87" s="63"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G87" s="29"/>
-      <c r="H87" s="63"/>
+      <c r="H87" s="60"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="26" t="s">
@@ -13165,12 +13165,12 @@
         <v>162</v>
       </c>
       <c r="D88" s="33"/>
-      <c r="E88" s="63"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="63"/>
+      <c r="H88" s="60"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="26" t="s">
@@ -13181,12 +13181,12 @@
         <v>163</v>
       </c>
       <c r="D89" s="33"/>
-      <c r="E89" s="63"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G89" s="29"/>
-      <c r="H89" s="63"/>
+      <c r="H89" s="60"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="26" t="s">
@@ -13197,12 +13197,12 @@
         <v>164</v>
       </c>
       <c r="D90" s="33"/>
-      <c r="E90" s="63"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G90" s="29"/>
-      <c r="H90" s="63"/>
+      <c r="H90" s="60"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="26" t="s">
@@ -13213,12 +13213,12 @@
         <v>165</v>
       </c>
       <c r="D91" s="33"/>
-      <c r="E91" s="63"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G91" s="29"/>
-      <c r="H91" s="63"/>
+      <c r="H91" s="60"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="26" t="s">
@@ -13229,12 +13229,12 @@
         <v>166</v>
       </c>
       <c r="D92" s="33"/>
-      <c r="E92" s="63"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G92" s="29"/>
-      <c r="H92" s="63"/>
+      <c r="H92" s="60"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="26" t="s">
@@ -13245,12 +13245,12 @@
         <v>167</v>
       </c>
       <c r="D93" s="33"/>
-      <c r="E93" s="63"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="63"/>
+      <c r="H93" s="60"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="26" t="s">
@@ -13261,12 +13261,12 @@
         <v>168</v>
       </c>
       <c r="D94" s="33"/>
-      <c r="E94" s="63"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="63"/>
+      <c r="H94" s="60"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="26" t="s">
@@ -13277,12 +13277,12 @@
         <v>169</v>
       </c>
       <c r="D95" s="33"/>
-      <c r="E95" s="63"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="63"/>
+      <c r="H95" s="60"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="26" t="s">
@@ -13293,12 +13293,12 @@
         <v>170</v>
       </c>
       <c r="D96" s="33"/>
-      <c r="E96" s="63"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="29" t="s">
         <v>176</v>
       </c>
       <c r="G96" s="29"/>
-      <c r="H96" s="63"/>
+      <c r="H96" s="60"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="26" t="s">
@@ -13309,12 +13309,12 @@
         <v>171</v>
       </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="64"/>
+      <c r="E97" s="61"/>
       <c r="F97" s="26" t="s">
         <v>177</v>
       </c>
       <c r="G97" s="33"/>
-      <c r="H97" s="64"/>
+      <c r="H97" s="61"/>
     </row>
     <row r="101" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
@@ -13341,7 +13341,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="67" t="s">
         <v>61</v>
       </c>
       <c r="B103" s="35" t="s">
@@ -13351,7 +13351,7 @@
         <v>392</v>
       </c>
       <c r="D103" s="37"/>
-      <c r="E103" s="67" t="s">
+      <c r="E103" s="62" t="s">
         <v>427</v>
       </c>
       <c r="F103" t="s">
@@ -13359,7 +13359,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="56"/>
+      <c r="A104" s="68"/>
       <c r="B104" s="26" t="s">
         <v>180</v>
       </c>
@@ -13367,10 +13367,10 @@
         <v>197</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="68"/>
+      <c r="E104" s="63"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="56"/>
+      <c r="A105" s="68"/>
       <c r="B105" s="26" t="s">
         <v>181</v>
       </c>
@@ -13378,13 +13378,13 @@
         <v>198</v>
       </c>
       <c r="D105" s="33"/>
-      <c r="E105" s="68"/>
+      <c r="E105" s="63"/>
       <c r="F105" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="56"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="26" t="s">
         <v>182</v>
       </c>
@@ -13392,13 +13392,13 @@
         <v>199</v>
       </c>
       <c r="D106" s="33"/>
-      <c r="E106" s="68"/>
+      <c r="E106" s="63"/>
       <c r="F106" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="56"/>
+      <c r="A107" s="68"/>
       <c r="B107" s="26" t="s">
         <v>183</v>
       </c>
@@ -13406,13 +13406,13 @@
         <v>200</v>
       </c>
       <c r="D107" s="33"/>
-      <c r="E107" s="68"/>
+      <c r="E107" s="63"/>
       <c r="F107" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="56"/>
+      <c r="A108" s="68"/>
       <c r="B108" s="26" t="s">
         <v>186</v>
       </c>
@@ -13420,13 +13420,13 @@
         <v>201</v>
       </c>
       <c r="D108" s="33"/>
-      <c r="E108" s="68"/>
+      <c r="E108" s="63"/>
       <c r="F108" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="56"/>
+      <c r="A109" s="68"/>
       <c r="B109" s="26" t="s">
         <v>187</v>
       </c>
@@ -13434,10 +13434,10 @@
         <v>202</v>
       </c>
       <c r="D109" s="33"/>
-      <c r="E109" s="68"/>
+      <c r="E109" s="63"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="56"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="26" t="s">
         <v>184</v>
       </c>
@@ -13445,10 +13445,10 @@
         <v>203</v>
       </c>
       <c r="D110" s="33"/>
-      <c r="E110" s="68"/>
+      <c r="E110" s="63"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="56"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="26" t="s">
         <v>185</v>
       </c>
@@ -13456,10 +13456,10 @@
         <v>204</v>
       </c>
       <c r="D111" s="33"/>
-      <c r="E111" s="68"/>
+      <c r="E111" s="63"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="56"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="26" t="s">
         <v>190</v>
       </c>
@@ -13467,10 +13467,10 @@
         <v>205</v>
       </c>
       <c r="D112" s="33"/>
-      <c r="E112" s="68"/>
+      <c r="E112" s="63"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="56"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="26" t="s">
         <v>191</v>
       </c>
@@ -13478,10 +13478,10 @@
         <v>206</v>
       </c>
       <c r="D113" s="33"/>
-      <c r="E113" s="68"/>
+      <c r="E113" s="63"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="56"/>
+      <c r="A114" s="68"/>
       <c r="B114" s="26" t="s">
         <v>188</v>
       </c>
@@ -13489,10 +13489,10 @@
         <v>207</v>
       </c>
       <c r="D114" s="33"/>
-      <c r="E114" s="68"/>
+      <c r="E114" s="63"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="56"/>
+      <c r="A115" s="68"/>
       <c r="B115" s="26" t="s">
         <v>189</v>
       </c>
@@ -13500,10 +13500,10 @@
         <v>208</v>
       </c>
       <c r="D115" s="33"/>
-      <c r="E115" s="68"/>
+      <c r="E115" s="63"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="56"/>
+      <c r="A116" s="68"/>
       <c r="B116" s="26" t="s">
         <v>192</v>
       </c>
@@ -13511,10 +13511,10 @@
         <v>209</v>
       </c>
       <c r="D116" s="33"/>
-      <c r="E116" s="68"/>
+      <c r="E116" s="63"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="56"/>
+      <c r="A117" s="68"/>
       <c r="B117" s="26" t="s">
         <v>193</v>
       </c>
@@ -13522,10 +13522,10 @@
         <v>210</v>
       </c>
       <c r="D117" s="33"/>
-      <c r="E117" s="68"/>
+      <c r="E117" s="63"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="56"/>
+      <c r="A118" s="68"/>
       <c r="B118" s="26" t="s">
         <v>194</v>
       </c>
@@ -13533,10 +13533,10 @@
         <v>211</v>
       </c>
       <c r="D118" s="33"/>
-      <c r="E118" s="68"/>
+      <c r="E118" s="63"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="56"/>
+      <c r="A119" s="68"/>
       <c r="B119" s="26" t="s">
         <v>195</v>
       </c>
@@ -13544,10 +13544,10 @@
         <v>212</v>
       </c>
       <c r="D119" s="33"/>
-      <c r="E119" s="68"/>
+      <c r="E119" s="63"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="56"/>
+      <c r="A120" s="68"/>
       <c r="B120" s="26" t="s">
         <v>196</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>213</v>
       </c>
       <c r="D120" s="33"/>
-      <c r="E120" s="69"/>
+      <c r="E120" s="64"/>
     </row>
     <row r="124" spans="1:5" ht="24" x14ac:dyDescent="0.4">
       <c r="A124" s="24" t="s">
@@ -13792,10 +13792,10 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A185" s="56" t="s">
+      <c r="A185" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="B185" s="56" t="s">
+      <c r="B185" s="68" t="s">
         <v>257</v>
       </c>
       <c r="C185" s="26" t="s">
@@ -13813,8 +13813,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A186" s="56"/>
-      <c r="B186" s="56"/>
+      <c r="A186" s="68"/>
+      <c r="B186" s="68"/>
       <c r="C186" s="26" t="s">
         <v>381</v>
       </c>
@@ -13825,8 +13825,8 @@
       <c r="F186" s="66"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A187" s="56"/>
-      <c r="B187" s="56" t="s">
+      <c r="A187" s="68"/>
+      <c r="B187" s="68" t="s">
         <v>258</v>
       </c>
       <c r="C187" s="26" t="s">
@@ -13839,8 +13839,8 @@
       <c r="F187" s="66"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A188" s="56"/>
-      <c r="B188" s="56"/>
+      <c r="A188" s="68"/>
+      <c r="B188" s="68"/>
       <c r="C188" s="26" t="s">
         <v>381</v>
       </c>
@@ -13851,8 +13851,8 @@
       <c r="F188" s="66"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A189" s="56"/>
-      <c r="B189" s="56"/>
+      <c r="A189" s="68"/>
+      <c r="B189" s="68"/>
       <c r="C189" s="26" t="s">
         <v>381</v>
       </c>
@@ -13863,8 +13863,8 @@
       <c r="F189" s="66"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A190" s="56"/>
-      <c r="B190" s="56"/>
+      <c r="A190" s="68"/>
+      <c r="B190" s="68"/>
       <c r="C190" s="26" t="s">
         <v>381</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>355</v>
       </c>
       <c r="E190" s="33"/>
-      <c r="F190" s="57"/>
+      <c r="F190" s="67"/>
     </row>
     <row r="193" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A193" s="24" t="s">
@@ -13900,10 +13900,10 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A195" s="56" t="s">
+      <c r="A195" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B195" s="58" t="s">
+      <c r="B195" s="69" t="s">
         <v>274</v>
       </c>
       <c r="C195" s="26" t="s">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="33"/>
-      <c r="F195" s="59" t="s">
+      <c r="F195" s="56" t="s">
         <v>431</v>
       </c>
       <c r="G195" t="s">
@@ -13919,38 +13919,38 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A196" s="56"/>
-      <c r="B196" s="58"/>
+      <c r="A196" s="68"/>
+      <c r="B196" s="69"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26" t="s">
         <v>347</v>
       </c>
       <c r="E196" s="39"/>
-      <c r="F196" s="60"/>
+      <c r="F196" s="57"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A197" s="56"/>
-      <c r="B197" s="58"/>
+      <c r="A197" s="68"/>
+      <c r="B197" s="69"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
         <v>348</v>
       </c>
       <c r="E197" s="39"/>
-      <c r="F197" s="60"/>
+      <c r="F197" s="57"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A198" s="56"/>
-      <c r="B198" s="58"/>
+      <c r="A198" s="68"/>
+      <c r="B198" s="69"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26" t="s">
         <v>349</v>
       </c>
       <c r="E198" s="39"/>
-      <c r="F198" s="60"/>
+      <c r="F198" s="57"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A199" s="56"/>
-      <c r="B199" s="56" t="s">
+      <c r="A199" s="68"/>
+      <c r="B199" s="68" t="s">
         <v>273</v>
       </c>
       <c r="C199" s="26" t="s">
@@ -13958,41 +13958,41 @@
       </c>
       <c r="D199" s="26"/>
       <c r="E199" s="33"/>
-      <c r="F199" s="60"/>
+      <c r="F199" s="57"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A200" s="56"/>
-      <c r="B200" s="56"/>
+      <c r="A200" s="68"/>
+      <c r="B200" s="68"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26" t="s">
         <v>350</v>
       </c>
       <c r="E200" s="26"/>
-      <c r="F200" s="60"/>
+      <c r="F200" s="57"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A201" s="56"/>
-      <c r="B201" s="56"/>
+      <c r="A201" s="68"/>
+      <c r="B201" s="68"/>
       <c r="C201" s="26"/>
       <c r="D201" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E201" s="26"/>
-      <c r="F201" s="60"/>
+      <c r="F201" s="57"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A202" s="56"/>
-      <c r="B202" s="56"/>
+      <c r="A202" s="68"/>
+      <c r="B202" s="68"/>
       <c r="C202" s="26"/>
       <c r="D202" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E202" s="26"/>
-      <c r="F202" s="60"/>
+      <c r="F202" s="57"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A203" s="56"/>
-      <c r="B203" s="56" t="s">
+      <c r="A203" s="68"/>
+      <c r="B203" s="68" t="s">
         <v>275</v>
       </c>
       <c r="C203" s="26" t="s">
@@ -14000,41 +14000,41 @@
       </c>
       <c r="D203" s="26"/>
       <c r="E203" s="33"/>
-      <c r="F203" s="60"/>
+      <c r="F203" s="57"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A204" s="56"/>
-      <c r="B204" s="56"/>
+      <c r="A204" s="68"/>
+      <c r="B204" s="68"/>
       <c r="C204" s="26"/>
       <c r="D204" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E204" s="26"/>
-      <c r="F204" s="60"/>
+      <c r="F204" s="57"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A205" s="56"/>
-      <c r="B205" s="56"/>
+      <c r="A205" s="68"/>
+      <c r="B205" s="68"/>
       <c r="C205" s="26"/>
       <c r="D205" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E205" s="26"/>
-      <c r="F205" s="60"/>
+      <c r="F205" s="57"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A206" s="56"/>
-      <c r="B206" s="56"/>
+      <c r="A206" s="68"/>
+      <c r="B206" s="68"/>
       <c r="C206" s="26"/>
       <c r="D206" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E206" s="26"/>
-      <c r="F206" s="60"/>
+      <c r="F206" s="57"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A207" s="56"/>
-      <c r="B207" s="56" t="s">
+      <c r="A207" s="68"/>
+      <c r="B207" s="68" t="s">
         <v>276</v>
       </c>
       <c r="C207" s="26" t="s">
@@ -14042,41 +14042,41 @@
       </c>
       <c r="D207" s="26"/>
       <c r="E207" s="33"/>
-      <c r="F207" s="60"/>
+      <c r="F207" s="57"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A208" s="56"/>
-      <c r="B208" s="56"/>
+      <c r="A208" s="68"/>
+      <c r="B208" s="68"/>
       <c r="C208" s="26"/>
       <c r="D208" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E208" s="26"/>
-      <c r="F208" s="60"/>
+      <c r="F208" s="57"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A209" s="56"/>
-      <c r="B209" s="56"/>
+      <c r="A209" s="68"/>
+      <c r="B209" s="68"/>
       <c r="C209" s="26"/>
       <c r="D209" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E209" s="26"/>
-      <c r="F209" s="60"/>
+      <c r="F209" s="57"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A210" s="56"/>
-      <c r="B210" s="56"/>
+      <c r="A210" s="68"/>
+      <c r="B210" s="68"/>
       <c r="C210" s="26"/>
       <c r="D210" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E210" s="26"/>
-      <c r="F210" s="60"/>
+      <c r="F210" s="57"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A211" s="56"/>
-      <c r="B211" s="56" t="s">
+      <c r="A211" s="68"/>
+      <c r="B211" s="68" t="s">
         <v>277</v>
       </c>
       <c r="C211" s="26" t="s">
@@ -14084,31 +14084,31 @@
       </c>
       <c r="D211" s="26"/>
       <c r="E211" s="33"/>
-      <c r="F211" s="60"/>
+      <c r="F211" s="57"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A212" s="56"/>
-      <c r="B212" s="56"/>
+      <c r="A212" s="68"/>
+      <c r="B212" s="68"/>
       <c r="C212" s="26"/>
       <c r="D212" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E212" s="26"/>
-      <c r="F212" s="60"/>
+      <c r="F212" s="57"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A213" s="56"/>
-      <c r="B213" s="56"/>
+      <c r="A213" s="68"/>
+      <c r="B213" s="68"/>
       <c r="C213" s="26"/>
       <c r="D213" s="29" t="s">
         <v>349</v>
       </c>
       <c r="E213" s="26"/>
-      <c r="F213" s="60"/>
+      <c r="F213" s="57"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A214" s="56"/>
-      <c r="B214" s="56" t="s">
+      <c r="A214" s="68"/>
+      <c r="B214" s="68" t="s">
         <v>278</v>
       </c>
       <c r="C214" s="26" t="s">
@@ -14116,21 +14116,21 @@
       </c>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="60"/>
+      <c r="F214" s="57"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="56"/>
-      <c r="B215" s="56"/>
+      <c r="A215" s="68"/>
+      <c r="B215" s="68"/>
       <c r="C215" s="26"/>
       <c r="D215" s="29" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="26"/>
-      <c r="F215" s="60"/>
+      <c r="F215" s="57"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="56"/>
-      <c r="B216" s="56" t="s">
+      <c r="A216" s="68"/>
+      <c r="B216" s="68" t="s">
         <v>279</v>
       </c>
       <c r="C216" s="26" t="s">
@@ -14138,41 +14138,41 @@
       </c>
       <c r="D216" s="26"/>
       <c r="E216" s="33"/>
-      <c r="F216" s="60"/>
+      <c r="F216" s="57"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="56"/>
-      <c r="B217" s="56"/>
+      <c r="A217" s="68"/>
+      <c r="B217" s="68"/>
       <c r="C217" s="26"/>
       <c r="D217" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E217" s="26"/>
-      <c r="F217" s="60"/>
+      <c r="F217" s="57"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A218" s="56"/>
-      <c r="B218" s="56"/>
+      <c r="A218" s="68"/>
+      <c r="B218" s="68"/>
       <c r="C218" s="26"/>
       <c r="D218" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E218" s="26"/>
-      <c r="F218" s="60"/>
+      <c r="F218" s="57"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A219" s="56"/>
-      <c r="B219" s="56"/>
+      <c r="A219" s="68"/>
+      <c r="B219" s="68"/>
       <c r="C219" s="26"/>
       <c r="D219" s="26" t="s">
         <v>352</v>
       </c>
       <c r="E219" s="26"/>
-      <c r="F219" s="60"/>
+      <c r="F219" s="57"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A220" s="56"/>
-      <c r="B220" s="56" t="s">
+      <c r="A220" s="68"/>
+      <c r="B220" s="68" t="s">
         <v>280</v>
       </c>
       <c r="C220" s="26" t="s">
@@ -14180,41 +14180,41 @@
       </c>
       <c r="D220" s="26"/>
       <c r="E220" s="33"/>
-      <c r="F220" s="60"/>
+      <c r="F220" s="57"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A221" s="56"/>
-      <c r="B221" s="56"/>
+      <c r="A221" s="68"/>
+      <c r="B221" s="68"/>
       <c r="C221" s="26"/>
       <c r="D221" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E221" s="26"/>
-      <c r="F221" s="60"/>
+      <c r="F221" s="57"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A222" s="56"/>
-      <c r="B222" s="56"/>
+      <c r="A222" s="68"/>
+      <c r="B222" s="68"/>
       <c r="C222" s="26"/>
       <c r="D222" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E222" s="26"/>
-      <c r="F222" s="60"/>
+      <c r="F222" s="57"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="56"/>
-      <c r="B223" s="56"/>
+      <c r="A223" s="68"/>
+      <c r="B223" s="68"/>
       <c r="C223" s="26"/>
       <c r="D223" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E223" s="26"/>
-      <c r="F223" s="60"/>
+      <c r="F223" s="57"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A224" s="56"/>
-      <c r="B224" s="56" t="s">
+      <c r="A224" s="68"/>
+      <c r="B224" s="68" t="s">
         <v>281</v>
       </c>
       <c r="C224" s="26" t="s">
@@ -14222,41 +14222,41 @@
       </c>
       <c r="D224" s="26"/>
       <c r="E224" s="33"/>
-      <c r="F224" s="60"/>
+      <c r="F224" s="57"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A225" s="56"/>
-      <c r="B225" s="56"/>
+      <c r="A225" s="68"/>
+      <c r="B225" s="68"/>
       <c r="C225" s="26"/>
       <c r="D225" s="29" t="s">
         <v>347</v>
       </c>
       <c r="E225" s="26"/>
-      <c r="F225" s="60"/>
+      <c r="F225" s="57"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A226" s="56"/>
-      <c r="B226" s="56"/>
+      <c r="A226" s="68"/>
+      <c r="B226" s="68"/>
       <c r="C226" s="26"/>
       <c r="D226" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E226" s="26"/>
-      <c r="F226" s="60"/>
+      <c r="F226" s="57"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A227" s="56"/>
-      <c r="B227" s="56"/>
+      <c r="A227" s="68"/>
+      <c r="B227" s="68"/>
       <c r="C227" s="26"/>
       <c r="D227" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E227" s="26"/>
-      <c r="F227" s="60"/>
+      <c r="F227" s="57"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A228" s="56"/>
-      <c r="B228" s="56" t="s">
+      <c r="A228" s="68"/>
+      <c r="B228" s="68" t="s">
         <v>282</v>
       </c>
       <c r="C228" s="26" t="s">
@@ -14264,41 +14264,41 @@
       </c>
       <c r="D228" s="26"/>
       <c r="E228" s="33"/>
-      <c r="F228" s="60"/>
+      <c r="F228" s="57"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A229" s="56"/>
-      <c r="B229" s="56"/>
+      <c r="A229" s="68"/>
+      <c r="B229" s="68"/>
       <c r="C229" s="26"/>
       <c r="D229" s="29" t="s">
         <v>350</v>
       </c>
       <c r="E229" s="26"/>
-      <c r="F229" s="60"/>
+      <c r="F229" s="57"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A230" s="56"/>
-      <c r="B230" s="56"/>
+      <c r="A230" s="68"/>
+      <c r="B230" s="68"/>
       <c r="C230" s="26"/>
       <c r="D230" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E230" s="26"/>
-      <c r="F230" s="60"/>
+      <c r="F230" s="57"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A231" s="56"/>
-      <c r="B231" s="56"/>
+      <c r="A231" s="68"/>
+      <c r="B231" s="68"/>
       <c r="C231" s="26"/>
       <c r="D231" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E231" s="26"/>
-      <c r="F231" s="60"/>
+      <c r="F231" s="57"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A232" s="56"/>
-      <c r="B232" s="56" t="s">
+      <c r="A232" s="68"/>
+      <c r="B232" s="68" t="s">
         <v>271</v>
       </c>
       <c r="C232" s="26" t="s">
@@ -14306,31 +14306,31 @@
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="33"/>
-      <c r="F232" s="60"/>
+      <c r="F232" s="57"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A233" s="56"/>
-      <c r="B233" s="56"/>
+      <c r="A233" s="68"/>
+      <c r="B233" s="68"/>
       <c r="C233" s="26"/>
       <c r="D233" s="29" t="s">
         <v>348</v>
       </c>
       <c r="E233" s="26"/>
-      <c r="F233" s="60"/>
+      <c r="F233" s="57"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A234" s="56"/>
-      <c r="B234" s="56"/>
+      <c r="A234" s="68"/>
+      <c r="B234" s="68"/>
       <c r="C234" s="26"/>
       <c r="D234" s="29" t="s">
         <v>352</v>
       </c>
       <c r="E234" s="26"/>
-      <c r="F234" s="60"/>
+      <c r="F234" s="57"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A235" s="56"/>
-      <c r="B235" s="56" t="s">
+      <c r="A235" s="68"/>
+      <c r="B235" s="68" t="s">
         <v>272</v>
       </c>
       <c r="C235" s="26" t="s">
@@ -14338,17 +14338,17 @@
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="33"/>
-      <c r="F235" s="60"/>
+      <c r="F235" s="57"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A236" s="56"/>
-      <c r="B236" s="56"/>
+      <c r="A236" s="68"/>
+      <c r="B236" s="68"/>
       <c r="C236" s="26"/>
       <c r="D236" s="29" t="s">
         <v>270</v>
       </c>
       <c r="E236" s="26"/>
-      <c r="F236" s="61"/>
+      <c r="F236" s="58"/>
     </row>
     <row r="240" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A240" s="24" t="s">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="D242" s="26"/>
       <c r="E242" s="33"/>
-      <c r="F242" s="59" t="s">
+      <c r="F242" s="56" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14397,7 +14397,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="26"/>
-      <c r="F243" s="60"/>
+      <c r="F243" s="57"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="26"/>
@@ -14407,7 +14407,7 @@
         <v>360</v>
       </c>
       <c r="E244" s="26"/>
-      <c r="F244" s="60"/>
+      <c r="F244" s="57"/>
       <c r="G244" t="s">
         <v>383</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>361</v>
       </c>
       <c r="E245" s="26"/>
-      <c r="F245" s="60"/>
+      <c r="F245" s="57"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="26"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="D246" s="26"/>
       <c r="E246" s="33"/>
-      <c r="F246" s="60"/>
+      <c r="F246" s="57"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="26"/>
@@ -14442,7 +14442,7 @@
         <v>357</v>
       </c>
       <c r="E247" s="33"/>
-      <c r="F247" s="60"/>
+      <c r="F247" s="57"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="26"/>
@@ -14452,7 +14452,7 @@
         <v>360</v>
       </c>
       <c r="E248" s="26"/>
-      <c r="F248" s="60"/>
+      <c r="F248" s="57"/>
       <c r="G248" t="s">
         <v>383</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>361</v>
       </c>
       <c r="E249" s="26"/>
-      <c r="F249" s="60"/>
+      <c r="F249" s="57"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="26"/>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="D250" s="26"/>
       <c r="E250" s="33"/>
-      <c r="F250" s="60"/>
+      <c r="F250" s="57"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="26"/>
@@ -14487,7 +14487,7 @@
         <v>358</v>
       </c>
       <c r="E251" s="26"/>
-      <c r="F251" s="60"/>
+      <c r="F251" s="57"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="26"/>
@@ -14497,7 +14497,7 @@
         <v>362</v>
       </c>
       <c r="E252" s="26"/>
-      <c r="F252" s="60"/>
+      <c r="F252" s="57"/>
       <c r="G252" t="s">
         <v>383</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>363</v>
       </c>
       <c r="E253" s="26"/>
-      <c r="F253" s="60"/>
+      <c r="F253" s="57"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="26"/>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="D254" s="26"/>
       <c r="E254" s="33"/>
-      <c r="F254" s="60"/>
+      <c r="F254" s="57"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="26"/>
@@ -14532,7 +14532,7 @@
         <v>359</v>
       </c>
       <c r="E255" s="26"/>
-      <c r="F255" s="60"/>
+      <c r="F255" s="57"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="26"/>
@@ -14542,7 +14542,7 @@
         <v>362</v>
       </c>
       <c r="E256" s="26"/>
-      <c r="F256" s="60"/>
+      <c r="F256" s="57"/>
       <c r="G256" t="s">
         <v>383</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>363</v>
       </c>
       <c r="E257" s="26"/>
-      <c r="F257" s="61"/>
+      <c r="F257" s="58"/>
     </row>
     <row r="260" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A260" s="24" t="s">
@@ -14581,10 +14581,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A262" s="56" t="s">
+      <c r="A262" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B262" s="56" t="s">
+      <c r="B262" s="68" t="s">
         <v>292</v>
       </c>
       <c r="C262" s="26" t="s">
@@ -14592,43 +14592,43 @@
       </c>
       <c r="D262" s="26"/>
       <c r="E262" s="33"/>
-      <c r="F262" s="59" t="s">
+      <c r="F262" s="56" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A263" s="56"/>
-      <c r="B263" s="56"/>
+      <c r="A263" s="68"/>
+      <c r="B263" s="68"/>
       <c r="C263" s="26"/>
       <c r="D263" s="26" t="s">
         <v>365</v>
       </c>
       <c r="E263" s="26"/>
-      <c r="F263" s="60"/>
+      <c r="F263" s="57"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A264" s="56"/>
-      <c r="B264" s="56"/>
+      <c r="A264" s="68"/>
+      <c r="B264" s="68"/>
       <c r="C264" s="26"/>
       <c r="D264" s="26" t="s">
         <v>366</v>
       </c>
       <c r="E264" s="26"/>
-      <c r="F264" s="60"/>
+      <c r="F264" s="57"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A265" s="56"/>
-      <c r="B265" s="56"/>
+      <c r="A265" s="68"/>
+      <c r="B265" s="68"/>
       <c r="C265" s="26"/>
       <c r="D265" s="26" t="s">
         <v>367</v>
       </c>
       <c r="E265" s="26"/>
-      <c r="F265" s="60"/>
+      <c r="F265" s="57"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A266" s="56"/>
-      <c r="B266" s="56" t="s">
+      <c r="A266" s="68"/>
+      <c r="B266" s="68" t="s">
         <v>293</v>
       </c>
       <c r="C266" s="26" t="s">
@@ -14636,41 +14636,41 @@
       </c>
       <c r="D266" s="26"/>
       <c r="E266" s="33"/>
-      <c r="F266" s="60"/>
+      <c r="F266" s="57"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A267" s="56"/>
-      <c r="B267" s="56"/>
+      <c r="A267" s="68"/>
+      <c r="B267" s="68"/>
       <c r="C267" s="26"/>
       <c r="D267" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E267" s="26"/>
-      <c r="F267" s="60"/>
+      <c r="F267" s="57"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A268" s="56"/>
-      <c r="B268" s="56"/>
+      <c r="A268" s="68"/>
+      <c r="B268" s="68"/>
       <c r="C268" s="26"/>
       <c r="D268" s="26" t="s">
         <v>368</v>
       </c>
       <c r="E268" s="26"/>
-      <c r="F268" s="60"/>
+      <c r="F268" s="57"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A269" s="56"/>
-      <c r="B269" s="56"/>
+      <c r="A269" s="68"/>
+      <c r="B269" s="68"/>
       <c r="C269" s="26"/>
       <c r="D269" s="29" t="s">
         <v>367</v>
       </c>
       <c r="E269" s="26"/>
-      <c r="F269" s="60"/>
+      <c r="F269" s="57"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A270" s="56"/>
-      <c r="B270" s="56" t="s">
+      <c r="A270" s="68"/>
+      <c r="B270" s="68" t="s">
         <v>294</v>
       </c>
       <c r="C270" s="26" t="s">
@@ -14678,41 +14678,41 @@
       </c>
       <c r="D270" s="26"/>
       <c r="E270" s="33"/>
-      <c r="F270" s="60"/>
+      <c r="F270" s="57"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A271" s="56"/>
-      <c r="B271" s="56"/>
+      <c r="A271" s="68"/>
+      <c r="B271" s="68"/>
       <c r="C271" s="26"/>
       <c r="D271" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E271" s="26"/>
-      <c r="F271" s="60"/>
+      <c r="F271" s="57"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A272" s="56"/>
-      <c r="B272" s="56"/>
+      <c r="A272" s="68"/>
+      <c r="B272" s="68"/>
       <c r="C272" s="26"/>
       <c r="D272" s="26" t="s">
         <v>369</v>
       </c>
       <c r="E272" s="26"/>
-      <c r="F272" s="60"/>
+      <c r="F272" s="57"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="56"/>
-      <c r="B273" s="56"/>
+      <c r="A273" s="68"/>
+      <c r="B273" s="68"/>
       <c r="C273" s="26"/>
       <c r="D273" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E273" s="26"/>
-      <c r="F273" s="60"/>
+      <c r="F273" s="57"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="56"/>
-      <c r="B274" s="56" t="s">
+      <c r="A274" s="68"/>
+      <c r="B274" s="68" t="s">
         <v>295</v>
       </c>
       <c r="C274" s="26" t="s">
@@ -14720,41 +14720,41 @@
       </c>
       <c r="D274" s="26"/>
       <c r="E274" s="33"/>
-      <c r="F274" s="60"/>
+      <c r="F274" s="57"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="56"/>
-      <c r="B275" s="56"/>
+      <c r="A275" s="68"/>
+      <c r="B275" s="68"/>
       <c r="C275" s="26"/>
       <c r="D275" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E275" s="26"/>
-      <c r="F275" s="60"/>
+      <c r="F275" s="57"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="56"/>
-      <c r="B276" s="56"/>
+      <c r="A276" s="68"/>
+      <c r="B276" s="68"/>
       <c r="C276" s="26"/>
       <c r="D276" s="26" t="s">
         <v>371</v>
       </c>
       <c r="E276" s="26"/>
-      <c r="F276" s="60"/>
+      <c r="F276" s="57"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="56"/>
-      <c r="B277" s="56"/>
+      <c r="A277" s="68"/>
+      <c r="B277" s="68"/>
       <c r="C277" s="26"/>
       <c r="D277" s="26" t="s">
         <v>370</v>
       </c>
       <c r="E277" s="26"/>
-      <c r="F277" s="60"/>
+      <c r="F277" s="57"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="56"/>
-      <c r="B278" s="56" t="s">
+      <c r="A278" s="68"/>
+      <c r="B278" s="68" t="s">
         <v>296</v>
       </c>
       <c r="C278" s="26" t="s">
@@ -14762,21 +14762,21 @@
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="33"/>
-      <c r="F278" s="60"/>
+      <c r="F278" s="57"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="56"/>
-      <c r="B279" s="56"/>
+      <c r="A279" s="68"/>
+      <c r="B279" s="68"/>
       <c r="C279" s="26"/>
       <c r="D279" s="29" t="s">
         <v>305</v>
       </c>
       <c r="E279" s="26"/>
-      <c r="F279" s="60"/>
+      <c r="F279" s="57"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="56"/>
-      <c r="B280" s="56" t="s">
+      <c r="A280" s="68"/>
+      <c r="B280" s="68" t="s">
         <v>297</v>
       </c>
       <c r="C280" s="26" t="s">
@@ -14784,21 +14784,21 @@
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="33"/>
-      <c r="F280" s="60"/>
+      <c r="F280" s="57"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="56"/>
-      <c r="B281" s="56"/>
+      <c r="A281" s="68"/>
+      <c r="B281" s="68"/>
       <c r="C281" s="26"/>
       <c r="D281" s="29" t="s">
         <v>306</v>
       </c>
       <c r="E281" s="26"/>
-      <c r="F281" s="60"/>
+      <c r="F281" s="57"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="56"/>
-      <c r="B282" s="56" t="s">
+      <c r="A282" s="68"/>
+      <c r="B282" s="68" t="s">
         <v>298</v>
       </c>
       <c r="C282" s="26" t="s">
@@ -14806,21 +14806,21 @@
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="33"/>
-      <c r="F282" s="60"/>
+      <c r="F282" s="57"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="56"/>
-      <c r="B283" s="56"/>
+      <c r="A283" s="68"/>
+      <c r="B283" s="68"/>
       <c r="C283" s="26"/>
       <c r="D283" s="29" t="s">
         <v>307</v>
       </c>
       <c r="E283" s="26"/>
-      <c r="F283" s="60"/>
+      <c r="F283" s="57"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="56"/>
-      <c r="B284" s="56" t="s">
+      <c r="A284" s="68"/>
+      <c r="B284" s="68" t="s">
         <v>299</v>
       </c>
       <c r="C284" s="26" t="s">
@@ -14828,21 +14828,21 @@
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="33"/>
-      <c r="F284" s="60"/>
+      <c r="F284" s="57"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="56"/>
-      <c r="B285" s="56"/>
+      <c r="A285" s="68"/>
+      <c r="B285" s="68"/>
       <c r="C285" s="26"/>
       <c r="D285" s="29" t="s">
         <v>308</v>
       </c>
       <c r="E285" s="26"/>
-      <c r="F285" s="60"/>
+      <c r="F285" s="57"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="56"/>
-      <c r="B286" s="56" t="s">
+      <c r="A286" s="68"/>
+      <c r="B286" s="68" t="s">
         <v>300</v>
       </c>
       <c r="C286" s="26" t="s">
@@ -14850,17 +14850,17 @@
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="33"/>
-      <c r="F286" s="60"/>
+      <c r="F286" s="57"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="56"/>
-      <c r="B287" s="56"/>
+      <c r="A287" s="68"/>
+      <c r="B287" s="68"/>
       <c r="C287" s="26"/>
       <c r="D287" s="29" t="s">
         <v>309</v>
       </c>
       <c r="E287" s="26"/>
-      <c r="F287" s="61"/>
+      <c r="F287" s="58"/>
     </row>
     <row r="291" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A291" s="24" t="s">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="33"/>
-      <c r="F293" s="59" t="s">
+      <c r="F293" s="56" t="s">
         <v>434</v>
       </c>
       <c r="G293" t="s">
@@ -14912,7 +14912,7 @@
         <v>372</v>
       </c>
       <c r="E294" s="26"/>
-      <c r="F294" s="60"/>
+      <c r="F294" s="57"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="26"/>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="D295" s="26"/>
       <c r="E295" s="33"/>
-      <c r="F295" s="60"/>
+      <c r="F295" s="57"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="26"/>
@@ -14934,7 +14934,7 @@
         <v>372</v>
       </c>
       <c r="E296" s="26"/>
-      <c r="F296" s="60"/>
+      <c r="F296" s="57"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="26"/>
@@ -14944,7 +14944,7 @@
         <v>316</v>
       </c>
       <c r="E297" s="26"/>
-      <c r="F297" s="60"/>
+      <c r="F297" s="57"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="26"/>
@@ -14956,7 +14956,7 @@
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="33"/>
-      <c r="F298" s="60"/>
+      <c r="F298" s="57"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="26"/>
@@ -14966,7 +14966,7 @@
         <v>372</v>
       </c>
       <c r="E299" s="26"/>
-      <c r="F299" s="60"/>
+      <c r="F299" s="57"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="26"/>
@@ -14976,7 +14976,7 @@
         <v>373</v>
       </c>
       <c r="E300" s="26"/>
-      <c r="F300" s="60"/>
+      <c r="F300" s="57"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="26"/>
@@ -14986,7 +14986,7 @@
         <v>317</v>
       </c>
       <c r="E301" s="26"/>
-      <c r="F301" s="60"/>
+      <c r="F301" s="57"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="26" t="s">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="26"/>
-      <c r="F302" s="60"/>
+      <c r="F302" s="57"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="26"/>
@@ -15010,7 +15010,7 @@
         <v>372</v>
       </c>
       <c r="E303" s="26"/>
-      <c r="F303" s="60"/>
+      <c r="F303" s="57"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="26"/>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="26"/>
-      <c r="F304" s="60"/>
+      <c r="F304" s="57"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="26"/>
@@ -15032,7 +15032,7 @@
         <v>372</v>
       </c>
       <c r="E305" s="26"/>
-      <c r="F305" s="60"/>
+      <c r="F305" s="57"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="26"/>
@@ -15042,7 +15042,7 @@
         <v>316</v>
       </c>
       <c r="E306" s="26"/>
-      <c r="F306" s="60"/>
+      <c r="F306" s="57"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="26"/>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="D307" s="26"/>
       <c r="E307" s="26"/>
-      <c r="F307" s="60"/>
+      <c r="F307" s="57"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="26"/>
@@ -15064,7 +15064,7 @@
         <v>372</v>
       </c>
       <c r="E308" s="26"/>
-      <c r="F308" s="60"/>
+      <c r="F308" s="57"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="26"/>
@@ -15074,7 +15074,7 @@
         <v>373</v>
       </c>
       <c r="E309" s="26"/>
-      <c r="F309" s="60"/>
+      <c r="F309" s="57"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="26"/>
@@ -15084,7 +15084,7 @@
         <v>317</v>
       </c>
       <c r="E310" s="26"/>
-      <c r="F310" s="60"/>
+      <c r="F310" s="57"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="26" t="s">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="D311" s="26"/>
       <c r="E311" s="26"/>
-      <c r="F311" s="60"/>
+      <c r="F311" s="57"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="26"/>
@@ -15108,7 +15108,7 @@
         <v>372</v>
       </c>
       <c r="E312" s="26"/>
-      <c r="F312" s="60"/>
+      <c r="F312" s="57"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="26"/>
@@ -15120,7 +15120,7 @@
       </c>
       <c r="D313" s="26"/>
       <c r="E313" s="26"/>
-      <c r="F313" s="60"/>
+      <c r="F313" s="57"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="26"/>
@@ -15130,7 +15130,7 @@
         <v>372</v>
       </c>
       <c r="E314" s="26"/>
-      <c r="F314" s="60"/>
+      <c r="F314" s="57"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="26"/>
@@ -15140,7 +15140,7 @@
         <v>316</v>
       </c>
       <c r="E315" s="26"/>
-      <c r="F315" s="60"/>
+      <c r="F315" s="57"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="26"/>
@@ -15152,7 +15152,7 @@
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="26"/>
-      <c r="F316" s="60"/>
+      <c r="F316" s="57"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="26"/>
@@ -15162,7 +15162,7 @@
         <v>372</v>
       </c>
       <c r="E317" s="26"/>
-      <c r="F317" s="60"/>
+      <c r="F317" s="57"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="26"/>
@@ -15172,7 +15172,7 @@
         <v>373</v>
       </c>
       <c r="E318" s="26"/>
-      <c r="F318" s="60"/>
+      <c r="F318" s="57"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="26"/>
@@ -15182,7 +15182,7 @@
         <v>317</v>
       </c>
       <c r="E319" s="26"/>
-      <c r="F319" s="60"/>
+      <c r="F319" s="57"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="26" t="s">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="26"/>
-      <c r="F320" s="60"/>
+      <c r="F320" s="57"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="26"/>
@@ -15206,7 +15206,7 @@
         <v>316</v>
       </c>
       <c r="E321" s="26"/>
-      <c r="F321" s="60"/>
+      <c r="F321" s="57"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="26"/>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="26"/>
-      <c r="F322" s="60"/>
+      <c r="F322" s="57"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="26"/>
@@ -15228,7 +15228,7 @@
         <v>373</v>
       </c>
       <c r="E323" s="26"/>
-      <c r="F323" s="60"/>
+      <c r="F323" s="57"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="26"/>
@@ -15238,7 +15238,7 @@
         <v>317</v>
       </c>
       <c r="E324" s="26"/>
-      <c r="F324" s="60"/>
+      <c r="F324" s="57"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="26"/>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="D325" s="26"/>
       <c r="E325" s="26"/>
-      <c r="F325" s="60"/>
+      <c r="F325" s="57"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="26"/>
@@ -15260,7 +15260,7 @@
         <v>373</v>
       </c>
       <c r="E326" s="26"/>
-      <c r="F326" s="60"/>
+      <c r="F326" s="57"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="26"/>
@@ -15270,7 +15270,7 @@
         <v>317</v>
       </c>
       <c r="E327" s="26"/>
-      <c r="F327" s="60"/>
+      <c r="F327" s="57"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="26" t="s">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="D328" s="26"/>
       <c r="E328" s="33"/>
-      <c r="F328" s="60"/>
+      <c r="F328" s="57"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="26"/>
@@ -15294,7 +15294,7 @@
         <v>374</v>
       </c>
       <c r="E329" s="26"/>
-      <c r="F329" s="60"/>
+      <c r="F329" s="57"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="26"/>
@@ -15304,7 +15304,7 @@
         <v>375</v>
       </c>
       <c r="E330" s="26"/>
-      <c r="F330" s="60"/>
+      <c r="F330" s="57"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="26" t="s">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="33"/>
-      <c r="F331" s="60"/>
+      <c r="F331" s="57"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="26"/>
@@ -15328,7 +15328,7 @@
         <v>331</v>
       </c>
       <c r="E332" s="26"/>
-      <c r="F332" s="60"/>
+      <c r="F332" s="57"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="26"/>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="33"/>
-      <c r="F333" s="60"/>
+      <c r="F333" s="57"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="26"/>
@@ -15350,7 +15350,7 @@
         <v>332</v>
       </c>
       <c r="E334" s="26"/>
-      <c r="F334" s="60"/>
+      <c r="F334" s="57"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="26"/>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="D335" s="26"/>
       <c r="E335" s="33"/>
-      <c r="F335" s="60"/>
+      <c r="F335" s="57"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="26"/>
@@ -15372,7 +15372,7 @@
         <v>333</v>
       </c>
       <c r="E336" s="26"/>
-      <c r="F336" s="60"/>
+      <c r="F336" s="57"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="26"/>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="D337" s="26"/>
       <c r="E337" s="33"/>
-      <c r="F337" s="60"/>
+      <c r="F337" s="57"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="26"/>
@@ -15394,7 +15394,7 @@
         <v>334</v>
       </c>
       <c r="E338" s="26"/>
-      <c r="F338" s="61"/>
+      <c r="F338" s="58"/>
     </row>
     <row r="342" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A342" s="24" t="s">
@@ -15421,7 +15421,7 @@
         <v>341</v>
       </c>
       <c r="C344" s="33"/>
-      <c r="D344" s="59" t="s">
+      <c r="D344" s="56" t="s">
         <v>435</v>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
         <v>342</v>
       </c>
       <c r="C345" s="33"/>
-      <c r="D345" s="60"/>
+      <c r="D345" s="57"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="26" t="s">
@@ -15443,7 +15443,7 @@
         <v>343</v>
       </c>
       <c r="C346" s="33"/>
-      <c r="D346" s="60"/>
+      <c r="D346" s="57"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="26" t="s">
@@ -15453,38 +15453,10 @@
         <v>340</v>
       </c>
       <c r="C347" s="33"/>
-      <c r="D347" s="61"/>
+      <c r="D347" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F262:F287"/>
-    <mergeCell ref="F293:F338"/>
-    <mergeCell ref="D344:D347"/>
-    <mergeCell ref="H63:H97"/>
-    <mergeCell ref="E103:E120"/>
-    <mergeCell ref="F185:F190"/>
-    <mergeCell ref="F195:F236"/>
-    <mergeCell ref="F242:F257"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="E63:E97"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="E16:E33"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="A103:A120"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="A195:A236"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B185:B186"/>
     <mergeCell ref="B286:B287"/>
     <mergeCell ref="B284:B285"/>
     <mergeCell ref="B280:B281"/>
@@ -15501,6 +15473,34 @@
     <mergeCell ref="B235:B236"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="B211:B213"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A103:A120"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="A195:A236"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E38:E46"/>
+    <mergeCell ref="E63:E97"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="E16:E33"/>
+    <mergeCell ref="F262:F287"/>
+    <mergeCell ref="F293:F338"/>
+    <mergeCell ref="D344:D347"/>
+    <mergeCell ref="H63:H97"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="F185:F190"/>
+    <mergeCell ref="F195:F236"/>
+    <mergeCell ref="F242:F257"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
